--- a/BackTest/2020-01-23 BackTest DASH.xlsx
+++ b/BackTest/2020-01-23 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M112"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>124600</v>
       </c>
       <c r="C2" t="n">
-        <v>124600</v>
+        <v>124700</v>
       </c>
       <c r="D2" t="n">
-        <v>124600</v>
+        <v>124700</v>
       </c>
       <c r="E2" t="n">
         <v>124600</v>
       </c>
       <c r="F2" t="n">
-        <v>39.3881</v>
+        <v>1.9242</v>
       </c>
       <c r="G2" t="n">
-        <v>125980</v>
+        <v>125993.3333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,19 +480,23 @@
         <v>124600</v>
       </c>
       <c r="F3" t="n">
-        <v>3.0394</v>
+        <v>39.3881</v>
       </c>
       <c r="G3" t="n">
-        <v>125973.3333333333</v>
+        <v>125980</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>124700</v>
+      </c>
+      <c r="K3" t="n">
+        <v>124700</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -503,32 +507,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>124300</v>
+        <v>124600</v>
       </c>
       <c r="C4" t="n">
-        <v>124300</v>
+        <v>124600</v>
       </c>
       <c r="D4" t="n">
-        <v>124300</v>
+        <v>124600</v>
       </c>
       <c r="E4" t="n">
-        <v>124300</v>
+        <v>124600</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8551</v>
+        <v>3.0394</v>
       </c>
       <c r="G4" t="n">
-        <v>125951.6666666667</v>
+        <v>125973.3333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>124600</v>
+      </c>
+      <c r="K4" t="n">
+        <v>124700</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -538,32 +550,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>125400</v>
+        <v>124300</v>
       </c>
       <c r="C5" t="n">
-        <v>125400</v>
+        <v>124300</v>
       </c>
       <c r="D5" t="n">
-        <v>125400</v>
+        <v>124300</v>
       </c>
       <c r="E5" t="n">
-        <v>125400</v>
+        <v>124300</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04429824</v>
+        <v>1.8551</v>
       </c>
       <c r="G5" t="n">
-        <v>125948.3333333333</v>
+        <v>125951.6666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>124600</v>
+      </c>
+      <c r="K5" t="n">
+        <v>124700</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -585,19 +605,23 @@
         <v>125400</v>
       </c>
       <c r="F6" t="n">
-        <v>1.9624</v>
+        <v>0.04429824</v>
       </c>
       <c r="G6" t="n">
-        <v>125946.6666666667</v>
+        <v>125948.3333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>124300</v>
+      </c>
+      <c r="K6" t="n">
+        <v>124300</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -608,22 +632,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>124900</v>
+        <v>125400</v>
       </c>
       <c r="C7" t="n">
-        <v>124900</v>
+        <v>125400</v>
       </c>
       <c r="D7" t="n">
-        <v>124900</v>
+        <v>125400</v>
       </c>
       <c r="E7" t="n">
-        <v>124900</v>
+        <v>125400</v>
       </c>
       <c r="F7" t="n">
-        <v>13.3229</v>
+        <v>1.9624</v>
       </c>
       <c r="G7" t="n">
-        <v>125941.6666666667</v>
+        <v>125946.6666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -632,8 +656,14 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>124300</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -646,19 +676,19 @@
         <v>124900</v>
       </c>
       <c r="C8" t="n">
-        <v>125800</v>
+        <v>124900</v>
       </c>
       <c r="D8" t="n">
-        <v>125800</v>
+        <v>124900</v>
       </c>
       <c r="E8" t="n">
         <v>124900</v>
       </c>
       <c r="F8" t="n">
-        <v>113.4723</v>
+        <v>13.3229</v>
       </c>
       <c r="G8" t="n">
-        <v>125951.6666666667</v>
+        <v>125941.6666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -667,8 +697,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>124300</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -681,19 +717,19 @@
         <v>124900</v>
       </c>
       <c r="C9" t="n">
-        <v>124900</v>
+        <v>125800</v>
       </c>
       <c r="D9" t="n">
-        <v>124900</v>
+        <v>125800</v>
       </c>
       <c r="E9" t="n">
         <v>124900</v>
       </c>
       <c r="F9" t="n">
-        <v>1.8582</v>
+        <v>113.4723</v>
       </c>
       <c r="G9" t="n">
-        <v>125950</v>
+        <v>125951.6666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>124800</v>
+        <v>124900</v>
       </c>
       <c r="C10" t="n">
-        <v>124800</v>
+        <v>124900</v>
       </c>
       <c r="D10" t="n">
-        <v>124800</v>
+        <v>124900</v>
       </c>
       <c r="E10" t="n">
-        <v>124800</v>
+        <v>124900</v>
       </c>
       <c r="F10" t="n">
-        <v>8.740600000000001</v>
+        <v>1.8582</v>
       </c>
       <c r="G10" t="n">
-        <v>125933.3333333333</v>
+        <v>125950</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +784,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>125000</v>
+        <v>124800</v>
       </c>
       <c r="C11" t="n">
         <v>124800</v>
       </c>
       <c r="D11" t="n">
-        <v>125000</v>
+        <v>124800</v>
       </c>
       <c r="E11" t="n">
         <v>124800</v>
       </c>
       <c r="F11" t="n">
-        <v>10.184</v>
+        <v>8.740600000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>125896.6666666667</v>
+        <v>125933.3333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +819,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>124700</v>
+        <v>125000</v>
       </c>
       <c r="C12" t="n">
-        <v>124700</v>
+        <v>124800</v>
       </c>
       <c r="D12" t="n">
-        <v>124700</v>
+        <v>125000</v>
       </c>
       <c r="E12" t="n">
-        <v>124700</v>
+        <v>124800</v>
       </c>
       <c r="F12" t="n">
-        <v>5.993</v>
+        <v>10.184</v>
       </c>
       <c r="G12" t="n">
-        <v>125866.6666666667</v>
+        <v>125896.6666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +854,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>124500</v>
+        <v>124700</v>
       </c>
       <c r="C13" t="n">
-        <v>124500</v>
+        <v>124700</v>
       </c>
       <c r="D13" t="n">
-        <v>124500</v>
+        <v>124700</v>
       </c>
       <c r="E13" t="n">
-        <v>124500</v>
+        <v>124700</v>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>5.993</v>
       </c>
       <c r="G13" t="n">
-        <v>125848.3333333333</v>
+        <v>125866.6666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +889,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>124600</v>
+        <v>124500</v>
       </c>
       <c r="C14" t="n">
-        <v>124600</v>
+        <v>124500</v>
       </c>
       <c r="D14" t="n">
-        <v>124600</v>
+        <v>124500</v>
       </c>
       <c r="E14" t="n">
-        <v>124600</v>
+        <v>124500</v>
       </c>
       <c r="F14" t="n">
-        <v>1.0013</v>
+        <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>125836.6666666667</v>
+        <v>125848.3333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +936,10 @@
         <v>124600</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7249</v>
+        <v>1.0013</v>
       </c>
       <c r="G15" t="n">
-        <v>125813.3333333333</v>
+        <v>125836.6666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +959,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>124500</v>
+        <v>124600</v>
       </c>
       <c r="C16" t="n">
-        <v>124500</v>
+        <v>124600</v>
       </c>
       <c r="D16" t="n">
-        <v>124500</v>
+        <v>124600</v>
       </c>
       <c r="E16" t="n">
-        <v>124500</v>
+        <v>124600</v>
       </c>
       <c r="F16" t="n">
-        <v>2.659</v>
+        <v>0.7249</v>
       </c>
       <c r="G16" t="n">
-        <v>125788.3333333333</v>
+        <v>125813.3333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +994,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>124700</v>
+        <v>124500</v>
       </c>
       <c r="C17" t="n">
-        <v>125000</v>
+        <v>124500</v>
       </c>
       <c r="D17" t="n">
-        <v>125000</v>
+        <v>124500</v>
       </c>
       <c r="E17" t="n">
-        <v>124600</v>
+        <v>124500</v>
       </c>
       <c r="F17" t="n">
-        <v>8.635999999999999</v>
+        <v>2.659</v>
       </c>
       <c r="G17" t="n">
-        <v>125785</v>
+        <v>125788.3333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,31 +1029,35 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>124600</v>
+        <v>124700</v>
       </c>
       <c r="C18" t="n">
-        <v>124700</v>
+        <v>125000</v>
       </c>
       <c r="D18" t="n">
-        <v>124700</v>
+        <v>125000</v>
       </c>
       <c r="E18" t="n">
         <v>124600</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8704</v>
+        <v>8.635999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>125775</v>
+        <v>125785</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>124500</v>
+      </c>
+      <c r="K18" t="n">
+        <v>124500</v>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
@@ -1028,7 +1068,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>124700</v>
+        <v>124600</v>
       </c>
       <c r="C19" t="n">
         <v>124700</v>
@@ -1037,13 +1077,13 @@
         <v>124700</v>
       </c>
       <c r="E19" t="n">
-        <v>124700</v>
+        <v>124600</v>
       </c>
       <c r="F19" t="n">
-        <v>1.646</v>
+        <v>0.8704</v>
       </c>
       <c r="G19" t="n">
-        <v>125770</v>
+        <v>125775</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1052,8 +1092,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>124500</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1063,22 +1109,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>124800</v>
+        <v>124700</v>
       </c>
       <c r="C20" t="n">
-        <v>124800</v>
+        <v>124700</v>
       </c>
       <c r="D20" t="n">
-        <v>124800</v>
+        <v>124700</v>
       </c>
       <c r="E20" t="n">
-        <v>124800</v>
+        <v>124700</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2675</v>
+        <v>1.646</v>
       </c>
       <c r="G20" t="n">
-        <v>125761.6666666667</v>
+        <v>125770</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1087,8 +1133,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>124500</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1110,10 +1162,10 @@
         <v>124800</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2</v>
+        <v>0.2675</v>
       </c>
       <c r="G21" t="n">
-        <v>125745</v>
+        <v>125761.6666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1197,10 @@
         <v>124800</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8002</v>
+        <v>0.2</v>
       </c>
       <c r="G22" t="n">
-        <v>125728.3333333333</v>
+        <v>125745</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1232,10 @@
         <v>124800</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4221</v>
+        <v>0.8002</v>
       </c>
       <c r="G23" t="n">
-        <v>125711.6666666667</v>
+        <v>125728.3333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1255,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>124900</v>
+        <v>124800</v>
       </c>
       <c r="C24" t="n">
-        <v>124900</v>
+        <v>124800</v>
       </c>
       <c r="D24" t="n">
-        <v>124900</v>
+        <v>124800</v>
       </c>
       <c r="E24" t="n">
-        <v>124900</v>
+        <v>124800</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>0.4221</v>
       </c>
       <c r="G24" t="n">
-        <v>125703.3333333333</v>
+        <v>125711.6666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1302,10 @@
         <v>124900</v>
       </c>
       <c r="F25" t="n">
-        <v>0.03202562</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>125698.3333333333</v>
+        <v>125703.3333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1337,10 @@
         <v>124900</v>
       </c>
       <c r="F26" t="n">
-        <v>0.613</v>
+        <v>0.03202562</v>
       </c>
       <c r="G26" t="n">
-        <v>125693.3333333333</v>
+        <v>125698.3333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1360,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>124700</v>
+        <v>124900</v>
       </c>
       <c r="C27" t="n">
-        <v>124700</v>
+        <v>124900</v>
       </c>
       <c r="D27" t="n">
-        <v>124700</v>
+        <v>124900</v>
       </c>
       <c r="E27" t="n">
-        <v>124700</v>
+        <v>124900</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0003</v>
+        <v>0.613</v>
       </c>
       <c r="G27" t="n">
-        <v>125680</v>
+        <v>125693.3333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1395,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>124200</v>
+        <v>124700</v>
       </c>
       <c r="C28" t="n">
-        <v>124200</v>
+        <v>124700</v>
       </c>
       <c r="D28" t="n">
-        <v>124200</v>
+        <v>124700</v>
       </c>
       <c r="E28" t="n">
-        <v>124200</v>
+        <v>124700</v>
       </c>
       <c r="F28" t="n">
-        <v>3.709</v>
+        <v>0.0003</v>
       </c>
       <c r="G28" t="n">
-        <v>125661.6666666667</v>
+        <v>125680</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1430,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>124100</v>
+        <v>124200</v>
       </c>
       <c r="C29" t="n">
-        <v>124100</v>
+        <v>124200</v>
       </c>
       <c r="D29" t="n">
-        <v>124100</v>
+        <v>124200</v>
       </c>
       <c r="E29" t="n">
-        <v>124100</v>
+        <v>124200</v>
       </c>
       <c r="F29" t="n">
-        <v>1.051</v>
+        <v>3.709</v>
       </c>
       <c r="G29" t="n">
-        <v>125641.6666666667</v>
+        <v>125661.6666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1465,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>124200</v>
+        <v>124100</v>
       </c>
       <c r="C30" t="n">
-        <v>124200</v>
+        <v>124100</v>
       </c>
       <c r="D30" t="n">
-        <v>124200</v>
+        <v>124100</v>
       </c>
       <c r="E30" t="n">
-        <v>124200</v>
+        <v>124100</v>
       </c>
       <c r="F30" t="n">
-        <v>0.245</v>
+        <v>1.051</v>
       </c>
       <c r="G30" t="n">
-        <v>125620</v>
+        <v>125641.6666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1500,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>124400</v>
+        <v>124200</v>
       </c>
       <c r="C31" t="n">
-        <v>124300</v>
+        <v>124200</v>
       </c>
       <c r="D31" t="n">
-        <v>124400</v>
+        <v>124200</v>
       </c>
       <c r="E31" t="n">
-        <v>124000</v>
+        <v>124200</v>
       </c>
       <c r="F31" t="n">
-        <v>19.181</v>
+        <v>0.245</v>
       </c>
       <c r="G31" t="n">
-        <v>125591.6666666667</v>
+        <v>125620</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1535,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>124200</v>
+        <v>124400</v>
       </c>
       <c r="C32" t="n">
-        <v>124100</v>
+        <v>124300</v>
       </c>
       <c r="D32" t="n">
-        <v>124200</v>
+        <v>124400</v>
       </c>
       <c r="E32" t="n">
-        <v>124100</v>
+        <v>124000</v>
       </c>
       <c r="F32" t="n">
-        <v>6.291</v>
+        <v>19.181</v>
       </c>
       <c r="G32" t="n">
-        <v>125548.3333333333</v>
+        <v>125591.6666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1570,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>124000</v>
+        <v>124200</v>
       </c>
       <c r="C33" t="n">
-        <v>124000</v>
+        <v>124100</v>
       </c>
       <c r="D33" t="n">
-        <v>124000</v>
+        <v>124200</v>
       </c>
       <c r="E33" t="n">
-        <v>124000</v>
+        <v>124100</v>
       </c>
       <c r="F33" t="n">
-        <v>16.026</v>
+        <v>6.291</v>
       </c>
       <c r="G33" t="n">
-        <v>125500</v>
+        <v>125548.3333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1605,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>123800</v>
+        <v>124000</v>
       </c>
       <c r="C34" t="n">
-        <v>124600</v>
+        <v>124000</v>
       </c>
       <c r="D34" t="n">
-        <v>124600</v>
+        <v>124000</v>
       </c>
       <c r="E34" t="n">
-        <v>123800</v>
+        <v>124000</v>
       </c>
       <c r="F34" t="n">
-        <v>57.942</v>
+        <v>16.026</v>
       </c>
       <c r="G34" t="n">
-        <v>125450</v>
+        <v>125500</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1643,19 @@
         <v>123800</v>
       </c>
       <c r="C35" t="n">
-        <v>123800</v>
+        <v>124600</v>
       </c>
       <c r="D35" t="n">
-        <v>123800</v>
+        <v>124600</v>
       </c>
       <c r="E35" t="n">
         <v>123800</v>
       </c>
       <c r="F35" t="n">
-        <v>0.518</v>
+        <v>57.942</v>
       </c>
       <c r="G35" t="n">
-        <v>125396.6666666667</v>
+        <v>125450</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1687,10 @@
         <v>123800</v>
       </c>
       <c r="F36" t="n">
-        <v>15.558</v>
+        <v>0.518</v>
       </c>
       <c r="G36" t="n">
-        <v>125336.6666666667</v>
+        <v>125396.6666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1710,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>124600</v>
+        <v>123800</v>
       </c>
       <c r="C37" t="n">
-        <v>124600</v>
+        <v>123800</v>
       </c>
       <c r="D37" t="n">
-        <v>124600</v>
+        <v>123800</v>
       </c>
       <c r="E37" t="n">
-        <v>124600</v>
+        <v>123800</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6486</v>
+        <v>15.558</v>
       </c>
       <c r="G37" t="n">
-        <v>125293.3333333333</v>
+        <v>125336.6666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1745,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>123800</v>
+        <v>124600</v>
       </c>
       <c r="C38" t="n">
-        <v>123800</v>
+        <v>124600</v>
       </c>
       <c r="D38" t="n">
-        <v>123800</v>
+        <v>124600</v>
       </c>
       <c r="E38" t="n">
-        <v>123800</v>
+        <v>124600</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2479</v>
+        <v>0.6486</v>
       </c>
       <c r="G38" t="n">
-        <v>125240</v>
+        <v>125293.3333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1780,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>123000</v>
+        <v>123800</v>
       </c>
       <c r="C39" t="n">
-        <v>123000</v>
+        <v>123800</v>
       </c>
       <c r="D39" t="n">
-        <v>123000</v>
+        <v>123800</v>
       </c>
       <c r="E39" t="n">
-        <v>123000</v>
+        <v>123800</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2494</v>
+        <v>0.2479</v>
       </c>
       <c r="G39" t="n">
-        <v>125180</v>
+        <v>125240</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1827,10 @@
         <v>123000</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9733000000000001</v>
+        <v>0.2494</v>
       </c>
       <c r="G40" t="n">
-        <v>125113.3333333333</v>
+        <v>125180</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,35 +1850,31 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>123600</v>
+        <v>123000</v>
       </c>
       <c r="C41" t="n">
-        <v>123600</v>
+        <v>123000</v>
       </c>
       <c r="D41" t="n">
-        <v>123600</v>
+        <v>123000</v>
       </c>
       <c r="E41" t="n">
-        <v>123600</v>
+        <v>123000</v>
       </c>
       <c r="F41" t="n">
-        <v>0.03595469</v>
+        <v>0.9733000000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>125061.6666666667</v>
+        <v>125113.3333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>123000</v>
-      </c>
-      <c r="K41" t="n">
-        <v>123000</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
@@ -1837,40 +1885,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>123500</v>
+        <v>123600</v>
       </c>
       <c r="C42" t="n">
-        <v>123500</v>
+        <v>123600</v>
       </c>
       <c r="D42" t="n">
-        <v>123500</v>
+        <v>123600</v>
       </c>
       <c r="E42" t="n">
-        <v>123500</v>
+        <v>123600</v>
       </c>
       <c r="F42" t="n">
-        <v>43.0708</v>
+        <v>0.03595469</v>
       </c>
       <c r="G42" t="n">
-        <v>125008.3333333333</v>
+        <v>125061.6666666667</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>123600</v>
-      </c>
-      <c r="K42" t="n">
-        <v>123000</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1883,37 +1923,29 @@
         <v>123500</v>
       </c>
       <c r="C43" t="n">
-        <v>123600</v>
+        <v>123500</v>
       </c>
       <c r="D43" t="n">
-        <v>123600</v>
+        <v>123500</v>
       </c>
       <c r="E43" t="n">
         <v>123500</v>
       </c>
       <c r="F43" t="n">
-        <v>32.4738</v>
+        <v>43.0708</v>
       </c>
       <c r="G43" t="n">
-        <v>124963.3333333333</v>
+        <v>125008.3333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>123500</v>
-      </c>
-      <c r="K43" t="n">
-        <v>123000</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1926,32 +1958,28 @@
         <v>123500</v>
       </c>
       <c r="C44" t="n">
-        <v>123500</v>
+        <v>123600</v>
       </c>
       <c r="D44" t="n">
-        <v>123500</v>
+        <v>123600</v>
       </c>
       <c r="E44" t="n">
         <v>123500</v>
       </c>
       <c r="F44" t="n">
-        <v>11.0963</v>
+        <v>32.4738</v>
       </c>
       <c r="G44" t="n">
-        <v>124915</v>
+        <v>124963.3333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>123600</v>
-      </c>
-      <c r="K44" t="n">
-        <v>123600</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
@@ -1974,10 +2002,10 @@
         <v>123500</v>
       </c>
       <c r="F45" t="n">
-        <v>0.4595</v>
+        <v>11.0963</v>
       </c>
       <c r="G45" t="n">
-        <v>124865</v>
+        <v>124915</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1986,14 +2014,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>123600</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2015,10 +2037,10 @@
         <v>123500</v>
       </c>
       <c r="F46" t="n">
-        <v>0.468</v>
+        <v>0.4595</v>
       </c>
       <c r="G46" t="n">
-        <v>124815</v>
+        <v>124865</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2027,14 +2049,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>123600</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2044,22 +2060,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>124600</v>
+        <v>123500</v>
       </c>
       <c r="C47" t="n">
-        <v>124600</v>
+        <v>123500</v>
       </c>
       <c r="D47" t="n">
-        <v>124600</v>
+        <v>123500</v>
       </c>
       <c r="E47" t="n">
-        <v>124600</v>
+        <v>123500</v>
       </c>
       <c r="F47" t="n">
-        <v>1.8049</v>
+        <v>0.468</v>
       </c>
       <c r="G47" t="n">
-        <v>124783.3333333333</v>
+        <v>124815</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2082,19 +2098,19 @@
         <v>124600</v>
       </c>
       <c r="C48" t="n">
-        <v>125000</v>
+        <v>124600</v>
       </c>
       <c r="D48" t="n">
-        <v>125000</v>
+        <v>124600</v>
       </c>
       <c r="E48" t="n">
         <v>124600</v>
       </c>
       <c r="F48" t="n">
-        <v>1.0224</v>
+        <v>1.8049</v>
       </c>
       <c r="G48" t="n">
-        <v>124758.3333333333</v>
+        <v>124783.3333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2114,38 +2130,32 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>124700</v>
+        <v>124600</v>
       </c>
       <c r="C49" t="n">
-        <v>124600</v>
+        <v>125000</v>
       </c>
       <c r="D49" t="n">
-        <v>124700</v>
+        <v>125000</v>
       </c>
       <c r="E49" t="n">
         <v>124600</v>
       </c>
       <c r="F49" t="n">
-        <v>15.7</v>
+        <v>1.0224</v>
       </c>
       <c r="G49" t="n">
-        <v>124730</v>
+        <v>124758.3333333333</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>125000</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2155,22 +2165,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>125100</v>
+        <v>124700</v>
       </c>
       <c r="C50" t="n">
-        <v>125500</v>
+        <v>124600</v>
       </c>
       <c r="D50" t="n">
-        <v>125500</v>
+        <v>124700</v>
       </c>
       <c r="E50" t="n">
-        <v>125100</v>
+        <v>124600</v>
       </c>
       <c r="F50" t="n">
-        <v>0.03595888</v>
+        <v>15.7</v>
       </c>
       <c r="G50" t="n">
-        <v>124716.6666666667</v>
+        <v>124730</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2180,11 +2190,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2194,22 +2200,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>125000</v>
+        <v>125100</v>
       </c>
       <c r="C51" t="n">
-        <v>125000</v>
+        <v>125500</v>
       </c>
       <c r="D51" t="n">
-        <v>125000</v>
+        <v>125500</v>
       </c>
       <c r="E51" t="n">
-        <v>125000</v>
+        <v>125100</v>
       </c>
       <c r="F51" t="n">
-        <v>15</v>
+        <v>0.03595888</v>
       </c>
       <c r="G51" t="n">
-        <v>124701.6666666667</v>
+        <v>124716.6666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2219,11 +2225,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2233,22 +2235,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>125500</v>
+        <v>125000</v>
       </c>
       <c r="C52" t="n">
-        <v>126000</v>
+        <v>125000</v>
       </c>
       <c r="D52" t="n">
-        <v>126000</v>
+        <v>125000</v>
       </c>
       <c r="E52" t="n">
-        <v>125500</v>
+        <v>125000</v>
       </c>
       <c r="F52" t="n">
-        <v>6.0398</v>
+        <v>15</v>
       </c>
       <c r="G52" t="n">
-        <v>124696.6666666667</v>
+        <v>124701.6666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2258,11 +2260,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2272,22 +2270,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>125500</v>
+      </c>
+      <c r="C53" t="n">
         <v>126000</v>
       </c>
-      <c r="C53" t="n">
-        <v>126100</v>
-      </c>
       <c r="D53" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="E53" t="n">
-        <v>126000</v>
+        <v>125500</v>
       </c>
       <c r="F53" t="n">
-        <v>0.51</v>
+        <v>6.0398</v>
       </c>
       <c r="G53" t="n">
-        <v>124693.3333333333</v>
+        <v>124696.6666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2297,11 +2295,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2311,22 +2305,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>125900</v>
+        <v>126000</v>
       </c>
       <c r="C54" t="n">
-        <v>125900</v>
+        <v>126100</v>
       </c>
       <c r="D54" t="n">
-        <v>125900</v>
+        <v>126100</v>
       </c>
       <c r="E54" t="n">
-        <v>125900</v>
+        <v>126000</v>
       </c>
       <c r="F54" t="n">
-        <v>1.406</v>
+        <v>0.51</v>
       </c>
       <c r="G54" t="n">
-        <v>124683.3333333333</v>
+        <v>124693.3333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2336,11 +2330,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2350,22 +2340,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>125800</v>
+        <v>125900</v>
       </c>
       <c r="C55" t="n">
-        <v>125800</v>
+        <v>125900</v>
       </c>
       <c r="D55" t="n">
-        <v>125800</v>
+        <v>125900</v>
       </c>
       <c r="E55" t="n">
-        <v>125800</v>
+        <v>125900</v>
       </c>
       <c r="F55" t="n">
-        <v>3.2727</v>
+        <v>1.406</v>
       </c>
       <c r="G55" t="n">
-        <v>124675</v>
+        <v>124683.3333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2375,11 +2365,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2401,10 +2387,10 @@
         <v>125800</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8002</v>
+        <v>3.2727</v>
       </c>
       <c r="G56" t="n">
-        <v>124663.3333333333</v>
+        <v>124675</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2414,11 +2400,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2440,10 +2422,10 @@
         <v>125800</v>
       </c>
       <c r="F57" t="n">
-        <v>1.3435</v>
+        <v>0.8002</v>
       </c>
       <c r="G57" t="n">
-        <v>124653.3333333333</v>
+        <v>124663.3333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2453,11 +2435,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2467,22 +2445,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>126100</v>
+        <v>125800</v>
       </c>
       <c r="C58" t="n">
-        <v>126100</v>
+        <v>125800</v>
       </c>
       <c r="D58" t="n">
-        <v>126100</v>
+        <v>125800</v>
       </c>
       <c r="E58" t="n">
-        <v>126100</v>
+        <v>125800</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>1.3435</v>
       </c>
       <c r="G58" t="n">
-        <v>124655</v>
+        <v>124653.3333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2492,11 +2470,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2506,22 +2480,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>125400</v>
+        <v>126100</v>
       </c>
       <c r="C59" t="n">
-        <v>125400</v>
+        <v>126100</v>
       </c>
       <c r="D59" t="n">
-        <v>125400</v>
+        <v>126100</v>
       </c>
       <c r="E59" t="n">
-        <v>125400</v>
+        <v>126100</v>
       </c>
       <c r="F59" t="n">
-        <v>17.1839</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>124656.6666666667</v>
+        <v>124655</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2531,11 +2505,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2545,22 +2515,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>125800</v>
+        <v>125400</v>
       </c>
       <c r="C60" t="n">
-        <v>125800</v>
+        <v>125400</v>
       </c>
       <c r="D60" t="n">
-        <v>125800</v>
+        <v>125400</v>
       </c>
       <c r="E60" t="n">
-        <v>125800</v>
+        <v>125400</v>
       </c>
       <c r="F60" t="n">
-        <v>1.0266</v>
+        <v>17.1839</v>
       </c>
       <c r="G60" t="n">
-        <v>124670</v>
+        <v>124656.6666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2570,11 +2540,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2584,22 +2550,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>126000</v>
+        <v>125800</v>
       </c>
       <c r="C61" t="n">
-        <v>126000</v>
+        <v>125800</v>
       </c>
       <c r="D61" t="n">
-        <v>126000</v>
+        <v>125800</v>
       </c>
       <c r="E61" t="n">
-        <v>126000</v>
+        <v>125800</v>
       </c>
       <c r="F61" t="n">
-        <v>37.2863</v>
+        <v>1.0266</v>
       </c>
       <c r="G61" t="n">
-        <v>124691.6666666667</v>
+        <v>124670</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2609,11 +2575,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2635,10 +2597,10 @@
         <v>126000</v>
       </c>
       <c r="F62" t="n">
-        <v>38.0241</v>
+        <v>37.2863</v>
       </c>
       <c r="G62" t="n">
-        <v>124715</v>
+        <v>124691.6666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2648,11 +2610,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2674,10 +2632,10 @@
         <v>126000</v>
       </c>
       <c r="F63" t="n">
-        <v>33.976</v>
+        <v>38.0241</v>
       </c>
       <c r="G63" t="n">
-        <v>124738.3333333333</v>
+        <v>124715</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2687,11 +2645,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2701,22 +2655,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>125700</v>
+        <v>126000</v>
       </c>
       <c r="C64" t="n">
-        <v>125500</v>
+        <v>126000</v>
       </c>
       <c r="D64" t="n">
-        <v>125700</v>
+        <v>126000</v>
       </c>
       <c r="E64" t="n">
-        <v>125500</v>
+        <v>126000</v>
       </c>
       <c r="F64" t="n">
-        <v>24.0013</v>
+        <v>33.976</v>
       </c>
       <c r="G64" t="n">
-        <v>124758.3333333333</v>
+        <v>124738.3333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2726,11 +2680,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2740,22 +2690,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>125500</v>
+        <v>125700</v>
       </c>
       <c r="C65" t="n">
         <v>125500</v>
       </c>
       <c r="D65" t="n">
-        <v>125500</v>
+        <v>125700</v>
       </c>
       <c r="E65" t="n">
         <v>125500</v>
       </c>
       <c r="F65" t="n">
-        <v>18.1302</v>
+        <v>24.0013</v>
       </c>
       <c r="G65" t="n">
-        <v>124760</v>
+        <v>124758.3333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2765,11 +2715,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2779,22 +2725,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>126000</v>
+        <v>125500</v>
       </c>
       <c r="C66" t="n">
-        <v>126000</v>
+        <v>125500</v>
       </c>
       <c r="D66" t="n">
-        <v>126000</v>
+        <v>125500</v>
       </c>
       <c r="E66" t="n">
-        <v>126000</v>
+        <v>125500</v>
       </c>
       <c r="F66" t="n">
-        <v>0.03253968</v>
+        <v>18.1302</v>
       </c>
       <c r="G66" t="n">
-        <v>124770</v>
+        <v>124760</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2804,11 +2750,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2821,19 +2763,19 @@
         <v>126000</v>
       </c>
       <c r="C67" t="n">
-        <v>126200</v>
+        <v>126000</v>
       </c>
       <c r="D67" t="n">
-        <v>126200</v>
+        <v>126000</v>
       </c>
       <c r="E67" t="n">
         <v>126000</v>
       </c>
       <c r="F67" t="n">
-        <v>31.04816032</v>
+        <v>0.03253968</v>
       </c>
       <c r="G67" t="n">
-        <v>124791.6666666667</v>
+        <v>124770</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2843,11 +2785,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2857,22 +2795,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>126400</v>
+        <v>126000</v>
       </c>
       <c r="C68" t="n">
-        <v>126400</v>
+        <v>126200</v>
       </c>
       <c r="D68" t="n">
-        <v>126400</v>
+        <v>126200</v>
       </c>
       <c r="E68" t="n">
-        <v>126400</v>
+        <v>126000</v>
       </c>
       <c r="F68" t="n">
-        <v>0.63</v>
+        <v>31.04816032</v>
       </c>
       <c r="G68" t="n">
-        <v>124801.6666666667</v>
+        <v>124791.6666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2882,11 +2820,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2908,10 +2842,10 @@
         <v>126400</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0394</v>
+        <v>0.63</v>
       </c>
       <c r="G69" t="n">
-        <v>124826.6666666667</v>
+        <v>124801.6666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2921,11 +2855,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2935,22 +2865,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>127000</v>
+        <v>126400</v>
       </c>
       <c r="C70" t="n">
-        <v>127000</v>
+        <v>126400</v>
       </c>
       <c r="D70" t="n">
-        <v>127000</v>
+        <v>126400</v>
       </c>
       <c r="E70" t="n">
-        <v>127000</v>
+        <v>126400</v>
       </c>
       <c r="F70" t="n">
-        <v>0.03499212</v>
+        <v>0.0394</v>
       </c>
       <c r="G70" t="n">
-        <v>124863.3333333333</v>
+        <v>124826.6666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2960,11 +2890,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2986,10 +2912,10 @@
         <v>127000</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1959</v>
+        <v>0.03499212</v>
       </c>
       <c r="G71" t="n">
-        <v>124900</v>
+        <v>124863.3333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2999,11 +2925,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3025,10 +2947,10 @@
         <v>127000</v>
       </c>
       <c r="F72" t="n">
-        <v>2.914</v>
+        <v>0.1959</v>
       </c>
       <c r="G72" t="n">
-        <v>124938.3333333333</v>
+        <v>124900</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3038,11 +2960,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3064,10 +2982,10 @@
         <v>127000</v>
       </c>
       <c r="F73" t="n">
-        <v>20.0379</v>
+        <v>2.914</v>
       </c>
       <c r="G73" t="n">
-        <v>124980</v>
+        <v>124938.3333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3077,11 +2995,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3094,19 +3008,19 @@
         <v>127000</v>
       </c>
       <c r="C74" t="n">
-        <v>127300</v>
+        <v>127000</v>
       </c>
       <c r="D74" t="n">
-        <v>127300</v>
+        <v>127000</v>
       </c>
       <c r="E74" t="n">
         <v>127000</v>
       </c>
       <c r="F74" t="n">
-        <v>6.8736</v>
+        <v>20.0379</v>
       </c>
       <c r="G74" t="n">
-        <v>125025</v>
+        <v>124980</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3116,11 +3030,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3130,22 +3040,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>127000</v>
+      </c>
+      <c r="C75" t="n">
         <v>127300</v>
       </c>
-      <c r="C75" t="n">
-        <v>127700</v>
-      </c>
       <c r="D75" t="n">
-        <v>127700</v>
+        <v>127300</v>
       </c>
       <c r="E75" t="n">
-        <v>127300</v>
+        <v>127000</v>
       </c>
       <c r="F75" t="n">
-        <v>46.1934</v>
+        <v>6.8736</v>
       </c>
       <c r="G75" t="n">
-        <v>125076.6666666667</v>
+        <v>125025</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3155,11 +3065,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3169,22 +3075,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>127300</v>
+      </c>
+      <c r="C76" t="n">
         <v>127700</v>
       </c>
-      <c r="C76" t="n">
-        <v>127800</v>
-      </c>
       <c r="D76" t="n">
-        <v>127800</v>
+        <v>127700</v>
       </c>
       <c r="E76" t="n">
-        <v>127700</v>
+        <v>127300</v>
       </c>
       <c r="F76" t="n">
-        <v>12.7542</v>
+        <v>46.1934</v>
       </c>
       <c r="G76" t="n">
-        <v>125131.6666666667</v>
+        <v>125076.6666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3194,11 +3100,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3208,7 +3110,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>127800</v>
+        <v>127700</v>
       </c>
       <c r="C77" t="n">
         <v>127800</v>
@@ -3217,13 +3119,13 @@
         <v>127800</v>
       </c>
       <c r="E77" t="n">
-        <v>127800</v>
+        <v>127700</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0622</v>
+        <v>12.7542</v>
       </c>
       <c r="G77" t="n">
-        <v>125178.3333333333</v>
+        <v>125131.6666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3233,11 +3135,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3247,22 +3145,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>127900</v>
+        <v>127800</v>
       </c>
       <c r="C78" t="n">
-        <v>129000</v>
+        <v>127800</v>
       </c>
       <c r="D78" t="n">
-        <v>129000</v>
+        <v>127800</v>
       </c>
       <c r="E78" t="n">
-        <v>127900</v>
+        <v>127800</v>
       </c>
       <c r="F78" t="n">
-        <v>24.1768</v>
+        <v>0.0622</v>
       </c>
       <c r="G78" t="n">
-        <v>125250</v>
+        <v>125178.3333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3272,11 +3170,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3286,7 +3180,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>129000</v>
+        <v>127900</v>
       </c>
       <c r="C79" t="n">
         <v>129000</v>
@@ -3295,13 +3189,13 @@
         <v>129000</v>
       </c>
       <c r="E79" t="n">
-        <v>129000</v>
+        <v>127900</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0279</v>
+        <v>24.1768</v>
       </c>
       <c r="G79" t="n">
-        <v>125321.6666666667</v>
+        <v>125250</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3311,11 +3205,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3337,53 +3227,51 @@
         <v>129000</v>
       </c>
       <c r="F80" t="n">
-        <v>7.3908</v>
+        <v>0.0279</v>
       </c>
       <c r="G80" t="n">
-        <v>125391.6666666667</v>
+        <v>125321.6666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>128500</v>
+        <v>129000</v>
       </c>
       <c r="C81" t="n">
-        <v>129300</v>
+        <v>129000</v>
       </c>
       <c r="D81" t="n">
-        <v>129300</v>
+        <v>129000</v>
       </c>
       <c r="E81" t="n">
-        <v>128500</v>
+        <v>129000</v>
       </c>
       <c r="F81" t="n">
-        <v>3.1567</v>
+        <v>7.3908</v>
       </c>
       <c r="G81" t="n">
-        <v>125466.6666666667</v>
+        <v>125391.6666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3400,19 +3288,19 @@
         <v>128500</v>
       </c>
       <c r="C82" t="n">
-        <v>128500</v>
+        <v>129300</v>
       </c>
       <c r="D82" t="n">
-        <v>128500</v>
+        <v>129300</v>
       </c>
       <c r="E82" t="n">
         <v>128500</v>
       </c>
       <c r="F82" t="n">
-        <v>7</v>
+        <v>3.1567</v>
       </c>
       <c r="G82" t="n">
-        <v>125528.3333333333</v>
+        <v>125466.6666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3435,25 +3323,25 @@
         <v>128500</v>
       </c>
       <c r="C83" t="n">
-        <v>128400</v>
+        <v>128500</v>
       </c>
       <c r="D83" t="n">
         <v>128500</v>
       </c>
       <c r="E83" t="n">
-        <v>128400</v>
+        <v>128500</v>
       </c>
       <c r="F83" t="n">
-        <v>54.3925</v>
+        <v>7</v>
       </c>
       <c r="G83" t="n">
-        <v>125588.3333333333</v>
+        <v>125528.3333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3467,28 +3355,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>128100</v>
+        <v>128500</v>
       </c>
       <c r="C84" t="n">
-        <v>129200</v>
+        <v>128400</v>
       </c>
       <c r="D84" t="n">
-        <v>129200</v>
+        <v>128500</v>
       </c>
       <c r="E84" t="n">
-        <v>128100</v>
+        <v>128400</v>
       </c>
       <c r="F84" t="n">
-        <v>14.5</v>
+        <v>54.3925</v>
       </c>
       <c r="G84" t="n">
-        <v>125660</v>
+        <v>125588.3333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3502,28 +3390,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>129300</v>
+        <v>128100</v>
       </c>
       <c r="C85" t="n">
-        <v>129300</v>
+        <v>129200</v>
       </c>
       <c r="D85" t="n">
-        <v>129300</v>
+        <v>129200</v>
       </c>
       <c r="E85" t="n">
-        <v>128900</v>
+        <v>128100</v>
       </c>
       <c r="F85" t="n">
-        <v>4.8274621</v>
+        <v>14.5</v>
       </c>
       <c r="G85" t="n">
-        <v>125733.3333333333</v>
+        <v>125660</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3537,28 +3425,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>128800</v>
+        <v>129300</v>
       </c>
       <c r="C86" t="n">
-        <v>128800</v>
+        <v>129300</v>
       </c>
       <c r="D86" t="n">
-        <v>128800</v>
+        <v>129300</v>
       </c>
       <c r="E86" t="n">
-        <v>128800</v>
+        <v>128900</v>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>4.8274621</v>
       </c>
       <c r="G86" t="n">
-        <v>125798.3333333333</v>
+        <v>125733.3333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3572,22 +3460,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>128000</v>
+        <v>128800</v>
       </c>
       <c r="C87" t="n">
-        <v>127900</v>
+        <v>128800</v>
       </c>
       <c r="D87" t="n">
-        <v>128000</v>
+        <v>128800</v>
       </c>
       <c r="E87" t="n">
-        <v>127900</v>
+        <v>128800</v>
       </c>
       <c r="F87" t="n">
-        <v>11.811</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>125851.6666666667</v>
+        <v>125798.3333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3607,22 +3495,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>127200</v>
+        <v>128000</v>
       </c>
       <c r="C88" t="n">
-        <v>127000</v>
+        <v>127900</v>
       </c>
       <c r="D88" t="n">
-        <v>127200</v>
+        <v>128000</v>
       </c>
       <c r="E88" t="n">
-        <v>127000</v>
+        <v>127900</v>
       </c>
       <c r="F88" t="n">
-        <v>11</v>
+        <v>11.811</v>
       </c>
       <c r="G88" t="n">
-        <v>125898.3333333333</v>
+        <v>125851.6666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3642,22 +3530,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>127000</v>
+        <v>127200</v>
       </c>
       <c r="C89" t="n">
         <v>127000</v>
       </c>
       <c r="D89" t="n">
-        <v>127000</v>
+        <v>127200</v>
       </c>
       <c r="E89" t="n">
         <v>127000</v>
       </c>
       <c r="F89" t="n">
-        <v>1.0318</v>
+        <v>11</v>
       </c>
       <c r="G89" t="n">
-        <v>125946.6666666667</v>
+        <v>125898.3333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3677,22 +3565,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>127400</v>
+        <v>127000</v>
       </c>
       <c r="C90" t="n">
-        <v>127400</v>
+        <v>127000</v>
       </c>
       <c r="D90" t="n">
-        <v>127400</v>
+        <v>127000</v>
       </c>
       <c r="E90" t="n">
-        <v>127400</v>
+        <v>127000</v>
       </c>
       <c r="F90" t="n">
-        <v>0.03575353</v>
+        <v>1.0318</v>
       </c>
       <c r="G90" t="n">
-        <v>126000</v>
+        <v>125946.6666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3712,22 +3600,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>126700</v>
+        <v>127400</v>
       </c>
       <c r="C91" t="n">
-        <v>126600</v>
+        <v>127400</v>
       </c>
       <c r="D91" t="n">
-        <v>126700</v>
+        <v>127400</v>
       </c>
       <c r="E91" t="n">
-        <v>126600</v>
+        <v>127400</v>
       </c>
       <c r="F91" t="n">
-        <v>2.8436</v>
+        <v>0.03575353</v>
       </c>
       <c r="G91" t="n">
-        <v>126038.3333333333</v>
+        <v>126000</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3747,22 +3635,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>126800</v>
+        <v>126700</v>
       </c>
       <c r="C92" t="n">
-        <v>127400</v>
+        <v>126600</v>
       </c>
       <c r="D92" t="n">
-        <v>127400</v>
+        <v>126700</v>
       </c>
       <c r="E92" t="n">
-        <v>126800</v>
+        <v>126600</v>
       </c>
       <c r="F92" t="n">
-        <v>22.3768</v>
+        <v>2.8436</v>
       </c>
       <c r="G92" t="n">
-        <v>126093.3333333333</v>
+        <v>126038.3333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3782,22 +3670,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>126900</v>
+        <v>126800</v>
       </c>
       <c r="C93" t="n">
-        <v>127100</v>
+        <v>127400</v>
       </c>
       <c r="D93" t="n">
-        <v>127100</v>
+        <v>127400</v>
       </c>
       <c r="E93" t="n">
-        <v>126900</v>
+        <v>126800</v>
       </c>
       <c r="F93" t="n">
-        <v>23.90964138</v>
+        <v>22.3768</v>
       </c>
       <c r="G93" t="n">
-        <v>126145</v>
+        <v>126093.3333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3817,22 +3705,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>126400</v>
+        <v>126900</v>
       </c>
       <c r="C94" t="n">
-        <v>126400</v>
+        <v>127100</v>
       </c>
       <c r="D94" t="n">
-        <v>126400</v>
+        <v>127100</v>
       </c>
       <c r="E94" t="n">
-        <v>126400</v>
+        <v>126900</v>
       </c>
       <c r="F94" t="n">
-        <v>0.8355</v>
+        <v>23.90964138</v>
       </c>
       <c r="G94" t="n">
-        <v>126175</v>
+        <v>126145</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3864,10 +3752,10 @@
         <v>126400</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1645</v>
+        <v>0.8355</v>
       </c>
       <c r="G95" t="n">
-        <v>126218.3333333333</v>
+        <v>126175</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3887,22 +3775,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>126900</v>
+        <v>126400</v>
       </c>
       <c r="C96" t="n">
-        <v>126900</v>
+        <v>126400</v>
       </c>
       <c r="D96" t="n">
-        <v>126900</v>
+        <v>126400</v>
       </c>
       <c r="E96" t="n">
-        <v>126900</v>
+        <v>126400</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01750985</v>
+        <v>0.1645</v>
       </c>
       <c r="G96" t="n">
-        <v>126270</v>
+        <v>126218.3333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3922,22 +3810,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>126500</v>
+        <v>126900</v>
       </c>
       <c r="C97" t="n">
-        <v>126500</v>
+        <v>126900</v>
       </c>
       <c r="D97" t="n">
-        <v>126500</v>
+        <v>126900</v>
       </c>
       <c r="E97" t="n">
-        <v>126500</v>
+        <v>126900</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5</v>
+        <v>0.01750985</v>
       </c>
       <c r="G97" t="n">
-        <v>126301.6666666667</v>
+        <v>126270</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3969,10 +3857,10 @@
         <v>126500</v>
       </c>
       <c r="F98" t="n">
-        <v>11.659</v>
+        <v>0.5</v>
       </c>
       <c r="G98" t="n">
-        <v>126346.6666666667</v>
+        <v>126301.6666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4004,10 +3892,10 @@
         <v>126500</v>
       </c>
       <c r="F99" t="n">
-        <v>28.6669</v>
+        <v>11.659</v>
       </c>
       <c r="G99" t="n">
-        <v>126405</v>
+        <v>126346.6666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4039,10 +3927,10 @@
         <v>126500</v>
       </c>
       <c r="F100" t="n">
-        <v>0.07870000000000001</v>
+        <v>28.6669</v>
       </c>
       <c r="G100" t="n">
-        <v>126463.3333333333</v>
+        <v>126405</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4062,22 +3950,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>126300</v>
+        <v>126500</v>
       </c>
       <c r="C101" t="n">
-        <v>126300</v>
+        <v>126500</v>
       </c>
       <c r="D101" t="n">
-        <v>126300</v>
+        <v>126500</v>
       </c>
       <c r="E101" t="n">
-        <v>126300</v>
+        <v>126500</v>
       </c>
       <c r="F101" t="n">
-        <v>32.3186</v>
+        <v>0.07870000000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>126508.3333333333</v>
+        <v>126463.3333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4100,19 +3988,19 @@
         <v>126300</v>
       </c>
       <c r="C102" t="n">
-        <v>126400</v>
+        <v>126300</v>
       </c>
       <c r="D102" t="n">
-        <v>126400</v>
+        <v>126300</v>
       </c>
       <c r="E102" t="n">
         <v>126300</v>
       </c>
       <c r="F102" t="n">
-        <v>1.63976867</v>
+        <v>32.3186</v>
       </c>
       <c r="G102" t="n">
-        <v>126556.6666666667</v>
+        <v>126508.3333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4132,22 +4020,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>126100</v>
+        <v>126300</v>
       </c>
       <c r="C103" t="n">
-        <v>126100</v>
+        <v>126400</v>
       </c>
       <c r="D103" t="n">
-        <v>126100</v>
+        <v>126400</v>
       </c>
       <c r="E103" t="n">
-        <v>126100</v>
+        <v>126300</v>
       </c>
       <c r="F103" t="n">
-        <v>0.51</v>
+        <v>1.63976867</v>
       </c>
       <c r="G103" t="n">
-        <v>126598.3333333333</v>
+        <v>126556.6666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4167,22 +4055,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>125700</v>
+        <v>126100</v>
       </c>
       <c r="C104" t="n">
-        <v>125700</v>
+        <v>126100</v>
       </c>
       <c r="D104" t="n">
-        <v>125700</v>
+        <v>126100</v>
       </c>
       <c r="E104" t="n">
-        <v>125700</v>
+        <v>126100</v>
       </c>
       <c r="F104" t="n">
-        <v>0.63</v>
+        <v>0.51</v>
       </c>
       <c r="G104" t="n">
-        <v>126635</v>
+        <v>126598.3333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4202,22 +4090,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>125900</v>
+        <v>125700</v>
       </c>
       <c r="C105" t="n">
-        <v>125900</v>
+        <v>125700</v>
       </c>
       <c r="D105" t="n">
-        <v>125900</v>
+        <v>125700</v>
       </c>
       <c r="E105" t="n">
-        <v>125900</v>
+        <v>125700</v>
       </c>
       <c r="F105" t="n">
-        <v>1.3863</v>
+        <v>0.63</v>
       </c>
       <c r="G105" t="n">
-        <v>126675</v>
+        <v>126635</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4237,22 +4125,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>126000</v>
+        <v>125900</v>
       </c>
       <c r="C106" t="n">
-        <v>126000</v>
+        <v>125900</v>
       </c>
       <c r="D106" t="n">
-        <v>126000</v>
+        <v>125900</v>
       </c>
       <c r="E106" t="n">
-        <v>126000</v>
+        <v>125900</v>
       </c>
       <c r="F106" t="n">
-        <v>0.01763492</v>
+        <v>1.3863</v>
       </c>
       <c r="G106" t="n">
-        <v>126716.6666666667</v>
+        <v>126675</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4272,22 +4160,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>125600</v>
+        <v>126000</v>
       </c>
       <c r="C107" t="n">
-        <v>125800</v>
+        <v>126000</v>
       </c>
       <c r="D107" t="n">
-        <v>125800</v>
+        <v>126000</v>
       </c>
       <c r="E107" t="n">
-        <v>125600</v>
+        <v>126000</v>
       </c>
       <c r="F107" t="n">
-        <v>6.4408</v>
+        <v>0.01763492</v>
       </c>
       <c r="G107" t="n">
-        <v>126736.6666666667</v>
+        <v>126716.6666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4307,22 +4195,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>126100</v>
+        <v>125600</v>
       </c>
       <c r="C108" t="n">
-        <v>126100</v>
+        <v>125800</v>
       </c>
       <c r="D108" t="n">
-        <v>126100</v>
+        <v>125800</v>
       </c>
       <c r="E108" t="n">
-        <v>126100</v>
+        <v>125600</v>
       </c>
       <c r="F108" t="n">
-        <v>3.96510705</v>
+        <v>6.4408</v>
       </c>
       <c r="G108" t="n">
-        <v>126755</v>
+        <v>126736.6666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4342,22 +4230,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>125800</v>
+        <v>126100</v>
       </c>
       <c r="C109" t="n">
-        <v>125800</v>
+        <v>126100</v>
       </c>
       <c r="D109" t="n">
-        <v>125800</v>
+        <v>126100</v>
       </c>
       <c r="E109" t="n">
-        <v>125800</v>
+        <v>126100</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3423</v>
+        <v>3.96510705</v>
       </c>
       <c r="G109" t="n">
-        <v>126775</v>
+        <v>126755</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4377,22 +4265,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>125400</v>
+        <v>125800</v>
       </c>
       <c r="C110" t="n">
-        <v>125100</v>
+        <v>125800</v>
       </c>
       <c r="D110" t="n">
-        <v>125400</v>
+        <v>125800</v>
       </c>
       <c r="E110" t="n">
-        <v>125100</v>
+        <v>125800</v>
       </c>
       <c r="F110" t="n">
-        <v>3.5</v>
+        <v>0.3423</v>
       </c>
       <c r="G110" t="n">
-        <v>126768.3333333333</v>
+        <v>126775</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4412,22 +4300,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>125300</v>
+        <v>125400</v>
       </c>
       <c r="C111" t="n">
-        <v>125300</v>
+        <v>125100</v>
       </c>
       <c r="D111" t="n">
-        <v>125300</v>
+        <v>125400</v>
       </c>
       <c r="E111" t="n">
-        <v>125300</v>
+        <v>125100</v>
       </c>
       <c r="F111" t="n">
-        <v>0.79</v>
+        <v>3.5</v>
       </c>
       <c r="G111" t="n">
-        <v>126773.3333333333</v>
+        <v>126768.3333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4459,10 +4347,10 @@
         <v>125300</v>
       </c>
       <c r="F112" t="n">
-        <v>0.2</v>
+        <v>0.79</v>
       </c>
       <c r="G112" t="n">
-        <v>126761.6666666667</v>
+        <v>126773.3333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4477,6 +4365,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>125300</v>
+      </c>
+      <c r="C113" t="n">
+        <v>125300</v>
+      </c>
+      <c r="D113" t="n">
+        <v>125300</v>
+      </c>
+      <c r="E113" t="n">
+        <v>125300</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G113" t="n">
+        <v>126761.6666666667</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-23 BackTest DASH.xlsx
+++ b/BackTest/2020-01-23 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1.9242</v>
       </c>
       <c r="G2" t="n">
+        <v>126053.3333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>125993.3333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,22 +491,25 @@
         <v>39.3881</v>
       </c>
       <c r="G3" t="n">
+        <v>125926.6666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>125980</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>124700</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>124700</v>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="L3" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -522,26 +533,29 @@
         <v>3.0394</v>
       </c>
       <c r="G4" t="n">
+        <v>125800</v>
+      </c>
+      <c r="H4" t="n">
         <v>125973.3333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>124600</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>124700</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -565,26 +579,29 @@
         <v>1.8551</v>
       </c>
       <c r="G5" t="n">
+        <v>125666.6666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>125951.6666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>124600</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>124700</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -608,22 +625,25 @@
         <v>0.04429824</v>
       </c>
       <c r="G6" t="n">
+        <v>125606.6666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>125948.3333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>124300</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>124300</v>
       </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="L6" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -647,24 +667,29 @@
         <v>1.9624</v>
       </c>
       <c r="G7" t="n">
+        <v>125573.3333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>125946.6666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="n">
-        <v>124300</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>125400</v>
+      </c>
+      <c r="L7" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -688,24 +713,29 @@
         <v>13.3229</v>
       </c>
       <c r="G8" t="n">
+        <v>125480</v>
+      </c>
+      <c r="H8" t="n">
         <v>125941.6666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="n">
-        <v>124300</v>
-      </c>
-      <c r="L8" t="inlineStr">
+        <v>125400</v>
+      </c>
+      <c r="L8" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -729,18 +759,29 @@
         <v>113.4723</v>
       </c>
       <c r="G9" t="n">
+        <v>125446.6666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>125951.6666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>124900</v>
+      </c>
+      <c r="L9" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -764,18 +805,27 @@
         <v>1.8582</v>
       </c>
       <c r="G10" t="n">
+        <v>125340</v>
+      </c>
+      <c r="H10" t="n">
         <v>125950</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -799,18 +849,27 @@
         <v>8.740600000000001</v>
       </c>
       <c r="G11" t="n">
+        <v>125240</v>
+      </c>
+      <c r="H11" t="n">
         <v>125933.3333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -834,18 +893,29 @@
         <v>10.184</v>
       </c>
       <c r="G12" t="n">
+        <v>125126.6666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>125896.6666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>124800</v>
+      </c>
+      <c r="L12" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -869,18 +939,27 @@
         <v>5.993</v>
       </c>
       <c r="G13" t="n">
+        <v>125013.3333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>125866.6666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -904,18 +983,29 @@
         <v>6</v>
       </c>
       <c r="G14" t="n">
+        <v>124913.3333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>125848.3333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>124700</v>
+      </c>
+      <c r="L14" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -939,18 +1029,29 @@
         <v>1.0013</v>
       </c>
       <c r="G15" t="n">
+        <v>124866.6666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>125836.6666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>124500</v>
+      </c>
+      <c r="L15" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -974,18 +1075,29 @@
         <v>0.7249</v>
       </c>
       <c r="G16" t="n">
+        <v>124840</v>
+      </c>
+      <c r="H16" t="n">
         <v>125813.3333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L16" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1009,18 +1121,29 @@
         <v>2.659</v>
       </c>
       <c r="G17" t="n">
+        <v>124826.6666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>125788.3333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L17" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1044,22 +1167,29 @@
         <v>8.635999999999999</v>
       </c>
       <c r="G18" t="n">
+        <v>124853.3333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>125785</v>
       </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>124500</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>124500</v>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1083,24 +1213,29 @@
         <v>0.8704</v>
       </c>
       <c r="G19" t="n">
+        <v>124860</v>
+      </c>
+      <c r="H19" t="n">
         <v>125775</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="n">
-        <v>124500</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
+        <v>125000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1124,24 +1259,29 @@
         <v>1.646</v>
       </c>
       <c r="G20" t="n">
+        <v>124886.6666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>125770</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="n">
-        <v>124500</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+        <v>124700</v>
+      </c>
+      <c r="L20" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1165,18 +1305,29 @@
         <v>0.2675</v>
       </c>
       <c r="G21" t="n">
+        <v>124846.6666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>125761.6666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>124700</v>
+      </c>
+      <c r="L21" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1200,18 +1351,29 @@
         <v>0.2</v>
       </c>
       <c r="G22" t="n">
+        <v>124806.6666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>125745</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>124800</v>
+      </c>
+      <c r="L22" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1235,18 +1397,29 @@
         <v>0.8002</v>
       </c>
       <c r="G23" t="n">
+        <v>124800</v>
+      </c>
+      <c r="H23" t="n">
         <v>125728.3333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>124800</v>
+      </c>
+      <c r="L23" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1270,18 +1443,29 @@
         <v>0.4221</v>
       </c>
       <c r="G24" t="n">
+        <v>124733.3333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>125711.6666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>124800</v>
+      </c>
+      <c r="L24" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1305,18 +1489,27 @@
         <v>2</v>
       </c>
       <c r="G25" t="n">
+        <v>124733.3333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>125703.3333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1340,18 +1533,27 @@
         <v>0.03202562</v>
       </c>
       <c r="G26" t="n">
+        <v>124740</v>
+      </c>
+      <c r="H26" t="n">
         <v>125698.3333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1375,18 +1577,27 @@
         <v>0.613</v>
       </c>
       <c r="G27" t="n">
+        <v>124746.6666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>125693.3333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1410,18 +1621,27 @@
         <v>0.0003</v>
       </c>
       <c r="G28" t="n">
+        <v>124746.6666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>125680</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1445,18 +1665,27 @@
         <v>3.709</v>
       </c>
       <c r="G29" t="n">
+        <v>124726.6666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>125661.6666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1480,18 +1709,27 @@
         <v>1.051</v>
       </c>
       <c r="G30" t="n">
+        <v>124693.3333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>125641.6666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1515,18 +1753,27 @@
         <v>0.245</v>
       </c>
       <c r="G31" t="n">
+        <v>124666.6666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>125620</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1550,18 +1797,29 @@
         <v>19.181</v>
       </c>
       <c r="G32" t="n">
+        <v>124653.3333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>125591.6666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>124200</v>
+      </c>
+      <c r="L32" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1585,18 +1843,27 @@
         <v>6.291</v>
       </c>
       <c r="G33" t="n">
+        <v>124593.3333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>125548.3333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1620,18 +1887,29 @@
         <v>16.026</v>
       </c>
       <c r="G34" t="n">
+        <v>124546.6666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>125500</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L34" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1655,18 +1933,27 @@
         <v>57.942</v>
       </c>
       <c r="G35" t="n">
+        <v>124540</v>
+      </c>
+      <c r="H35" t="n">
         <v>125450</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1690,18 +1977,27 @@
         <v>0.518</v>
       </c>
       <c r="G36" t="n">
+        <v>124473.3333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>125396.6666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1725,18 +2021,27 @@
         <v>15.558</v>
       </c>
       <c r="G37" t="n">
+        <v>124406.6666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>125336.6666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1760,18 +2065,27 @@
         <v>0.6486</v>
       </c>
       <c r="G38" t="n">
+        <v>124393.3333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>125293.3333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1795,18 +2109,27 @@
         <v>0.2479</v>
       </c>
       <c r="G39" t="n">
+        <v>124326.6666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>125240</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1830,18 +2153,27 @@
         <v>0.2494</v>
       </c>
       <c r="G40" t="n">
+        <v>124200</v>
+      </c>
+      <c r="H40" t="n">
         <v>125180</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1865,18 +2197,27 @@
         <v>0.9733000000000001</v>
       </c>
       <c r="G41" t="n">
+        <v>124073.3333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>125113.3333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1900,18 +2241,27 @@
         <v>0.03595469</v>
       </c>
       <c r="G42" t="n">
+        <v>123986.6666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>125061.6666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1935,18 +2285,27 @@
         <v>43.0708</v>
       </c>
       <c r="G43" t="n">
+        <v>123906.6666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>125008.3333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1970,18 +2329,27 @@
         <v>32.4738</v>
       </c>
       <c r="G44" t="n">
+        <v>123866.6666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>124963.3333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2005,18 +2373,27 @@
         <v>11.0963</v>
       </c>
       <c r="G45" t="n">
+        <v>123826.6666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>124915</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2040,18 +2417,29 @@
         <v>0.4595</v>
       </c>
       <c r="G46" t="n">
+        <v>123780</v>
+      </c>
+      <c r="H46" t="n">
         <v>124865</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>123500</v>
+      </c>
+      <c r="L46" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2075,18 +2463,29 @@
         <v>0.468</v>
       </c>
       <c r="G47" t="n">
+        <v>123726.6666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>124815</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>123500</v>
+      </c>
+      <c r="L47" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,18 +2509,27 @@
         <v>1.8049</v>
       </c>
       <c r="G48" t="n">
+        <v>123760</v>
+      </c>
+      <c r="H48" t="n">
         <v>124783.3333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2145,18 +2553,27 @@
         <v>1.0224</v>
       </c>
       <c r="G49" t="n">
+        <v>123826.6666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>124758.3333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2180,18 +2597,27 @@
         <v>15.7</v>
       </c>
       <c r="G50" t="n">
+        <v>123826.6666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>124730</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2215,18 +2641,27 @@
         <v>0.03595888</v>
       </c>
       <c r="G51" t="n">
+        <v>123940</v>
+      </c>
+      <c r="H51" t="n">
         <v>124716.6666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2250,18 +2685,27 @@
         <v>15</v>
       </c>
       <c r="G52" t="n">
+        <v>124020</v>
+      </c>
+      <c r="H52" t="n">
         <v>124701.6666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2285,18 +2729,27 @@
         <v>6.0398</v>
       </c>
       <c r="G53" t="n">
+        <v>124113.3333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>124696.6666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2320,18 +2773,27 @@
         <v>0.51</v>
       </c>
       <c r="G54" t="n">
+        <v>124266.6666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>124693.3333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2355,18 +2817,27 @@
         <v>1.406</v>
       </c>
       <c r="G55" t="n">
+        <v>124460</v>
+      </c>
+      <c r="H55" t="n">
         <v>124683.3333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2390,18 +2861,27 @@
         <v>3.2727</v>
       </c>
       <c r="G56" t="n">
+        <v>124646.6666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>124675</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2425,18 +2905,27 @@
         <v>0.8002</v>
       </c>
       <c r="G57" t="n">
+        <v>124793.3333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>124663.3333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2460,18 +2949,27 @@
         <v>1.3435</v>
       </c>
       <c r="G58" t="n">
+        <v>124946.6666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>124653.3333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2495,18 +2993,27 @@
         <v>2</v>
       </c>
       <c r="G59" t="n">
+        <v>125113.3333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>124655</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2530,18 +3037,27 @@
         <v>17.1839</v>
       </c>
       <c r="G60" t="n">
+        <v>125240</v>
+      </c>
+      <c r="H60" t="n">
         <v>124656.6666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2565,18 +3081,27 @@
         <v>1.0266</v>
       </c>
       <c r="G61" t="n">
+        <v>125393.3333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>124670</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2600,18 +3125,27 @@
         <v>37.2863</v>
       </c>
       <c r="G62" t="n">
+        <v>125560</v>
+      </c>
+      <c r="H62" t="n">
         <v>124691.6666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2635,18 +3169,27 @@
         <v>38.0241</v>
       </c>
       <c r="G63" t="n">
+        <v>125653.3333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>124715</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2670,18 +3213,27 @@
         <v>33.976</v>
       </c>
       <c r="G64" t="n">
+        <v>125720</v>
+      </c>
+      <c r="H64" t="n">
         <v>124738.3333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2705,18 +3257,27 @@
         <v>24.0013</v>
       </c>
       <c r="G65" t="n">
+        <v>125780</v>
+      </c>
+      <c r="H65" t="n">
         <v>124758.3333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2740,18 +3301,27 @@
         <v>18.1302</v>
       </c>
       <c r="G66" t="n">
+        <v>125780</v>
+      </c>
+      <c r="H66" t="n">
         <v>124760</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2775,18 +3345,27 @@
         <v>0.03253968</v>
       </c>
       <c r="G67" t="n">
+        <v>125846.6666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>124770</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2810,18 +3389,27 @@
         <v>31.04816032</v>
       </c>
       <c r="G68" t="n">
+        <v>125860</v>
+      </c>
+      <c r="H68" t="n">
         <v>124791.6666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,18 +3433,27 @@
         <v>0.63</v>
       </c>
       <c r="G69" t="n">
+        <v>125880</v>
+      </c>
+      <c r="H69" t="n">
         <v>124801.6666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2880,18 +3477,27 @@
         <v>0.0394</v>
       </c>
       <c r="G70" t="n">
+        <v>125913.3333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>124826.6666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2915,18 +3521,27 @@
         <v>0.03499212</v>
       </c>
       <c r="G71" t="n">
+        <v>125993.3333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>124863.3333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2950,18 +3565,27 @@
         <v>0.1959</v>
       </c>
       <c r="G72" t="n">
+        <v>126073.3333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>124900</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2985,18 +3609,27 @@
         <v>2.914</v>
       </c>
       <c r="G73" t="n">
+        <v>126153.3333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>124938.3333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3020,18 +3653,27 @@
         <v>20.0379</v>
       </c>
       <c r="G74" t="n">
+        <v>126213.3333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>124980</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3055,18 +3697,27 @@
         <v>6.8736</v>
       </c>
       <c r="G75" t="n">
+        <v>126340</v>
+      </c>
+      <c r="H75" t="n">
         <v>125025</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3090,18 +3741,27 @@
         <v>46.1934</v>
       </c>
       <c r="G76" t="n">
+        <v>126466.6666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>125076.6666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3125,18 +3785,27 @@
         <v>12.7542</v>
       </c>
       <c r="G77" t="n">
+        <v>126586.6666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>125131.6666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3160,18 +3829,27 @@
         <v>0.0622</v>
       </c>
       <c r="G78" t="n">
+        <v>126706.6666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>125178.3333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3195,18 +3873,27 @@
         <v>24.1768</v>
       </c>
       <c r="G79" t="n">
+        <v>126906.6666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>125250</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3230,18 +3917,27 @@
         <v>0.0279</v>
       </c>
       <c r="G80" t="n">
+        <v>127140</v>
+      </c>
+      <c r="H80" t="n">
         <v>125321.6666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3265,18 +3961,27 @@
         <v>7.3908</v>
       </c>
       <c r="G81" t="n">
+        <v>127373.3333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>125391.6666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3300,19 +4005,28 @@
         <v>3.1567</v>
       </c>
       <c r="G82" t="n">
+        <v>127593.3333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>125466.6666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
+      <c r="L82" t="n">
+        <v>124300</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>1.0352252614642</v>
       </c>
     </row>
     <row r="83">
@@ -3335,18 +4049,21 @@
         <v>7</v>
       </c>
       <c r="G83" t="n">
+        <v>127746.6666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>125528.3333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3370,18 +4087,21 @@
         <v>54.3925</v>
       </c>
       <c r="G84" t="n">
+        <v>127880</v>
+      </c>
+      <c r="H84" t="n">
         <v>125588.3333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3405,18 +4125,21 @@
         <v>14.5</v>
       </c>
       <c r="G85" t="n">
+        <v>128066.6666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>125660</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,18 +4163,21 @@
         <v>4.8274621</v>
       </c>
       <c r="G86" t="n">
+        <v>128220</v>
+      </c>
+      <c r="H86" t="n">
         <v>125733.3333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3475,18 +4201,21 @@
         <v>2</v>
       </c>
       <c r="G87" t="n">
+        <v>128340</v>
+      </c>
+      <c r="H87" t="n">
         <v>125798.3333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3510,18 +4239,21 @@
         <v>11.811</v>
       </c>
       <c r="G88" t="n">
+        <v>128400</v>
+      </c>
+      <c r="H88" t="n">
         <v>125851.6666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3545,18 +4277,21 @@
         <v>11</v>
       </c>
       <c r="G89" t="n">
+        <v>128400</v>
+      </c>
+      <c r="H89" t="n">
         <v>125898.3333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3580,18 +4315,21 @@
         <v>1.0318</v>
       </c>
       <c r="G90" t="n">
+        <v>128380</v>
+      </c>
+      <c r="H90" t="n">
         <v>125946.6666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3615,18 +4353,21 @@
         <v>0.03575353</v>
       </c>
       <c r="G91" t="n">
+        <v>128360</v>
+      </c>
+      <c r="H91" t="n">
         <v>126000</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3650,18 +4391,21 @@
         <v>2.8436</v>
       </c>
       <c r="G92" t="n">
+        <v>128280</v>
+      </c>
+      <c r="H92" t="n">
         <v>126038.3333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3685,18 +4429,21 @@
         <v>22.3768</v>
       </c>
       <c r="G93" t="n">
+        <v>128253.3333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>126093.3333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3720,18 +4467,21 @@
         <v>23.90964138</v>
       </c>
       <c r="G94" t="n">
+        <v>128126.6666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>126145</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3755,18 +4505,21 @@
         <v>0.8355</v>
       </c>
       <c r="G95" t="n">
+        <v>127953.3333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>126175</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3790,18 +4543,21 @@
         <v>0.1645</v>
       </c>
       <c r="G96" t="n">
+        <v>127780</v>
+      </c>
+      <c r="H96" t="n">
         <v>126218.3333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3825,18 +4581,21 @@
         <v>0.01750985</v>
       </c>
       <c r="G97" t="n">
+        <v>127620</v>
+      </c>
+      <c r="H97" t="n">
         <v>126270</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3860,18 +4619,21 @@
         <v>0.5</v>
       </c>
       <c r="G98" t="n">
+        <v>127486.6666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>126301.6666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3895,18 +4657,21 @@
         <v>11.659</v>
       </c>
       <c r="G99" t="n">
+        <v>127360</v>
+      </c>
+      <c r="H99" t="n">
         <v>126346.6666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3930,18 +4695,21 @@
         <v>28.6669</v>
       </c>
       <c r="G100" t="n">
+        <v>127180</v>
+      </c>
+      <c r="H100" t="n">
         <v>126405</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3965,18 +4733,21 @@
         <v>0.07870000000000001</v>
       </c>
       <c r="G101" t="n">
+        <v>126993.3333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>126463.3333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4000,18 +4771,21 @@
         <v>32.3186</v>
       </c>
       <c r="G102" t="n">
+        <v>126826.6666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>126508.3333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4035,18 +4809,21 @@
         <v>1.63976867</v>
       </c>
       <c r="G103" t="n">
+        <v>126726.6666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>126556.6666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4070,18 +4847,21 @@
         <v>0.51</v>
       </c>
       <c r="G104" t="n">
+        <v>126666.6666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>126598.3333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4105,18 +4885,21 @@
         <v>0.63</v>
       </c>
       <c r="G105" t="n">
+        <v>126580</v>
+      </c>
+      <c r="H105" t="n">
         <v>126635</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4140,18 +4923,21 @@
         <v>1.3863</v>
       </c>
       <c r="G106" t="n">
+        <v>126480</v>
+      </c>
+      <c r="H106" t="n">
         <v>126675</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4175,18 +4961,21 @@
         <v>0.01763492</v>
       </c>
       <c r="G107" t="n">
+        <v>126440</v>
+      </c>
+      <c r="H107" t="n">
         <v>126716.6666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4210,18 +4999,21 @@
         <v>6.4408</v>
       </c>
       <c r="G108" t="n">
+        <v>126333.3333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>126736.6666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4245,18 +5037,21 @@
         <v>3.96510705</v>
       </c>
       <c r="G109" t="n">
+        <v>126266.6666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>126755</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4280,18 +5075,21 @@
         <v>0.3423</v>
       </c>
       <c r="G110" t="n">
+        <v>126226.6666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>126775</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4315,18 +5113,21 @@
         <v>3.5</v>
       </c>
       <c r="G111" t="n">
+        <v>126140</v>
+      </c>
+      <c r="H111" t="n">
         <v>126768.3333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4350,18 +5151,21 @@
         <v>0.79</v>
       </c>
       <c r="G112" t="n">
+        <v>126033.3333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>126773.3333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4385,18 +5189,401 @@
         <v>0.2</v>
       </c>
       <c r="G113" t="n">
+        <v>125953.3333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>126761.6666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>125200</v>
+      </c>
+      <c r="C114" t="n">
+        <v>125200</v>
+      </c>
+      <c r="D114" t="n">
+        <v>125200</v>
+      </c>
+      <c r="E114" t="n">
+        <v>125200</v>
+      </c>
+      <c r="F114" t="n">
+        <v>5.1638</v>
+      </c>
+      <c r="G114" t="n">
+        <v>125866.6666666667</v>
+      </c>
+      <c r="H114" t="n">
+        <v>126746.6666666667</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>125200</v>
+      </c>
+      <c r="C115" t="n">
+        <v>125200</v>
+      </c>
+      <c r="D115" t="n">
+        <v>125200</v>
+      </c>
+      <c r="E115" t="n">
+        <v>125200</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" t="n">
+        <v>125780</v>
+      </c>
+      <c r="H115" t="n">
+        <v>126735</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>126000</v>
+      </c>
+      <c r="C116" t="n">
+        <v>126000</v>
+      </c>
+      <c r="D116" t="n">
+        <v>126000</v>
+      </c>
+      <c r="E116" t="n">
+        <v>126000</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2</v>
+      </c>
+      <c r="G116" t="n">
+        <v>125746.6666666667</v>
+      </c>
+      <c r="H116" t="n">
+        <v>126738.3333333333</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>125600</v>
+      </c>
+      <c r="C117" t="n">
+        <v>125600</v>
+      </c>
+      <c r="D117" t="n">
+        <v>125600</v>
+      </c>
+      <c r="E117" t="n">
+        <v>125600</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="G117" t="n">
+        <v>125700</v>
+      </c>
+      <c r="H117" t="n">
+        <v>126735</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>125600</v>
+      </c>
+      <c r="C118" t="n">
+        <v>125300</v>
+      </c>
+      <c r="D118" t="n">
+        <v>125600</v>
+      </c>
+      <c r="E118" t="n">
+        <v>125300</v>
+      </c>
+      <c r="F118" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="G118" t="n">
+        <v>125626.6666666667</v>
+      </c>
+      <c r="H118" t="n">
+        <v>126726.6666666667</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>125800</v>
+      </c>
+      <c r="C119" t="n">
+        <v>125800</v>
+      </c>
+      <c r="D119" t="n">
+        <v>125800</v>
+      </c>
+      <c r="E119" t="n">
+        <v>125800</v>
+      </c>
+      <c r="F119" t="n">
+        <v>5.4719</v>
+      </c>
+      <c r="G119" t="n">
+        <v>125606.6666666667</v>
+      </c>
+      <c r="H119" t="n">
+        <v>126721.6666666667</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>125300</v>
+      </c>
+      <c r="C120" t="n">
+        <v>125200</v>
+      </c>
+      <c r="D120" t="n">
+        <v>125300</v>
+      </c>
+      <c r="E120" t="n">
+        <v>125200</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3.3416</v>
+      </c>
+      <c r="G120" t="n">
+        <v>125573.3333333333</v>
+      </c>
+      <c r="H120" t="n">
+        <v>126718.3333333333</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>125200</v>
+      </c>
+      <c r="C121" t="n">
+        <v>125200</v>
+      </c>
+      <c r="D121" t="n">
+        <v>125200</v>
+      </c>
+      <c r="E121" t="n">
+        <v>125200</v>
+      </c>
+      <c r="F121" t="n">
+        <v>4.138</v>
+      </c>
+      <c r="G121" t="n">
+        <v>125526.6666666667</v>
+      </c>
+      <c r="H121" t="n">
+        <v>126708.3333333333</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>125000</v>
+      </c>
+      <c r="C122" t="n">
+        <v>125000</v>
+      </c>
+      <c r="D122" t="n">
+        <v>125000</v>
+      </c>
+      <c r="E122" t="n">
+        <v>125000</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2.0498</v>
+      </c>
+      <c r="G122" t="n">
+        <v>125460</v>
+      </c>
+      <c r="H122" t="n">
+        <v>126691.6666666667</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>125000</v>
+      </c>
+      <c r="C123" t="n">
+        <v>125000</v>
+      </c>
+      <c r="D123" t="n">
+        <v>125000</v>
+      </c>
+      <c r="E123" t="n">
+        <v>125000</v>
+      </c>
+      <c r="F123" t="n">
+        <v>4.9001</v>
+      </c>
+      <c r="G123" t="n">
+        <v>125406.6666666667</v>
+      </c>
+      <c r="H123" t="n">
+        <v>126675</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-23 BackTest DASH.xlsx
+++ b/BackTest/2020-01-23 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>124600</v>
+        <v>126400</v>
       </c>
       <c r="C2" t="n">
-        <v>124700</v>
+        <v>126700</v>
       </c>
       <c r="D2" t="n">
-        <v>124700</v>
+        <v>126700</v>
       </c>
       <c r="E2" t="n">
-        <v>124600</v>
+        <v>126400</v>
       </c>
       <c r="F2" t="n">
-        <v>1.9242</v>
+        <v>3.3262</v>
       </c>
       <c r="G2" t="n">
-        <v>126053.3333333333</v>
+        <v>-382.94646172</v>
       </c>
       <c r="H2" t="n">
-        <v>125993.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>124600</v>
+        <v>126900</v>
       </c>
       <c r="C3" t="n">
-        <v>124600</v>
+        <v>126900</v>
       </c>
       <c r="D3" t="n">
-        <v>124600</v>
+        <v>126900</v>
       </c>
       <c r="E3" t="n">
-        <v>124600</v>
+        <v>126900</v>
       </c>
       <c r="F3" t="n">
-        <v>39.3881</v>
+        <v>36.6346</v>
       </c>
       <c r="G3" t="n">
-        <v>125926.6666666667</v>
+        <v>-346.31186172</v>
       </c>
       <c r="H3" t="n">
-        <v>125980</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>124700</v>
-      </c>
-      <c r="L3" t="n">
-        <v>124700</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,44 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>124600</v>
+        <v>126900</v>
       </c>
       <c r="C4" t="n">
-        <v>124600</v>
+        <v>127600</v>
       </c>
       <c r="D4" t="n">
-        <v>124600</v>
+        <v>127600</v>
       </c>
       <c r="E4" t="n">
-        <v>124600</v>
+        <v>126900</v>
       </c>
       <c r="F4" t="n">
-        <v>3.0394</v>
+        <v>28.0053</v>
       </c>
       <c r="G4" t="n">
-        <v>125800</v>
+        <v>-318.30656172</v>
       </c>
       <c r="H4" t="n">
-        <v>125973.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L4" t="n">
-        <v>124700</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,44 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>124300</v>
+        <v>127600</v>
       </c>
       <c r="C5" t="n">
-        <v>124300</v>
+        <v>127000</v>
       </c>
       <c r="D5" t="n">
-        <v>124300</v>
+        <v>127600</v>
       </c>
       <c r="E5" t="n">
-        <v>124300</v>
+        <v>127000</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8551</v>
+        <v>17.8851</v>
       </c>
       <c r="G5" t="n">
-        <v>125666.6666666667</v>
+        <v>-336.1916617200001</v>
       </c>
       <c r="H5" t="n">
-        <v>125951.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L5" t="n">
-        <v>124700</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -610,40 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>125400</v>
+        <v>127400</v>
       </c>
       <c r="C6" t="n">
-        <v>125400</v>
+        <v>127400</v>
       </c>
       <c r="D6" t="n">
-        <v>125400</v>
+        <v>127400</v>
       </c>
       <c r="E6" t="n">
-        <v>125400</v>
+        <v>127400</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04429824</v>
+        <v>0.47</v>
       </c>
       <c r="G6" t="n">
-        <v>125606.6666666667</v>
+        <v>-335.72166172</v>
       </c>
       <c r="H6" t="n">
-        <v>125948.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>124300</v>
-      </c>
-      <c r="L6" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,44 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>125400</v>
+        <v>127200</v>
       </c>
       <c r="C7" t="n">
-        <v>125400</v>
+        <v>127200</v>
       </c>
       <c r="D7" t="n">
-        <v>125400</v>
+        <v>127200</v>
       </c>
       <c r="E7" t="n">
-        <v>125400</v>
+        <v>127200</v>
       </c>
       <c r="F7" t="n">
-        <v>1.9624</v>
+        <v>4.9647</v>
       </c>
       <c r="G7" t="n">
-        <v>125573.3333333333</v>
+        <v>-340.68636172</v>
       </c>
       <c r="H7" t="n">
-        <v>125946.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>125400</v>
-      </c>
-      <c r="L7" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -698,44 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>124900</v>
+        <v>127000</v>
       </c>
       <c r="C8" t="n">
-        <v>124900</v>
+        <v>127000</v>
       </c>
       <c r="D8" t="n">
-        <v>124900</v>
+        <v>127000</v>
       </c>
       <c r="E8" t="n">
-        <v>124900</v>
+        <v>127000</v>
       </c>
       <c r="F8" t="n">
-        <v>13.3229</v>
+        <v>1.0823</v>
       </c>
       <c r="G8" t="n">
-        <v>125480</v>
+        <v>-341.76866172</v>
       </c>
       <c r="H8" t="n">
-        <v>125941.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>125400</v>
-      </c>
-      <c r="L8" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -744,44 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>124900</v>
+        <v>126900</v>
       </c>
       <c r="C9" t="n">
-        <v>125800</v>
+        <v>126600</v>
       </c>
       <c r="D9" t="n">
-        <v>125800</v>
+        <v>126900</v>
       </c>
       <c r="E9" t="n">
-        <v>124900</v>
+        <v>126600</v>
       </c>
       <c r="F9" t="n">
-        <v>113.4723</v>
+        <v>9.7433</v>
       </c>
       <c r="G9" t="n">
-        <v>125446.6666666667</v>
+        <v>-351.51196172</v>
       </c>
       <c r="H9" t="n">
-        <v>125951.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>124900</v>
-      </c>
-      <c r="L9" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -790,42 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>124900</v>
+        <v>126900</v>
       </c>
       <c r="C10" t="n">
-        <v>124900</v>
+        <v>127000</v>
       </c>
       <c r="D10" t="n">
-        <v>124900</v>
+        <v>127000</v>
       </c>
       <c r="E10" t="n">
-        <v>124900</v>
+        <v>126900</v>
       </c>
       <c r="F10" t="n">
-        <v>1.8582</v>
+        <v>0.4745</v>
       </c>
       <c r="G10" t="n">
-        <v>125340</v>
+        <v>-351.03746172</v>
       </c>
       <c r="H10" t="n">
-        <v>125950</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -834,42 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>124800</v>
+        <v>126700</v>
       </c>
       <c r="C11" t="n">
-        <v>124800</v>
+        <v>126700</v>
       </c>
       <c r="D11" t="n">
-        <v>124800</v>
+        <v>126700</v>
       </c>
       <c r="E11" t="n">
-        <v>124800</v>
+        <v>126700</v>
       </c>
       <c r="F11" t="n">
-        <v>8.740600000000001</v>
+        <v>0.919</v>
       </c>
       <c r="G11" t="n">
-        <v>125240</v>
+        <v>-351.95646172</v>
       </c>
       <c r="H11" t="n">
-        <v>125933.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -878,44 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>125000</v>
+        <v>126700</v>
       </c>
       <c r="C12" t="n">
-        <v>124800</v>
+        <v>126700</v>
       </c>
       <c r="D12" t="n">
-        <v>125000</v>
+        <v>126700</v>
       </c>
       <c r="E12" t="n">
-        <v>124800</v>
+        <v>126700</v>
       </c>
       <c r="F12" t="n">
-        <v>10.184</v>
+        <v>2.2281</v>
       </c>
       <c r="G12" t="n">
-        <v>125126.6666666667</v>
+        <v>-351.95646172</v>
       </c>
       <c r="H12" t="n">
-        <v>125896.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>124800</v>
-      </c>
-      <c r="L12" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -924,42 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>124700</v>
+        <v>126300</v>
       </c>
       <c r="C13" t="n">
-        <v>124700</v>
+        <v>126300</v>
       </c>
       <c r="D13" t="n">
-        <v>124700</v>
+        <v>126300</v>
       </c>
       <c r="E13" t="n">
-        <v>124700</v>
+        <v>126300</v>
       </c>
       <c r="F13" t="n">
-        <v>5.993</v>
+        <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>125013.3333333333</v>
+        <v>-358.95646172</v>
       </c>
       <c r="H13" t="n">
-        <v>125866.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -968,44 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>124500</v>
+        <v>126500</v>
       </c>
       <c r="C14" t="n">
-        <v>124500</v>
+        <v>126400</v>
       </c>
       <c r="D14" t="n">
-        <v>124500</v>
+        <v>126500</v>
       </c>
       <c r="E14" t="n">
-        <v>124500</v>
+        <v>126400</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>20.625</v>
       </c>
       <c r="G14" t="n">
-        <v>124913.3333333333</v>
+        <v>-338.33146172</v>
       </c>
       <c r="H14" t="n">
-        <v>125848.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>124700</v>
-      </c>
-      <c r="L14" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1014,44 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>124600</v>
+        <v>126500</v>
       </c>
       <c r="C15" t="n">
-        <v>124600</v>
+        <v>126500</v>
       </c>
       <c r="D15" t="n">
-        <v>124600</v>
+        <v>126500</v>
       </c>
       <c r="E15" t="n">
-        <v>124600</v>
+        <v>126500</v>
       </c>
       <c r="F15" t="n">
-        <v>1.0013</v>
+        <v>2.4984</v>
       </c>
       <c r="G15" t="n">
-        <v>124866.6666666667</v>
+        <v>-335.83306172</v>
       </c>
       <c r="H15" t="n">
-        <v>125836.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>124500</v>
-      </c>
-      <c r="L15" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1060,44 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>124600</v>
+        <v>126500</v>
       </c>
       <c r="C16" t="n">
-        <v>124600</v>
+        <v>126500</v>
       </c>
       <c r="D16" t="n">
-        <v>124600</v>
+        <v>126500</v>
       </c>
       <c r="E16" t="n">
-        <v>124600</v>
+        <v>126500</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7249</v>
+        <v>0.0049</v>
       </c>
       <c r="G16" t="n">
-        <v>124840</v>
+        <v>-335.83306172</v>
       </c>
       <c r="H16" t="n">
-        <v>125813.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L16" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1106,44 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>124500</v>
+        <v>126500</v>
       </c>
       <c r="C17" t="n">
-        <v>124500</v>
+        <v>126500</v>
       </c>
       <c r="D17" t="n">
-        <v>124500</v>
+        <v>126500</v>
       </c>
       <c r="E17" t="n">
-        <v>124500</v>
+        <v>126500</v>
       </c>
       <c r="F17" t="n">
-        <v>2.659</v>
+        <v>6.6586</v>
       </c>
       <c r="G17" t="n">
-        <v>124826.6666666667</v>
+        <v>-335.83306172</v>
       </c>
       <c r="H17" t="n">
-        <v>125788.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L17" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1152,44 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>124700</v>
+        <v>126500</v>
       </c>
       <c r="C18" t="n">
-        <v>125000</v>
+        <v>126500</v>
       </c>
       <c r="D18" t="n">
-        <v>125000</v>
+        <v>126500</v>
       </c>
       <c r="E18" t="n">
-        <v>124600</v>
+        <v>126500</v>
       </c>
       <c r="F18" t="n">
-        <v>8.635999999999999</v>
+        <v>35.9</v>
       </c>
       <c r="G18" t="n">
-        <v>124853.3333333333</v>
+        <v>-335.83306172</v>
       </c>
       <c r="H18" t="n">
-        <v>125785</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>124500</v>
-      </c>
-      <c r="L18" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,44 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>124600</v>
+        <v>126300</v>
       </c>
       <c r="C19" t="n">
-        <v>124700</v>
+        <v>126300</v>
       </c>
       <c r="D19" t="n">
-        <v>124700</v>
+        <v>126300</v>
       </c>
       <c r="E19" t="n">
-        <v>124600</v>
+        <v>126300</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8704</v>
+        <v>0.1636</v>
       </c>
       <c r="G19" t="n">
-        <v>124860</v>
+        <v>-335.99666172</v>
       </c>
       <c r="H19" t="n">
-        <v>125775</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>125000</v>
-      </c>
-      <c r="L19" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1244,44 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>124700</v>
+        <v>126300</v>
       </c>
       <c r="C20" t="n">
-        <v>124700</v>
+        <v>126300</v>
       </c>
       <c r="D20" t="n">
-        <v>124700</v>
+        <v>126300</v>
       </c>
       <c r="E20" t="n">
-        <v>124700</v>
+        <v>126300</v>
       </c>
       <c r="F20" t="n">
-        <v>1.646</v>
+        <v>0.7343</v>
       </c>
       <c r="G20" t="n">
-        <v>124886.6666666667</v>
+        <v>-335.99666172</v>
       </c>
       <c r="H20" t="n">
-        <v>125770</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>124700</v>
-      </c>
-      <c r="L20" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1290,44 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>124800</v>
+        <v>125900</v>
       </c>
       <c r="C21" t="n">
-        <v>124800</v>
+        <v>125900</v>
       </c>
       <c r="D21" t="n">
-        <v>124800</v>
+        <v>125900</v>
       </c>
       <c r="E21" t="n">
-        <v>124800</v>
+        <v>125900</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2675</v>
+        <v>1.019</v>
       </c>
       <c r="G21" t="n">
-        <v>124846.6666666667</v>
+        <v>-337.01566172</v>
       </c>
       <c r="H21" t="n">
-        <v>125761.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>124700</v>
-      </c>
-      <c r="L21" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1336,44 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>124800</v>
+        <v>126300</v>
       </c>
       <c r="C22" t="n">
-        <v>124800</v>
+        <v>126300</v>
       </c>
       <c r="D22" t="n">
-        <v>124800</v>
+        <v>126300</v>
       </c>
       <c r="E22" t="n">
-        <v>124800</v>
+        <v>126300</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2</v>
+        <v>1.0414</v>
       </c>
       <c r="G22" t="n">
-        <v>124806.6666666667</v>
+        <v>-335.97426172</v>
       </c>
       <c r="H22" t="n">
-        <v>125745</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>124800</v>
-      </c>
-      <c r="L22" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1382,44 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>124800</v>
+        <v>126300</v>
       </c>
       <c r="C23" t="n">
-        <v>124800</v>
+        <v>126300</v>
       </c>
       <c r="D23" t="n">
-        <v>124800</v>
+        <v>126300</v>
       </c>
       <c r="E23" t="n">
-        <v>124800</v>
+        <v>126300</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8002</v>
+        <v>0.1498</v>
       </c>
       <c r="G23" t="n">
-        <v>124800</v>
+        <v>-335.97426172</v>
       </c>
       <c r="H23" t="n">
-        <v>125728.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>124800</v>
-      </c>
-      <c r="L23" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,44 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>124800</v>
+        <v>126500</v>
       </c>
       <c r="C24" t="n">
-        <v>124800</v>
+        <v>126500</v>
       </c>
       <c r="D24" t="n">
-        <v>124800</v>
+        <v>126500</v>
       </c>
       <c r="E24" t="n">
-        <v>124800</v>
+        <v>126500</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4221</v>
+        <v>2.2013</v>
       </c>
       <c r="G24" t="n">
-        <v>124733.3333333333</v>
+        <v>-333.77296172</v>
       </c>
       <c r="H24" t="n">
-        <v>125711.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>124800</v>
-      </c>
-      <c r="L24" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1474,42 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>124900</v>
+        <v>126300</v>
       </c>
       <c r="C25" t="n">
-        <v>124900</v>
+        <v>126300</v>
       </c>
       <c r="D25" t="n">
-        <v>124900</v>
+        <v>126300</v>
       </c>
       <c r="E25" t="n">
-        <v>124900</v>
+        <v>126300</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>38.0492</v>
       </c>
       <c r="G25" t="n">
-        <v>124733.3333333333</v>
+        <v>-371.8221617199999</v>
       </c>
       <c r="H25" t="n">
-        <v>125703.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1518,42 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>124900</v>
+        <v>126300</v>
       </c>
       <c r="C26" t="n">
-        <v>124900</v>
+        <v>126500</v>
       </c>
       <c r="D26" t="n">
-        <v>124900</v>
+        <v>126500</v>
       </c>
       <c r="E26" t="n">
-        <v>124900</v>
+        <v>126300</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03202562</v>
+        <v>2.8914</v>
       </c>
       <c r="G26" t="n">
-        <v>124740</v>
+        <v>-368.93076172</v>
       </c>
       <c r="H26" t="n">
-        <v>125698.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1562,42 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>124900</v>
+        <v>126400</v>
       </c>
       <c r="C27" t="n">
-        <v>124900</v>
+        <v>126400</v>
       </c>
       <c r="D27" t="n">
-        <v>124900</v>
+        <v>126400</v>
       </c>
       <c r="E27" t="n">
-        <v>124900</v>
+        <v>126400</v>
       </c>
       <c r="F27" t="n">
-        <v>0.613</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>124746.6666666667</v>
+        <v>-369.93076172</v>
       </c>
       <c r="H27" t="n">
-        <v>125693.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1606,42 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>124700</v>
+        <v>126000</v>
       </c>
       <c r="C28" t="n">
-        <v>124700</v>
+        <v>126000</v>
       </c>
       <c r="D28" t="n">
-        <v>124700</v>
+        <v>126000</v>
       </c>
       <c r="E28" t="n">
-        <v>124700</v>
+        <v>126000</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0003</v>
+        <v>1.008</v>
       </c>
       <c r="G28" t="n">
-        <v>124746.6666666667</v>
+        <v>-370.9387617199999</v>
       </c>
       <c r="H28" t="n">
-        <v>125680</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1650,42 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>124200</v>
+        <v>125500</v>
       </c>
       <c r="C29" t="n">
-        <v>124200</v>
+        <v>125300</v>
       </c>
       <c r="D29" t="n">
-        <v>124200</v>
+        <v>125500</v>
       </c>
       <c r="E29" t="n">
-        <v>124200</v>
+        <v>125100</v>
       </c>
       <c r="F29" t="n">
-        <v>3.709</v>
+        <v>3.21</v>
       </c>
       <c r="G29" t="n">
-        <v>124726.6666666667</v>
+        <v>-374.1487617199999</v>
       </c>
       <c r="H29" t="n">
-        <v>125661.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1694,42 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>124100</v>
+        <v>125100</v>
       </c>
       <c r="C30" t="n">
-        <v>124100</v>
+        <v>125000</v>
       </c>
       <c r="D30" t="n">
-        <v>124100</v>
+        <v>125100</v>
       </c>
       <c r="E30" t="n">
-        <v>124100</v>
+        <v>125000</v>
       </c>
       <c r="F30" t="n">
-        <v>1.051</v>
+        <v>8.228899999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>124693.3333333333</v>
+        <v>-382.3776617199999</v>
       </c>
       <c r="H30" t="n">
-        <v>125641.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1738,42 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>124200</v>
+        <v>124600</v>
       </c>
       <c r="C31" t="n">
-        <v>124200</v>
+        <v>124700</v>
       </c>
       <c r="D31" t="n">
-        <v>124200</v>
+        <v>124700</v>
       </c>
       <c r="E31" t="n">
-        <v>124200</v>
+        <v>124600</v>
       </c>
       <c r="F31" t="n">
-        <v>0.245</v>
+        <v>1.9242</v>
       </c>
       <c r="G31" t="n">
-        <v>124666.6666666667</v>
+        <v>-384.3018617199999</v>
       </c>
       <c r="H31" t="n">
-        <v>125620</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1782,44 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>124400</v>
+        <v>124600</v>
       </c>
       <c r="C32" t="n">
-        <v>124300</v>
+        <v>124600</v>
       </c>
       <c r="D32" t="n">
-        <v>124400</v>
+        <v>124600</v>
       </c>
       <c r="E32" t="n">
-        <v>124000</v>
+        <v>124600</v>
       </c>
       <c r="F32" t="n">
-        <v>19.181</v>
+        <v>39.3881</v>
       </c>
       <c r="G32" t="n">
-        <v>124653.3333333333</v>
+        <v>-423.6899617199999</v>
       </c>
       <c r="H32" t="n">
-        <v>125591.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>124200</v>
-      </c>
-      <c r="L32" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1828,42 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>124200</v>
+        <v>124600</v>
       </c>
       <c r="C33" t="n">
-        <v>124100</v>
+        <v>124600</v>
       </c>
       <c r="D33" t="n">
-        <v>124200</v>
+        <v>124600</v>
       </c>
       <c r="E33" t="n">
-        <v>124100</v>
+        <v>124600</v>
       </c>
       <c r="F33" t="n">
-        <v>6.291</v>
+        <v>3.0394</v>
       </c>
       <c r="G33" t="n">
-        <v>124593.3333333333</v>
+        <v>-423.6899617199999</v>
       </c>
       <c r="H33" t="n">
-        <v>125548.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1872,44 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>124000</v>
+        <v>124300</v>
       </c>
       <c r="C34" t="n">
-        <v>124000</v>
+        <v>124300</v>
       </c>
       <c r="D34" t="n">
-        <v>124000</v>
+        <v>124300</v>
       </c>
       <c r="E34" t="n">
-        <v>124000</v>
+        <v>124300</v>
       </c>
       <c r="F34" t="n">
-        <v>16.026</v>
+        <v>1.8551</v>
       </c>
       <c r="G34" t="n">
-        <v>124546.6666666667</v>
+        <v>-425.5450617199999</v>
       </c>
       <c r="H34" t="n">
-        <v>125500</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L34" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,42 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>123800</v>
+        <v>125400</v>
       </c>
       <c r="C35" t="n">
-        <v>124600</v>
+        <v>125400</v>
       </c>
       <c r="D35" t="n">
-        <v>124600</v>
+        <v>125400</v>
       </c>
       <c r="E35" t="n">
-        <v>123800</v>
+        <v>125400</v>
       </c>
       <c r="F35" t="n">
-        <v>57.942</v>
+        <v>0.04429824</v>
       </c>
       <c r="G35" t="n">
-        <v>124540</v>
+        <v>-425.5007634799999</v>
       </c>
       <c r="H35" t="n">
-        <v>125450</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1962,42 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>123800</v>
+        <v>125400</v>
       </c>
       <c r="C36" t="n">
-        <v>123800</v>
+        <v>125400</v>
       </c>
       <c r="D36" t="n">
-        <v>123800</v>
+        <v>125400</v>
       </c>
       <c r="E36" t="n">
-        <v>123800</v>
+        <v>125400</v>
       </c>
       <c r="F36" t="n">
-        <v>0.518</v>
+        <v>1.9624</v>
       </c>
       <c r="G36" t="n">
-        <v>124473.3333333333</v>
+        <v>-425.5007634799999</v>
       </c>
       <c r="H36" t="n">
-        <v>125396.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2006,42 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>123800</v>
+        <v>124900</v>
       </c>
       <c r="C37" t="n">
-        <v>123800</v>
+        <v>124900</v>
       </c>
       <c r="D37" t="n">
-        <v>123800</v>
+        <v>124900</v>
       </c>
       <c r="E37" t="n">
-        <v>123800</v>
+        <v>124900</v>
       </c>
       <c r="F37" t="n">
-        <v>15.558</v>
+        <v>13.3229</v>
       </c>
       <c r="G37" t="n">
-        <v>124406.6666666667</v>
+        <v>-438.8236634799999</v>
       </c>
       <c r="H37" t="n">
-        <v>125336.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2050,42 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>124600</v>
+        <v>124900</v>
       </c>
       <c r="C38" t="n">
-        <v>124600</v>
+        <v>125800</v>
       </c>
       <c r="D38" t="n">
-        <v>124600</v>
+        <v>125800</v>
       </c>
       <c r="E38" t="n">
-        <v>124600</v>
+        <v>124900</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6486</v>
+        <v>113.4723</v>
       </c>
       <c r="G38" t="n">
-        <v>124393.3333333333</v>
+        <v>-325.3513634799999</v>
       </c>
       <c r="H38" t="n">
-        <v>125293.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2094,42 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>123800</v>
+        <v>124900</v>
       </c>
       <c r="C39" t="n">
-        <v>123800</v>
+        <v>124900</v>
       </c>
       <c r="D39" t="n">
-        <v>123800</v>
+        <v>124900</v>
       </c>
       <c r="E39" t="n">
-        <v>123800</v>
+        <v>124900</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2479</v>
+        <v>1.8582</v>
       </c>
       <c r="G39" t="n">
-        <v>124326.6666666667</v>
+        <v>-327.2095634799999</v>
       </c>
       <c r="H39" t="n">
-        <v>125240</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2138,42 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>123000</v>
+        <v>124800</v>
       </c>
       <c r="C40" t="n">
-        <v>123000</v>
+        <v>124800</v>
       </c>
       <c r="D40" t="n">
-        <v>123000</v>
+        <v>124800</v>
       </c>
       <c r="E40" t="n">
-        <v>123000</v>
+        <v>124800</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2494</v>
+        <v>8.740600000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>124200</v>
+        <v>-335.9501634799999</v>
       </c>
       <c r="H40" t="n">
-        <v>125180</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,42 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>123000</v>
+        <v>125000</v>
       </c>
       <c r="C41" t="n">
-        <v>123000</v>
+        <v>124800</v>
       </c>
       <c r="D41" t="n">
-        <v>123000</v>
+        <v>125000</v>
       </c>
       <c r="E41" t="n">
-        <v>123000</v>
+        <v>124800</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9733000000000001</v>
+        <v>10.184</v>
       </c>
       <c r="G41" t="n">
-        <v>124073.3333333333</v>
+        <v>-335.9501634799999</v>
       </c>
       <c r="H41" t="n">
-        <v>125113.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2226,42 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>123600</v>
+        <v>124700</v>
       </c>
       <c r="C42" t="n">
-        <v>123600</v>
+        <v>124700</v>
       </c>
       <c r="D42" t="n">
-        <v>123600</v>
+        <v>124700</v>
       </c>
       <c r="E42" t="n">
-        <v>123600</v>
+        <v>124700</v>
       </c>
       <c r="F42" t="n">
-        <v>0.03595469</v>
+        <v>5.993</v>
       </c>
       <c r="G42" t="n">
-        <v>123986.6666666667</v>
+        <v>-341.9431634799999</v>
       </c>
       <c r="H42" t="n">
-        <v>125061.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2270,42 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>123500</v>
+        <v>124500</v>
       </c>
       <c r="C43" t="n">
-        <v>123500</v>
+        <v>124500</v>
       </c>
       <c r="D43" t="n">
-        <v>123500</v>
+        <v>124500</v>
       </c>
       <c r="E43" t="n">
-        <v>123500</v>
+        <v>124500</v>
       </c>
       <c r="F43" t="n">
-        <v>43.0708</v>
+        <v>6</v>
       </c>
       <c r="G43" t="n">
-        <v>123906.6666666667</v>
+        <v>-347.9431634799999</v>
       </c>
       <c r="H43" t="n">
-        <v>125008.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2314,42 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>123500</v>
+        <v>124600</v>
       </c>
       <c r="C44" t="n">
-        <v>123600</v>
+        <v>124600</v>
       </c>
       <c r="D44" t="n">
-        <v>123600</v>
+        <v>124600</v>
       </c>
       <c r="E44" t="n">
-        <v>123500</v>
+        <v>124600</v>
       </c>
       <c r="F44" t="n">
-        <v>32.4738</v>
+        <v>1.0013</v>
       </c>
       <c r="G44" t="n">
-        <v>123866.6666666667</v>
+        <v>-346.9418634799999</v>
       </c>
       <c r="H44" t="n">
-        <v>124963.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2358,42 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>123500</v>
+        <v>124600</v>
       </c>
       <c r="C45" t="n">
-        <v>123500</v>
+        <v>124600</v>
       </c>
       <c r="D45" t="n">
-        <v>123500</v>
+        <v>124600</v>
       </c>
       <c r="E45" t="n">
-        <v>123500</v>
+        <v>124600</v>
       </c>
       <c r="F45" t="n">
-        <v>11.0963</v>
+        <v>0.7249</v>
       </c>
       <c r="G45" t="n">
-        <v>123826.6666666667</v>
+        <v>-346.9418634799999</v>
       </c>
       <c r="H45" t="n">
-        <v>124915</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2402,44 +1973,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>123500</v>
+        <v>124500</v>
       </c>
       <c r="C46" t="n">
-        <v>123500</v>
+        <v>124500</v>
       </c>
       <c r="D46" t="n">
-        <v>123500</v>
+        <v>124500</v>
       </c>
       <c r="E46" t="n">
-        <v>123500</v>
+        <v>124500</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4595</v>
+        <v>2.659</v>
       </c>
       <c r="G46" t="n">
-        <v>123780</v>
+        <v>-349.6008634799999</v>
       </c>
       <c r="H46" t="n">
-        <v>124865</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>124600</v>
       </c>
       <c r="K46" t="n">
-        <v>123500</v>
-      </c>
-      <c r="L46" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2448,44 +2012,41 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>123500</v>
+        <v>124700</v>
       </c>
       <c r="C47" t="n">
-        <v>123500</v>
+        <v>125000</v>
       </c>
       <c r="D47" t="n">
-        <v>123500</v>
+        <v>125000</v>
       </c>
       <c r="E47" t="n">
-        <v>123500</v>
+        <v>124600</v>
       </c>
       <c r="F47" t="n">
-        <v>0.468</v>
+        <v>8.635999999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>123726.6666666667</v>
+        <v>-340.9648634799998</v>
       </c>
       <c r="H47" t="n">
-        <v>124815</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>124500</v>
       </c>
       <c r="K47" t="n">
-        <v>123500</v>
-      </c>
-      <c r="L47" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2497,39 +2058,38 @@
         <v>124600</v>
       </c>
       <c r="C48" t="n">
-        <v>124600</v>
+        <v>124700</v>
       </c>
       <c r="D48" t="n">
-        <v>124600</v>
+        <v>124700</v>
       </c>
       <c r="E48" t="n">
         <v>124600</v>
       </c>
       <c r="F48" t="n">
-        <v>1.8049</v>
+        <v>0.8704</v>
       </c>
       <c r="G48" t="n">
-        <v>123760</v>
+        <v>-341.8352634799999</v>
       </c>
       <c r="H48" t="n">
-        <v>124783.3333333333</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+        <v>125000</v>
+      </c>
+      <c r="K48" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2538,42 +2098,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>124600</v>
+        <v>124700</v>
       </c>
       <c r="C49" t="n">
-        <v>125000</v>
+        <v>124700</v>
       </c>
       <c r="D49" t="n">
-        <v>125000</v>
+        <v>124700</v>
       </c>
       <c r="E49" t="n">
-        <v>124600</v>
+        <v>124700</v>
       </c>
       <c r="F49" t="n">
-        <v>1.0224</v>
+        <v>1.646</v>
       </c>
       <c r="G49" t="n">
-        <v>123826.6666666667</v>
+        <v>-341.8352634799999</v>
       </c>
       <c r="H49" t="n">
-        <v>124758.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2582,42 +2139,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>124700</v>
+        <v>124800</v>
       </c>
       <c r="C50" t="n">
-        <v>124600</v>
+        <v>124800</v>
       </c>
       <c r="D50" t="n">
-        <v>124700</v>
+        <v>124800</v>
       </c>
       <c r="E50" t="n">
-        <v>124600</v>
+        <v>124800</v>
       </c>
       <c r="F50" t="n">
-        <v>15.7</v>
+        <v>0.2675</v>
       </c>
       <c r="G50" t="n">
-        <v>123826.6666666667</v>
+        <v>-341.5677634799999</v>
       </c>
       <c r="H50" t="n">
-        <v>124730</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2626,42 +2180,41 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>125100</v>
+        <v>124800</v>
       </c>
       <c r="C51" t="n">
-        <v>125500</v>
+        <v>124800</v>
       </c>
       <c r="D51" t="n">
-        <v>125500</v>
+        <v>124800</v>
       </c>
       <c r="E51" t="n">
-        <v>125100</v>
+        <v>124800</v>
       </c>
       <c r="F51" t="n">
-        <v>0.03595888</v>
+        <v>0.2</v>
       </c>
       <c r="G51" t="n">
-        <v>123940</v>
+        <v>-341.5677634799999</v>
       </c>
       <c r="H51" t="n">
-        <v>124716.6666666667</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+        <v>124800</v>
+      </c>
+      <c r="K51" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2670,42 +2223,41 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>125000</v>
+        <v>124800</v>
       </c>
       <c r="C52" t="n">
-        <v>125000</v>
+        <v>124800</v>
       </c>
       <c r="D52" t="n">
-        <v>125000</v>
+        <v>124800</v>
       </c>
       <c r="E52" t="n">
-        <v>125000</v>
+        <v>124800</v>
       </c>
       <c r="F52" t="n">
-        <v>15</v>
+        <v>0.8002</v>
       </c>
       <c r="G52" t="n">
-        <v>124020</v>
+        <v>-341.5677634799999</v>
       </c>
       <c r="H52" t="n">
-        <v>124701.6666666667</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+        <v>124800</v>
+      </c>
+      <c r="K52" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2714,42 +2266,41 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>125500</v>
+        <v>124800</v>
       </c>
       <c r="C53" t="n">
-        <v>126000</v>
+        <v>124800</v>
       </c>
       <c r="D53" t="n">
-        <v>126000</v>
+        <v>124800</v>
       </c>
       <c r="E53" t="n">
-        <v>125500</v>
+        <v>124800</v>
       </c>
       <c r="F53" t="n">
-        <v>6.0398</v>
+        <v>0.4221</v>
       </c>
       <c r="G53" t="n">
-        <v>124113.3333333333</v>
+        <v>-341.5677634799999</v>
       </c>
       <c r="H53" t="n">
-        <v>124696.6666666667</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+        <v>124800</v>
+      </c>
+      <c r="K53" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,42 +2309,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>126000</v>
+        <v>124900</v>
       </c>
       <c r="C54" t="n">
-        <v>126100</v>
+        <v>124900</v>
       </c>
       <c r="D54" t="n">
-        <v>126100</v>
+        <v>124900</v>
       </c>
       <c r="E54" t="n">
-        <v>126000</v>
+        <v>124900</v>
       </c>
       <c r="F54" t="n">
-        <v>0.51</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>124266.6666666667</v>
+        <v>-339.5677634799999</v>
       </c>
       <c r="H54" t="n">
-        <v>124693.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2802,42 +2350,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>125900</v>
+        <v>124900</v>
       </c>
       <c r="C55" t="n">
-        <v>125900</v>
+        <v>124900</v>
       </c>
       <c r="D55" t="n">
-        <v>125900</v>
+        <v>124900</v>
       </c>
       <c r="E55" t="n">
-        <v>125900</v>
+        <v>124900</v>
       </c>
       <c r="F55" t="n">
-        <v>1.406</v>
+        <v>0.03202562</v>
       </c>
       <c r="G55" t="n">
-        <v>124460</v>
+        <v>-339.5677634799999</v>
       </c>
       <c r="H55" t="n">
-        <v>124683.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2846,42 +2391,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>125800</v>
+        <v>124900</v>
       </c>
       <c r="C56" t="n">
-        <v>125800</v>
+        <v>124900</v>
       </c>
       <c r="D56" t="n">
-        <v>125800</v>
+        <v>124900</v>
       </c>
       <c r="E56" t="n">
-        <v>125800</v>
+        <v>124900</v>
       </c>
       <c r="F56" t="n">
-        <v>3.2727</v>
+        <v>0.613</v>
       </c>
       <c r="G56" t="n">
-        <v>124646.6666666667</v>
+        <v>-339.5677634799999</v>
       </c>
       <c r="H56" t="n">
-        <v>124675</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2890,42 +2432,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>125800</v>
+        <v>124700</v>
       </c>
       <c r="C57" t="n">
-        <v>125800</v>
+        <v>124700</v>
       </c>
       <c r="D57" t="n">
-        <v>125800</v>
+        <v>124700</v>
       </c>
       <c r="E57" t="n">
-        <v>125800</v>
+        <v>124700</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8002</v>
+        <v>0.0003</v>
       </c>
       <c r="G57" t="n">
-        <v>124793.3333333333</v>
+        <v>-339.5680634799999</v>
       </c>
       <c r="H57" t="n">
-        <v>124663.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2934,42 +2473,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>125800</v>
+        <v>124200</v>
       </c>
       <c r="C58" t="n">
-        <v>125800</v>
+        <v>124200</v>
       </c>
       <c r="D58" t="n">
-        <v>125800</v>
+        <v>124200</v>
       </c>
       <c r="E58" t="n">
-        <v>125800</v>
+        <v>124200</v>
       </c>
       <c r="F58" t="n">
-        <v>1.3435</v>
+        <v>3.709</v>
       </c>
       <c r="G58" t="n">
-        <v>124946.6666666667</v>
+        <v>-343.2770634799999</v>
       </c>
       <c r="H58" t="n">
-        <v>124653.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2978,42 +2514,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>126100</v>
+        <v>124100</v>
       </c>
       <c r="C59" t="n">
-        <v>126100</v>
+        <v>124100</v>
       </c>
       <c r="D59" t="n">
-        <v>126100</v>
+        <v>124100</v>
       </c>
       <c r="E59" t="n">
-        <v>126100</v>
+        <v>124100</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>1.051</v>
       </c>
       <c r="G59" t="n">
-        <v>125113.3333333333</v>
+        <v>-344.3280634799999</v>
       </c>
       <c r="H59" t="n">
-        <v>124655</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,42 +2555,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>125400</v>
+        <v>124200</v>
       </c>
       <c r="C60" t="n">
-        <v>125400</v>
+        <v>124200</v>
       </c>
       <c r="D60" t="n">
-        <v>125400</v>
+        <v>124200</v>
       </c>
       <c r="E60" t="n">
-        <v>125400</v>
+        <v>124200</v>
       </c>
       <c r="F60" t="n">
-        <v>17.1839</v>
+        <v>0.245</v>
       </c>
       <c r="G60" t="n">
-        <v>125240</v>
+        <v>-344.0830634799999</v>
       </c>
       <c r="H60" t="n">
-        <v>124656.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3066,42 +2596,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>125800</v>
+        <v>124400</v>
       </c>
       <c r="C61" t="n">
-        <v>125800</v>
+        <v>124300</v>
       </c>
       <c r="D61" t="n">
-        <v>125800</v>
+        <v>124400</v>
       </c>
       <c r="E61" t="n">
-        <v>125800</v>
+        <v>124000</v>
       </c>
       <c r="F61" t="n">
-        <v>1.0266</v>
+        <v>19.181</v>
       </c>
       <c r="G61" t="n">
-        <v>125393.3333333333</v>
+        <v>-324.9020634799999</v>
       </c>
       <c r="H61" t="n">
-        <v>124670</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3110,42 +2637,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>126000</v>
+        <v>124200</v>
       </c>
       <c r="C62" t="n">
-        <v>126000</v>
+        <v>124100</v>
       </c>
       <c r="D62" t="n">
-        <v>126000</v>
+        <v>124200</v>
       </c>
       <c r="E62" t="n">
-        <v>126000</v>
+        <v>124100</v>
       </c>
       <c r="F62" t="n">
-        <v>37.2863</v>
+        <v>6.291</v>
       </c>
       <c r="G62" t="n">
-        <v>125560</v>
+        <v>-331.1930634799999</v>
       </c>
       <c r="H62" t="n">
-        <v>124691.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3154,42 +2678,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>126000</v>
+        <v>124000</v>
       </c>
       <c r="C63" t="n">
-        <v>126000</v>
+        <v>124000</v>
       </c>
       <c r="D63" t="n">
-        <v>126000</v>
+        <v>124000</v>
       </c>
       <c r="E63" t="n">
-        <v>126000</v>
+        <v>124000</v>
       </c>
       <c r="F63" t="n">
-        <v>38.0241</v>
+        <v>16.026</v>
       </c>
       <c r="G63" t="n">
-        <v>125653.3333333333</v>
+        <v>-347.2190634799999</v>
       </c>
       <c r="H63" t="n">
-        <v>124715</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3198,42 +2719,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>126000</v>
+        <v>123800</v>
       </c>
       <c r="C64" t="n">
-        <v>126000</v>
+        <v>124600</v>
       </c>
       <c r="D64" t="n">
-        <v>126000</v>
+        <v>124600</v>
       </c>
       <c r="E64" t="n">
-        <v>126000</v>
+        <v>123800</v>
       </c>
       <c r="F64" t="n">
-        <v>33.976</v>
+        <v>57.942</v>
       </c>
       <c r="G64" t="n">
-        <v>125720</v>
+        <v>-289.2770634799999</v>
       </c>
       <c r="H64" t="n">
-        <v>124738.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3242,42 +2760,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>125700</v>
+        <v>123800</v>
       </c>
       <c r="C65" t="n">
-        <v>125500</v>
+        <v>123800</v>
       </c>
       <c r="D65" t="n">
-        <v>125700</v>
+        <v>123800</v>
       </c>
       <c r="E65" t="n">
-        <v>125500</v>
+        <v>123800</v>
       </c>
       <c r="F65" t="n">
-        <v>24.0013</v>
+        <v>0.518</v>
       </c>
       <c r="G65" t="n">
-        <v>125780</v>
+        <v>-289.7950634799998</v>
       </c>
       <c r="H65" t="n">
-        <v>124758.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3286,42 +2801,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>125500</v>
+        <v>123800</v>
       </c>
       <c r="C66" t="n">
-        <v>125500</v>
+        <v>123800</v>
       </c>
       <c r="D66" t="n">
-        <v>125500</v>
+        <v>123800</v>
       </c>
       <c r="E66" t="n">
-        <v>125500</v>
+        <v>123800</v>
       </c>
       <c r="F66" t="n">
-        <v>18.1302</v>
+        <v>15.558</v>
       </c>
       <c r="G66" t="n">
-        <v>125780</v>
+        <v>-289.7950634799998</v>
       </c>
       <c r="H66" t="n">
-        <v>124760</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3330,42 +2842,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>126000</v>
+        <v>124600</v>
       </c>
       <c r="C67" t="n">
-        <v>126000</v>
+        <v>124600</v>
       </c>
       <c r="D67" t="n">
-        <v>126000</v>
+        <v>124600</v>
       </c>
       <c r="E67" t="n">
-        <v>126000</v>
+        <v>124600</v>
       </c>
       <c r="F67" t="n">
-        <v>0.03253968</v>
+        <v>0.6486</v>
       </c>
       <c r="G67" t="n">
-        <v>125846.6666666667</v>
+        <v>-289.1464634799999</v>
       </c>
       <c r="H67" t="n">
-        <v>124770</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3374,42 +2883,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>126000</v>
+        <v>123800</v>
       </c>
       <c r="C68" t="n">
-        <v>126200</v>
+        <v>123800</v>
       </c>
       <c r="D68" t="n">
-        <v>126200</v>
+        <v>123800</v>
       </c>
       <c r="E68" t="n">
-        <v>126000</v>
+        <v>123800</v>
       </c>
       <c r="F68" t="n">
-        <v>31.04816032</v>
+        <v>0.2479</v>
       </c>
       <c r="G68" t="n">
-        <v>125860</v>
+        <v>-289.3943634799999</v>
       </c>
       <c r="H68" t="n">
-        <v>124791.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3418,42 +2924,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>126400</v>
+        <v>123000</v>
       </c>
       <c r="C69" t="n">
-        <v>126400</v>
+        <v>123000</v>
       </c>
       <c r="D69" t="n">
-        <v>126400</v>
+        <v>123000</v>
       </c>
       <c r="E69" t="n">
-        <v>126400</v>
+        <v>123000</v>
       </c>
       <c r="F69" t="n">
-        <v>0.63</v>
+        <v>0.2494</v>
       </c>
       <c r="G69" t="n">
-        <v>125880</v>
+        <v>-289.6437634799998</v>
       </c>
       <c r="H69" t="n">
-        <v>124801.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3462,42 +2965,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>126400</v>
+        <v>123000</v>
       </c>
       <c r="C70" t="n">
-        <v>126400</v>
+        <v>123000</v>
       </c>
       <c r="D70" t="n">
-        <v>126400</v>
+        <v>123000</v>
       </c>
       <c r="E70" t="n">
-        <v>126400</v>
+        <v>123000</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0394</v>
+        <v>0.9733000000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>125913.3333333333</v>
+        <v>-289.6437634799998</v>
       </c>
       <c r="H70" t="n">
-        <v>124826.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3506,42 +3006,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>127000</v>
+        <v>123600</v>
       </c>
       <c r="C71" t="n">
-        <v>127000</v>
+        <v>123600</v>
       </c>
       <c r="D71" t="n">
-        <v>127000</v>
+        <v>123600</v>
       </c>
       <c r="E71" t="n">
-        <v>127000</v>
+        <v>123600</v>
       </c>
       <c r="F71" t="n">
-        <v>0.03499212</v>
+        <v>0.03595469</v>
       </c>
       <c r="G71" t="n">
-        <v>125993.3333333333</v>
+        <v>-289.6078087899999</v>
       </c>
       <c r="H71" t="n">
-        <v>124863.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3550,42 +3047,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>127000</v>
+        <v>123500</v>
       </c>
       <c r="C72" t="n">
-        <v>127000</v>
+        <v>123500</v>
       </c>
       <c r="D72" t="n">
-        <v>127000</v>
+        <v>123500</v>
       </c>
       <c r="E72" t="n">
-        <v>127000</v>
+        <v>123500</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1959</v>
+        <v>43.0708</v>
       </c>
       <c r="G72" t="n">
-        <v>126073.3333333333</v>
+        <v>-332.6786087899999</v>
       </c>
       <c r="H72" t="n">
-        <v>124900</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3594,42 +3088,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>127000</v>
+        <v>123500</v>
       </c>
       <c r="C73" t="n">
-        <v>127000</v>
+        <v>123600</v>
       </c>
       <c r="D73" t="n">
-        <v>127000</v>
+        <v>123600</v>
       </c>
       <c r="E73" t="n">
-        <v>127000</v>
+        <v>123500</v>
       </c>
       <c r="F73" t="n">
-        <v>2.914</v>
+        <v>32.4738</v>
       </c>
       <c r="G73" t="n">
-        <v>126153.3333333333</v>
+        <v>-300.2048087899999</v>
       </c>
       <c r="H73" t="n">
-        <v>124938.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3638,42 +3129,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>127000</v>
+        <v>123500</v>
       </c>
       <c r="C74" t="n">
-        <v>127000</v>
+        <v>123500</v>
       </c>
       <c r="D74" t="n">
-        <v>127000</v>
+        <v>123500</v>
       </c>
       <c r="E74" t="n">
-        <v>127000</v>
+        <v>123500</v>
       </c>
       <c r="F74" t="n">
-        <v>20.0379</v>
+        <v>11.0963</v>
       </c>
       <c r="G74" t="n">
-        <v>126213.3333333333</v>
+        <v>-311.3011087899999</v>
       </c>
       <c r="H74" t="n">
-        <v>124980</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3682,42 +3170,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>127000</v>
+        <v>123500</v>
       </c>
       <c r="C75" t="n">
-        <v>127300</v>
+        <v>123500</v>
       </c>
       <c r="D75" t="n">
-        <v>127300</v>
+        <v>123500</v>
       </c>
       <c r="E75" t="n">
-        <v>127000</v>
+        <v>123500</v>
       </c>
       <c r="F75" t="n">
-        <v>6.8736</v>
+        <v>0.4595</v>
       </c>
       <c r="G75" t="n">
-        <v>126340</v>
+        <v>-311.3011087899999</v>
       </c>
       <c r="H75" t="n">
-        <v>125025</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3726,42 +3211,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>127300</v>
+        <v>123500</v>
       </c>
       <c r="C76" t="n">
-        <v>127700</v>
+        <v>123500</v>
       </c>
       <c r="D76" t="n">
-        <v>127700</v>
+        <v>123500</v>
       </c>
       <c r="E76" t="n">
-        <v>127300</v>
+        <v>123500</v>
       </c>
       <c r="F76" t="n">
-        <v>46.1934</v>
+        <v>0.468</v>
       </c>
       <c r="G76" t="n">
-        <v>126466.6666666667</v>
+        <v>-311.3011087899999</v>
       </c>
       <c r="H76" t="n">
-        <v>125076.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3770,42 +3252,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>127700</v>
+        <v>124600</v>
       </c>
       <c r="C77" t="n">
-        <v>127800</v>
+        <v>124600</v>
       </c>
       <c r="D77" t="n">
-        <v>127800</v>
+        <v>124600</v>
       </c>
       <c r="E77" t="n">
-        <v>127700</v>
+        <v>124600</v>
       </c>
       <c r="F77" t="n">
-        <v>12.7542</v>
+        <v>1.8049</v>
       </c>
       <c r="G77" t="n">
-        <v>126586.6666666667</v>
+        <v>-309.4962087899999</v>
       </c>
       <c r="H77" t="n">
-        <v>125131.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,42 +3293,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>127800</v>
+        <v>124600</v>
       </c>
       <c r="C78" t="n">
-        <v>127800</v>
+        <v>125000</v>
       </c>
       <c r="D78" t="n">
-        <v>127800</v>
+        <v>125000</v>
       </c>
       <c r="E78" t="n">
-        <v>127800</v>
+        <v>124600</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0622</v>
+        <v>1.0224</v>
       </c>
       <c r="G78" t="n">
-        <v>126706.6666666667</v>
+        <v>-308.4738087899999</v>
       </c>
       <c r="H78" t="n">
-        <v>125178.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,42 +3334,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>127900</v>
+        <v>124700</v>
       </c>
       <c r="C79" t="n">
-        <v>129000</v>
+        <v>124600</v>
       </c>
       <c r="D79" t="n">
-        <v>129000</v>
+        <v>124700</v>
       </c>
       <c r="E79" t="n">
-        <v>127900</v>
+        <v>124600</v>
       </c>
       <c r="F79" t="n">
-        <v>24.1768</v>
+        <v>15.7</v>
       </c>
       <c r="G79" t="n">
-        <v>126906.6666666667</v>
+        <v>-324.1738087899999</v>
       </c>
       <c r="H79" t="n">
-        <v>125250</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3902,42 +3375,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>129000</v>
+        <v>125100</v>
       </c>
       <c r="C80" t="n">
-        <v>129000</v>
+        <v>125500</v>
       </c>
       <c r="D80" t="n">
-        <v>129000</v>
+        <v>125500</v>
       </c>
       <c r="E80" t="n">
-        <v>129000</v>
+        <v>125100</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0279</v>
+        <v>0.03595888</v>
       </c>
       <c r="G80" t="n">
-        <v>127140</v>
+        <v>-324.1378499099999</v>
       </c>
       <c r="H80" t="n">
-        <v>125321.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3946,42 +3416,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>129000</v>
+        <v>125000</v>
       </c>
       <c r="C81" t="n">
-        <v>129000</v>
+        <v>125000</v>
       </c>
       <c r="D81" t="n">
-        <v>129000</v>
+        <v>125000</v>
       </c>
       <c r="E81" t="n">
-        <v>129000</v>
+        <v>125000</v>
       </c>
       <c r="F81" t="n">
-        <v>7.3908</v>
+        <v>15</v>
       </c>
       <c r="G81" t="n">
-        <v>127373.3333333333</v>
+        <v>-339.1378499099999</v>
       </c>
       <c r="H81" t="n">
-        <v>125391.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3990,43 +3457,40 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>128500</v>
+        <v>125500</v>
       </c>
       <c r="C82" t="n">
-        <v>129300</v>
+        <v>126000</v>
       </c>
       <c r="D82" t="n">
-        <v>129300</v>
+        <v>126000</v>
       </c>
       <c r="E82" t="n">
-        <v>128500</v>
+        <v>125500</v>
       </c>
       <c r="F82" t="n">
-        <v>3.1567</v>
+        <v>6.0398</v>
       </c>
       <c r="G82" t="n">
-        <v>127593.3333333333</v>
+        <v>-333.0980499099999</v>
       </c>
       <c r="H82" t="n">
-        <v>125466.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>124300</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
-        <v>1.0352252614642</v>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -4034,36 +3498,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>128500</v>
+        <v>126000</v>
       </c>
       <c r="C83" t="n">
-        <v>128500</v>
+        <v>126100</v>
       </c>
       <c r="D83" t="n">
-        <v>128500</v>
+        <v>126100</v>
       </c>
       <c r="E83" t="n">
-        <v>128500</v>
+        <v>126000</v>
       </c>
       <c r="F83" t="n">
-        <v>7</v>
+        <v>0.51</v>
       </c>
       <c r="G83" t="n">
-        <v>127746.6666666667</v>
+        <v>-332.5880499099999</v>
       </c>
       <c r="H83" t="n">
-        <v>125528.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4072,36 +3539,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>128500</v>
+        <v>125900</v>
       </c>
       <c r="C84" t="n">
-        <v>128400</v>
+        <v>125900</v>
       </c>
       <c r="D84" t="n">
-        <v>128500</v>
+        <v>125900</v>
       </c>
       <c r="E84" t="n">
-        <v>128400</v>
+        <v>125900</v>
       </c>
       <c r="F84" t="n">
-        <v>54.3925</v>
+        <v>1.406</v>
       </c>
       <c r="G84" t="n">
-        <v>127880</v>
+        <v>-333.9940499099999</v>
       </c>
       <c r="H84" t="n">
-        <v>125588.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4110,36 +3580,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>128100</v>
+        <v>125800</v>
       </c>
       <c r="C85" t="n">
-        <v>129200</v>
+        <v>125800</v>
       </c>
       <c r="D85" t="n">
-        <v>129200</v>
+        <v>125800</v>
       </c>
       <c r="E85" t="n">
-        <v>128100</v>
+        <v>125800</v>
       </c>
       <c r="F85" t="n">
-        <v>14.5</v>
+        <v>3.2727</v>
       </c>
       <c r="G85" t="n">
-        <v>128066.6666666667</v>
+        <v>-337.2667499099999</v>
       </c>
       <c r="H85" t="n">
-        <v>125660</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4148,36 +3621,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>129300</v>
+        <v>125800</v>
       </c>
       <c r="C86" t="n">
-        <v>129300</v>
+        <v>125800</v>
       </c>
       <c r="D86" t="n">
-        <v>129300</v>
+        <v>125800</v>
       </c>
       <c r="E86" t="n">
-        <v>128900</v>
+        <v>125800</v>
       </c>
       <c r="F86" t="n">
-        <v>4.8274621</v>
+        <v>0.8002</v>
       </c>
       <c r="G86" t="n">
-        <v>128220</v>
+        <v>-337.2667499099999</v>
       </c>
       <c r="H86" t="n">
-        <v>125733.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4186,36 +3662,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>128800</v>
+        <v>125800</v>
       </c>
       <c r="C87" t="n">
-        <v>128800</v>
+        <v>125800</v>
       </c>
       <c r="D87" t="n">
-        <v>128800</v>
+        <v>125800</v>
       </c>
       <c r="E87" t="n">
-        <v>128800</v>
+        <v>125800</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>1.3435</v>
       </c>
       <c r="G87" t="n">
-        <v>128340</v>
+        <v>-337.2667499099999</v>
       </c>
       <c r="H87" t="n">
-        <v>125798.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>1</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4224,36 +3703,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>128000</v>
+        <v>126100</v>
       </c>
       <c r="C88" t="n">
-        <v>127900</v>
+        <v>126100</v>
       </c>
       <c r="D88" t="n">
-        <v>128000</v>
+        <v>126100</v>
       </c>
       <c r="E88" t="n">
-        <v>127900</v>
+        <v>126100</v>
       </c>
       <c r="F88" t="n">
-        <v>11.811</v>
+        <v>2</v>
       </c>
       <c r="G88" t="n">
-        <v>128400</v>
+        <v>-335.2667499099999</v>
       </c>
       <c r="H88" t="n">
-        <v>125851.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4262,36 +3744,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>127200</v>
+        <v>125400</v>
       </c>
       <c r="C89" t="n">
-        <v>127000</v>
+        <v>125400</v>
       </c>
       <c r="D89" t="n">
-        <v>127200</v>
+        <v>125400</v>
       </c>
       <c r="E89" t="n">
-        <v>127000</v>
+        <v>125400</v>
       </c>
       <c r="F89" t="n">
-        <v>11</v>
+        <v>17.1839</v>
       </c>
       <c r="G89" t="n">
-        <v>128400</v>
+        <v>-352.4506499099999</v>
       </c>
       <c r="H89" t="n">
-        <v>125898.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>1</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4300,36 +3785,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>127000</v>
+        <v>125800</v>
       </c>
       <c r="C90" t="n">
-        <v>127000</v>
+        <v>125800</v>
       </c>
       <c r="D90" t="n">
-        <v>127000</v>
+        <v>125800</v>
       </c>
       <c r="E90" t="n">
-        <v>127000</v>
+        <v>125800</v>
       </c>
       <c r="F90" t="n">
-        <v>1.0318</v>
+        <v>1.0266</v>
       </c>
       <c r="G90" t="n">
-        <v>128380</v>
+        <v>-351.4240499099999</v>
       </c>
       <c r="H90" t="n">
-        <v>125946.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>1</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4338,36 +3826,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>127400</v>
+        <v>126000</v>
       </c>
       <c r="C91" t="n">
-        <v>127400</v>
+        <v>126000</v>
       </c>
       <c r="D91" t="n">
-        <v>127400</v>
+        <v>126000</v>
       </c>
       <c r="E91" t="n">
-        <v>127400</v>
+        <v>126000</v>
       </c>
       <c r="F91" t="n">
-        <v>0.03575353</v>
+        <v>37.2863</v>
       </c>
       <c r="G91" t="n">
-        <v>128360</v>
+        <v>-314.1377499099999</v>
       </c>
       <c r="H91" t="n">
-        <v>126000</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4376,36 +3867,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>126700</v>
+        <v>126000</v>
       </c>
       <c r="C92" t="n">
-        <v>126600</v>
+        <v>126000</v>
       </c>
       <c r="D92" t="n">
-        <v>126700</v>
+        <v>126000</v>
       </c>
       <c r="E92" t="n">
-        <v>126600</v>
+        <v>126000</v>
       </c>
       <c r="F92" t="n">
-        <v>2.8436</v>
+        <v>38.0241</v>
       </c>
       <c r="G92" t="n">
-        <v>128280</v>
+        <v>-314.1377499099999</v>
       </c>
       <c r="H92" t="n">
-        <v>126038.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>1</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4414,36 +3908,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>126800</v>
+        <v>126000</v>
       </c>
       <c r="C93" t="n">
-        <v>127400</v>
+        <v>126000</v>
       </c>
       <c r="D93" t="n">
-        <v>127400</v>
+        <v>126000</v>
       </c>
       <c r="E93" t="n">
-        <v>126800</v>
+        <v>126000</v>
       </c>
       <c r="F93" t="n">
-        <v>22.3768</v>
+        <v>33.976</v>
       </c>
       <c r="G93" t="n">
-        <v>128253.3333333333</v>
+        <v>-314.1377499099999</v>
       </c>
       <c r="H93" t="n">
-        <v>126093.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4452,36 +3949,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>126900</v>
+        <v>125700</v>
       </c>
       <c r="C94" t="n">
-        <v>127100</v>
+        <v>125500</v>
       </c>
       <c r="D94" t="n">
-        <v>127100</v>
+        <v>125700</v>
       </c>
       <c r="E94" t="n">
-        <v>126900</v>
+        <v>125500</v>
       </c>
       <c r="F94" t="n">
-        <v>23.90964138</v>
+        <v>24.0013</v>
       </c>
       <c r="G94" t="n">
-        <v>128126.6666666667</v>
+        <v>-338.1390499099999</v>
       </c>
       <c r="H94" t="n">
-        <v>126145</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4490,36 +3990,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>126400</v>
+        <v>125500</v>
       </c>
       <c r="C95" t="n">
-        <v>126400</v>
+        <v>125500</v>
       </c>
       <c r="D95" t="n">
-        <v>126400</v>
+        <v>125500</v>
       </c>
       <c r="E95" t="n">
-        <v>126400</v>
+        <v>125500</v>
       </c>
       <c r="F95" t="n">
-        <v>0.8355</v>
+        <v>18.1302</v>
       </c>
       <c r="G95" t="n">
-        <v>127953.3333333333</v>
+        <v>-338.1390499099999</v>
       </c>
       <c r="H95" t="n">
-        <v>126175</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,36 +4031,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>126400</v>
+        <v>126000</v>
       </c>
       <c r="C96" t="n">
-        <v>126400</v>
+        <v>126000</v>
       </c>
       <c r="D96" t="n">
-        <v>126400</v>
+        <v>126000</v>
       </c>
       <c r="E96" t="n">
-        <v>126400</v>
+        <v>126000</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1645</v>
+        <v>0.03253968</v>
       </c>
       <c r="G96" t="n">
-        <v>127780</v>
+        <v>-338.1065102299999</v>
       </c>
       <c r="H96" t="n">
-        <v>126218.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4566,36 +4072,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>126900</v>
+        <v>126000</v>
       </c>
       <c r="C97" t="n">
-        <v>126900</v>
+        <v>126200</v>
       </c>
       <c r="D97" t="n">
-        <v>126900</v>
+        <v>126200</v>
       </c>
       <c r="E97" t="n">
-        <v>126900</v>
+        <v>126000</v>
       </c>
       <c r="F97" t="n">
-        <v>0.01750985</v>
+        <v>31.04816032</v>
       </c>
       <c r="G97" t="n">
-        <v>127620</v>
+        <v>-307.0583499099999</v>
       </c>
       <c r="H97" t="n">
-        <v>126270</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>1</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4604,36 +4113,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>126500</v>
+        <v>126400</v>
       </c>
       <c r="C98" t="n">
-        <v>126500</v>
+        <v>126400</v>
       </c>
       <c r="D98" t="n">
-        <v>126500</v>
+        <v>126400</v>
       </c>
       <c r="E98" t="n">
-        <v>126500</v>
+        <v>126400</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="G98" t="n">
-        <v>127486.6666666667</v>
+        <v>-306.4283499099999</v>
       </c>
       <c r="H98" t="n">
-        <v>126301.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>1</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4642,36 +4154,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>126500</v>
+        <v>126400</v>
       </c>
       <c r="C99" t="n">
-        <v>126500</v>
+        <v>126400</v>
       </c>
       <c r="D99" t="n">
-        <v>126500</v>
+        <v>126400</v>
       </c>
       <c r="E99" t="n">
-        <v>126500</v>
+        <v>126400</v>
       </c>
       <c r="F99" t="n">
-        <v>11.659</v>
+        <v>0.0394</v>
       </c>
       <c r="G99" t="n">
-        <v>127360</v>
+        <v>-306.4283499099999</v>
       </c>
       <c r="H99" t="n">
-        <v>126346.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4680,36 +4195,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>126500</v>
+        <v>127000</v>
       </c>
       <c r="C100" t="n">
-        <v>126500</v>
+        <v>127000</v>
       </c>
       <c r="D100" t="n">
-        <v>126500</v>
+        <v>127000</v>
       </c>
       <c r="E100" t="n">
-        <v>126500</v>
+        <v>127000</v>
       </c>
       <c r="F100" t="n">
-        <v>28.6669</v>
+        <v>0.03499212</v>
       </c>
       <c r="G100" t="n">
-        <v>127180</v>
+        <v>-306.3933577899999</v>
       </c>
       <c r="H100" t="n">
-        <v>126405</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,36 +4236,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>126500</v>
+        <v>127000</v>
       </c>
       <c r="C101" t="n">
-        <v>126500</v>
+        <v>127000</v>
       </c>
       <c r="D101" t="n">
-        <v>126500</v>
+        <v>127000</v>
       </c>
       <c r="E101" t="n">
-        <v>126500</v>
+        <v>127000</v>
       </c>
       <c r="F101" t="n">
-        <v>0.07870000000000001</v>
+        <v>0.1959</v>
       </c>
       <c r="G101" t="n">
-        <v>126993.3333333333</v>
+        <v>-306.3933577899999</v>
       </c>
       <c r="H101" t="n">
-        <v>126463.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4756,36 +4277,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>126300</v>
+        <v>127000</v>
       </c>
       <c r="C102" t="n">
-        <v>126300</v>
+        <v>127000</v>
       </c>
       <c r="D102" t="n">
-        <v>126300</v>
+        <v>127000</v>
       </c>
       <c r="E102" t="n">
-        <v>126300</v>
+        <v>127000</v>
       </c>
       <c r="F102" t="n">
-        <v>32.3186</v>
+        <v>2.914</v>
       </c>
       <c r="G102" t="n">
-        <v>126826.6666666667</v>
+        <v>-306.3933577899999</v>
       </c>
       <c r="H102" t="n">
-        <v>126508.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4794,36 +4318,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>126300</v>
+        <v>127000</v>
       </c>
       <c r="C103" t="n">
-        <v>126400</v>
+        <v>127000</v>
       </c>
       <c r="D103" t="n">
-        <v>126400</v>
+        <v>127000</v>
       </c>
       <c r="E103" t="n">
-        <v>126300</v>
+        <v>127000</v>
       </c>
       <c r="F103" t="n">
-        <v>1.63976867</v>
+        <v>20.0379</v>
       </c>
       <c r="G103" t="n">
-        <v>126726.6666666667</v>
+        <v>-306.3933577899999</v>
       </c>
       <c r="H103" t="n">
-        <v>126556.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4832,36 +4359,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>126100</v>
+        <v>127000</v>
       </c>
       <c r="C104" t="n">
-        <v>126100</v>
+        <v>127300</v>
       </c>
       <c r="D104" t="n">
-        <v>126100</v>
+        <v>127300</v>
       </c>
       <c r="E104" t="n">
-        <v>126100</v>
+        <v>127000</v>
       </c>
       <c r="F104" t="n">
-        <v>0.51</v>
+        <v>6.8736</v>
       </c>
       <c r="G104" t="n">
-        <v>126666.6666666667</v>
+        <v>-299.5197577899999</v>
       </c>
       <c r="H104" t="n">
-        <v>126598.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4870,36 +4400,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>125700</v>
+        <v>127300</v>
       </c>
       <c r="C105" t="n">
-        <v>125700</v>
+        <v>127700</v>
       </c>
       <c r="D105" t="n">
-        <v>125700</v>
+        <v>127700</v>
       </c>
       <c r="E105" t="n">
-        <v>125700</v>
+        <v>127300</v>
       </c>
       <c r="F105" t="n">
-        <v>0.63</v>
+        <v>46.1934</v>
       </c>
       <c r="G105" t="n">
-        <v>126580</v>
+        <v>-253.3263577899999</v>
       </c>
       <c r="H105" t="n">
-        <v>126635</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4908,36 +4441,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>125900</v>
+        <v>127700</v>
       </c>
       <c r="C106" t="n">
-        <v>125900</v>
+        <v>127800</v>
       </c>
       <c r="D106" t="n">
-        <v>125900</v>
+        <v>127800</v>
       </c>
       <c r="E106" t="n">
-        <v>125900</v>
+        <v>127700</v>
       </c>
       <c r="F106" t="n">
-        <v>1.3863</v>
+        <v>12.7542</v>
       </c>
       <c r="G106" t="n">
-        <v>126480</v>
+        <v>-240.5721577899999</v>
       </c>
       <c r="H106" t="n">
-        <v>126675</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,36 +4482,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>126000</v>
+        <v>127800</v>
       </c>
       <c r="C107" t="n">
-        <v>126000</v>
+        <v>127800</v>
       </c>
       <c r="D107" t="n">
-        <v>126000</v>
+        <v>127800</v>
       </c>
       <c r="E107" t="n">
-        <v>126000</v>
+        <v>127800</v>
       </c>
       <c r="F107" t="n">
-        <v>0.01763492</v>
+        <v>0.0622</v>
       </c>
       <c r="G107" t="n">
-        <v>126440</v>
+        <v>-240.5721577899999</v>
       </c>
       <c r="H107" t="n">
-        <v>126716.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4984,36 +4523,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>125600</v>
+        <v>127900</v>
       </c>
       <c r="C108" t="n">
-        <v>125800</v>
+        <v>129000</v>
       </c>
       <c r="D108" t="n">
-        <v>125800</v>
+        <v>129000</v>
       </c>
       <c r="E108" t="n">
-        <v>125600</v>
+        <v>127900</v>
       </c>
       <c r="F108" t="n">
-        <v>6.4408</v>
+        <v>24.1768</v>
       </c>
       <c r="G108" t="n">
-        <v>126333.3333333333</v>
+        <v>-216.3953577899999</v>
       </c>
       <c r="H108" t="n">
-        <v>126736.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5022,36 +4564,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>126100</v>
+        <v>129000</v>
       </c>
       <c r="C109" t="n">
-        <v>126100</v>
+        <v>129000</v>
       </c>
       <c r="D109" t="n">
-        <v>126100</v>
+        <v>129000</v>
       </c>
       <c r="E109" t="n">
-        <v>126100</v>
+        <v>129000</v>
       </c>
       <c r="F109" t="n">
-        <v>3.96510705</v>
+        <v>0.0279</v>
       </c>
       <c r="G109" t="n">
-        <v>126266.6666666667</v>
+        <v>-216.3953577899999</v>
       </c>
       <c r="H109" t="n">
-        <v>126755</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5060,36 +4605,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>125800</v>
+        <v>129000</v>
       </c>
       <c r="C110" t="n">
-        <v>125800</v>
+        <v>129000</v>
       </c>
       <c r="D110" t="n">
-        <v>125800</v>
+        <v>129000</v>
       </c>
       <c r="E110" t="n">
-        <v>125800</v>
+        <v>129000</v>
       </c>
       <c r="F110" t="n">
-        <v>0.3423</v>
+        <v>7.3908</v>
       </c>
       <c r="G110" t="n">
-        <v>126226.6666666667</v>
+        <v>-216.3953577899999</v>
       </c>
       <c r="H110" t="n">
-        <v>126775</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5098,37 +4646,40 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>125400</v>
+        <v>128500</v>
       </c>
       <c r="C111" t="n">
-        <v>125100</v>
+        <v>129300</v>
       </c>
       <c r="D111" t="n">
-        <v>125400</v>
+        <v>129300</v>
       </c>
       <c r="E111" t="n">
-        <v>125100</v>
+        <v>128500</v>
       </c>
       <c r="F111" t="n">
-        <v>3.5</v>
+        <v>3.1567</v>
       </c>
       <c r="G111" t="n">
-        <v>126140</v>
+        <v>-213.2386577899999</v>
       </c>
       <c r="H111" t="n">
-        <v>126768.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>124600</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1.032720706260032</v>
       </c>
     </row>
     <row r="112">
@@ -5136,36 +4687,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>125300</v>
+        <v>128500</v>
       </c>
       <c r="C112" t="n">
-        <v>125300</v>
+        <v>128500</v>
       </c>
       <c r="D112" t="n">
-        <v>125300</v>
+        <v>128500</v>
       </c>
       <c r="E112" t="n">
-        <v>125300</v>
+        <v>128500</v>
       </c>
       <c r="F112" t="n">
-        <v>0.79</v>
+        <v>7</v>
       </c>
       <c r="G112" t="n">
-        <v>126033.3333333333</v>
+        <v>-220.2386577899999</v>
       </c>
       <c r="H112" t="n">
-        <v>126773.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5174,36 +4722,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>125300</v>
+        <v>128500</v>
       </c>
       <c r="C113" t="n">
-        <v>125300</v>
+        <v>128400</v>
       </c>
       <c r="D113" t="n">
-        <v>125300</v>
+        <v>128500</v>
       </c>
       <c r="E113" t="n">
-        <v>125300</v>
+        <v>128400</v>
       </c>
       <c r="F113" t="n">
-        <v>0.2</v>
+        <v>54.3925</v>
       </c>
       <c r="G113" t="n">
-        <v>125953.3333333333</v>
+        <v>-274.6311577899999</v>
       </c>
       <c r="H113" t="n">
-        <v>126761.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5212,36 +4757,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>125200</v>
+        <v>128100</v>
       </c>
       <c r="C114" t="n">
-        <v>125200</v>
+        <v>129200</v>
       </c>
       <c r="D114" t="n">
-        <v>125200</v>
+        <v>129200</v>
       </c>
       <c r="E114" t="n">
-        <v>125200</v>
+        <v>128100</v>
       </c>
       <c r="F114" t="n">
-        <v>5.1638</v>
+        <v>14.5</v>
       </c>
       <c r="G114" t="n">
-        <v>125866.6666666667</v>
+        <v>-260.1311577899999</v>
       </c>
       <c r="H114" t="n">
-        <v>126746.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5250,36 +4792,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>125200</v>
+        <v>129300</v>
       </c>
       <c r="C115" t="n">
-        <v>125200</v>
+        <v>129300</v>
       </c>
       <c r="D115" t="n">
-        <v>125200</v>
+        <v>129300</v>
       </c>
       <c r="E115" t="n">
-        <v>125200</v>
+        <v>128900</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>4.8274621</v>
       </c>
       <c r="G115" t="n">
-        <v>125780</v>
+        <v>-255.3036956899999</v>
       </c>
       <c r="H115" t="n">
-        <v>126735</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5288,36 +4827,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>126000</v>
+        <v>128800</v>
       </c>
       <c r="C116" t="n">
-        <v>126000</v>
+        <v>128800</v>
       </c>
       <c r="D116" t="n">
-        <v>126000</v>
+        <v>128800</v>
       </c>
       <c r="E116" t="n">
-        <v>126000</v>
+        <v>128800</v>
       </c>
       <c r="F116" t="n">
         <v>2</v>
       </c>
       <c r="G116" t="n">
-        <v>125746.6666666667</v>
+        <v>-257.3036956899999</v>
       </c>
       <c r="H116" t="n">
-        <v>126738.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5326,36 +4862,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>125600</v>
+        <v>128000</v>
       </c>
       <c r="C117" t="n">
-        <v>125600</v>
+        <v>127900</v>
       </c>
       <c r="D117" t="n">
-        <v>125600</v>
+        <v>128000</v>
       </c>
       <c r="E117" t="n">
-        <v>125600</v>
+        <v>127900</v>
       </c>
       <c r="F117" t="n">
-        <v>0.472</v>
+        <v>11.811</v>
       </c>
       <c r="G117" t="n">
-        <v>125700</v>
+        <v>-269.1146956899998</v>
       </c>
       <c r="H117" t="n">
-        <v>126735</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5364,36 +4897,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>125600</v>
+        <v>127200</v>
       </c>
       <c r="C118" t="n">
-        <v>125300</v>
+        <v>127000</v>
       </c>
       <c r="D118" t="n">
-        <v>125600</v>
+        <v>127200</v>
       </c>
       <c r="E118" t="n">
-        <v>125300</v>
+        <v>127000</v>
       </c>
       <c r="F118" t="n">
-        <v>6.1</v>
+        <v>11</v>
       </c>
       <c r="G118" t="n">
-        <v>125626.6666666667</v>
+        <v>-280.1146956899998</v>
       </c>
       <c r="H118" t="n">
-        <v>126726.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5402,36 +4932,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>125800</v>
+        <v>127000</v>
       </c>
       <c r="C119" t="n">
-        <v>125800</v>
+        <v>127000</v>
       </c>
       <c r="D119" t="n">
-        <v>125800</v>
+        <v>127000</v>
       </c>
       <c r="E119" t="n">
-        <v>125800</v>
+        <v>127000</v>
       </c>
       <c r="F119" t="n">
-        <v>5.4719</v>
+        <v>1.0318</v>
       </c>
       <c r="G119" t="n">
-        <v>125606.6666666667</v>
+        <v>-280.1146956899998</v>
       </c>
       <c r="H119" t="n">
-        <v>126721.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5440,36 +4967,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>125300</v>
+        <v>127400</v>
       </c>
       <c r="C120" t="n">
-        <v>125200</v>
+        <v>127400</v>
       </c>
       <c r="D120" t="n">
-        <v>125300</v>
+        <v>127400</v>
       </c>
       <c r="E120" t="n">
-        <v>125200</v>
+        <v>127400</v>
       </c>
       <c r="F120" t="n">
-        <v>3.3416</v>
+        <v>0.03575353</v>
       </c>
       <c r="G120" t="n">
-        <v>125573.3333333333</v>
+        <v>-280.0789421599998</v>
       </c>
       <c r="H120" t="n">
-        <v>126718.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5478,36 +5002,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>125200</v>
+        <v>126700</v>
       </c>
       <c r="C121" t="n">
-        <v>125200</v>
+        <v>126600</v>
       </c>
       <c r="D121" t="n">
-        <v>125200</v>
+        <v>126700</v>
       </c>
       <c r="E121" t="n">
-        <v>125200</v>
+        <v>126600</v>
       </c>
       <c r="F121" t="n">
-        <v>4.138</v>
+        <v>2.8436</v>
       </c>
       <c r="G121" t="n">
-        <v>125526.6666666667</v>
+        <v>-282.9225421599998</v>
       </c>
       <c r="H121" t="n">
-        <v>126708.3333333333</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5516,36 +5037,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>125000</v>
+        <v>126800</v>
       </c>
       <c r="C122" t="n">
-        <v>125000</v>
+        <v>127400</v>
       </c>
       <c r="D122" t="n">
-        <v>125000</v>
+        <v>127400</v>
       </c>
       <c r="E122" t="n">
-        <v>125000</v>
+        <v>126800</v>
       </c>
       <c r="F122" t="n">
-        <v>2.0498</v>
+        <v>22.3768</v>
       </c>
       <c r="G122" t="n">
-        <v>125460</v>
+        <v>-260.5457421599998</v>
       </c>
       <c r="H122" t="n">
-        <v>126691.6666666667</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5554,36 +5072,1048 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>125000</v>
+        <v>126900</v>
       </c>
       <c r="C123" t="n">
-        <v>125000</v>
+        <v>127100</v>
       </c>
       <c r="D123" t="n">
-        <v>125000</v>
+        <v>127100</v>
       </c>
       <c r="E123" t="n">
-        <v>125000</v>
+        <v>126900</v>
       </c>
       <c r="F123" t="n">
-        <v>4.9001</v>
+        <v>23.90964138</v>
       </c>
       <c r="G123" t="n">
-        <v>125406.6666666667</v>
+        <v>-284.4553835399998</v>
       </c>
       <c r="H123" t="n">
-        <v>126675</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>126400</v>
+      </c>
+      <c r="C124" t="n">
+        <v>126400</v>
+      </c>
+      <c r="D124" t="n">
+        <v>126400</v>
+      </c>
+      <c r="E124" t="n">
+        <v>126400</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.8355</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-285.2908835399998</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>126400</v>
+      </c>
+      <c r="C125" t="n">
+        <v>126400</v>
+      </c>
+      <c r="D125" t="n">
+        <v>126400</v>
+      </c>
+      <c r="E125" t="n">
+        <v>126400</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.1645</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-285.2908835399998</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>126900</v>
+      </c>
+      <c r="C126" t="n">
+        <v>126900</v>
+      </c>
+      <c r="D126" t="n">
+        <v>126900</v>
+      </c>
+      <c r="E126" t="n">
+        <v>126900</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.01750985</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-285.2733736899998</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>126500</v>
+      </c>
+      <c r="C127" t="n">
+        <v>126500</v>
+      </c>
+      <c r="D127" t="n">
+        <v>126500</v>
+      </c>
+      <c r="E127" t="n">
+        <v>126500</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-285.7733736899998</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>126500</v>
+      </c>
+      <c r="C128" t="n">
+        <v>126500</v>
+      </c>
+      <c r="D128" t="n">
+        <v>126500</v>
+      </c>
+      <c r="E128" t="n">
+        <v>126500</v>
+      </c>
+      <c r="F128" t="n">
+        <v>11.659</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-285.7733736899998</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>126500</v>
+      </c>
+      <c r="C129" t="n">
+        <v>126500</v>
+      </c>
+      <c r="D129" t="n">
+        <v>126500</v>
+      </c>
+      <c r="E129" t="n">
+        <v>126500</v>
+      </c>
+      <c r="F129" t="n">
+        <v>28.6669</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-285.7733736899998</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>126500</v>
+      </c>
+      <c r="C130" t="n">
+        <v>126500</v>
+      </c>
+      <c r="D130" t="n">
+        <v>126500</v>
+      </c>
+      <c r="E130" t="n">
+        <v>126500</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.07870000000000001</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-285.7733736899998</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>126300</v>
+      </c>
+      <c r="C131" t="n">
+        <v>126300</v>
+      </c>
+      <c r="D131" t="n">
+        <v>126300</v>
+      </c>
+      <c r="E131" t="n">
+        <v>126300</v>
+      </c>
+      <c r="F131" t="n">
+        <v>32.3186</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-318.0919736899998</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>126300</v>
+      </c>
+      <c r="C132" t="n">
+        <v>126400</v>
+      </c>
+      <c r="D132" t="n">
+        <v>126400</v>
+      </c>
+      <c r="E132" t="n">
+        <v>126300</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1.63976867</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-316.4522050199998</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>126100</v>
+      </c>
+      <c r="C133" t="n">
+        <v>126100</v>
+      </c>
+      <c r="D133" t="n">
+        <v>126100</v>
+      </c>
+      <c r="E133" t="n">
+        <v>126100</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-316.9622050199998</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>125700</v>
+      </c>
+      <c r="C134" t="n">
+        <v>125700</v>
+      </c>
+      <c r="D134" t="n">
+        <v>125700</v>
+      </c>
+      <c r="E134" t="n">
+        <v>125700</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-317.5922050199998</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>125900</v>
+      </c>
+      <c r="C135" t="n">
+        <v>125900</v>
+      </c>
+      <c r="D135" t="n">
+        <v>125900</v>
+      </c>
+      <c r="E135" t="n">
+        <v>125900</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1.3863</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-316.2059050199998</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>126000</v>
+      </c>
+      <c r="C136" t="n">
+        <v>126000</v>
+      </c>
+      <c r="D136" t="n">
+        <v>126000</v>
+      </c>
+      <c r="E136" t="n">
+        <v>126000</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.01763492</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-316.1882700999998</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>125600</v>
+      </c>
+      <c r="C137" t="n">
+        <v>125800</v>
+      </c>
+      <c r="D137" t="n">
+        <v>125800</v>
+      </c>
+      <c r="E137" t="n">
+        <v>125600</v>
+      </c>
+      <c r="F137" t="n">
+        <v>6.4408</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-322.6290700999998</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>126100</v>
+      </c>
+      <c r="C138" t="n">
+        <v>126100</v>
+      </c>
+      <c r="D138" t="n">
+        <v>126100</v>
+      </c>
+      <c r="E138" t="n">
+        <v>126100</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3.96510705</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-318.6639630499998</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>125800</v>
+      </c>
+      <c r="C139" t="n">
+        <v>125800</v>
+      </c>
+      <c r="D139" t="n">
+        <v>125800</v>
+      </c>
+      <c r="E139" t="n">
+        <v>125800</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-319.0062630499999</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>125400</v>
+      </c>
+      <c r="C140" t="n">
+        <v>125100</v>
+      </c>
+      <c r="D140" t="n">
+        <v>125400</v>
+      </c>
+      <c r="E140" t="n">
+        <v>125100</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-322.5062630499999</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>125300</v>
+      </c>
+      <c r="C141" t="n">
+        <v>125300</v>
+      </c>
+      <c r="D141" t="n">
+        <v>125300</v>
+      </c>
+      <c r="E141" t="n">
+        <v>125300</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-321.7162630499998</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>125300</v>
+      </c>
+      <c r="C142" t="n">
+        <v>125300</v>
+      </c>
+      <c r="D142" t="n">
+        <v>125300</v>
+      </c>
+      <c r="E142" t="n">
+        <v>125300</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-321.7162630499998</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>125200</v>
+      </c>
+      <c r="C143" t="n">
+        <v>125200</v>
+      </c>
+      <c r="D143" t="n">
+        <v>125200</v>
+      </c>
+      <c r="E143" t="n">
+        <v>125200</v>
+      </c>
+      <c r="F143" t="n">
+        <v>5.1638</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-326.8800630499998</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>125200</v>
+      </c>
+      <c r="C144" t="n">
+        <v>125200</v>
+      </c>
+      <c r="D144" t="n">
+        <v>125200</v>
+      </c>
+      <c r="E144" t="n">
+        <v>125200</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-326.8800630499998</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>126000</v>
+      </c>
+      <c r="C145" t="n">
+        <v>126000</v>
+      </c>
+      <c r="D145" t="n">
+        <v>126000</v>
+      </c>
+      <c r="E145" t="n">
+        <v>126000</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-324.8800630499998</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>125600</v>
+      </c>
+      <c r="C146" t="n">
+        <v>125600</v>
+      </c>
+      <c r="D146" t="n">
+        <v>125600</v>
+      </c>
+      <c r="E146" t="n">
+        <v>125600</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-325.3520630499998</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>125600</v>
+      </c>
+      <c r="C147" t="n">
+        <v>125300</v>
+      </c>
+      <c r="D147" t="n">
+        <v>125600</v>
+      </c>
+      <c r="E147" t="n">
+        <v>125300</v>
+      </c>
+      <c r="F147" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-331.4520630499998</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>125800</v>
+      </c>
+      <c r="C148" t="n">
+        <v>125800</v>
+      </c>
+      <c r="D148" t="n">
+        <v>125800</v>
+      </c>
+      <c r="E148" t="n">
+        <v>125800</v>
+      </c>
+      <c r="F148" t="n">
+        <v>5.4719</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-325.9801630499998</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>125300</v>
+      </c>
+      <c r="C149" t="n">
+        <v>125200</v>
+      </c>
+      <c r="D149" t="n">
+        <v>125300</v>
+      </c>
+      <c r="E149" t="n">
+        <v>125200</v>
+      </c>
+      <c r="F149" t="n">
+        <v>3.3416</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-329.3217630499998</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>125200</v>
+      </c>
+      <c r="C150" t="n">
+        <v>125200</v>
+      </c>
+      <c r="D150" t="n">
+        <v>125200</v>
+      </c>
+      <c r="E150" t="n">
+        <v>125200</v>
+      </c>
+      <c r="F150" t="n">
+        <v>4.138</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-329.3217630499998</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>125000</v>
+      </c>
+      <c r="C151" t="n">
+        <v>125000</v>
+      </c>
+      <c r="D151" t="n">
+        <v>125000</v>
+      </c>
+      <c r="E151" t="n">
+        <v>125000</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2.0498</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-331.3715630499998</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>125000</v>
+      </c>
+      <c r="C152" t="n">
+        <v>125000</v>
+      </c>
+      <c r="D152" t="n">
+        <v>125000</v>
+      </c>
+      <c r="E152" t="n">
+        <v>125000</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4.9001</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-331.3715630499998</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-23 BackTest DASH.xlsx
+++ b/BackTest/2020-01-23 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>126400</v>
+        <v>124600</v>
       </c>
       <c r="C2" t="n">
-        <v>126700</v>
+        <v>124600</v>
       </c>
       <c r="D2" t="n">
-        <v>126700</v>
+        <v>124600</v>
       </c>
       <c r="E2" t="n">
-        <v>126400</v>
+        <v>124600</v>
       </c>
       <c r="F2" t="n">
-        <v>3.3262</v>
+        <v>1.0013</v>
       </c>
       <c r="G2" t="n">
-        <v>-382.94646172</v>
+        <v>-346.9418634799999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>126900</v>
+        <v>124600</v>
       </c>
       <c r="C3" t="n">
-        <v>126900</v>
+        <v>124600</v>
       </c>
       <c r="D3" t="n">
-        <v>126900</v>
+        <v>124600</v>
       </c>
       <c r="E3" t="n">
-        <v>126900</v>
+        <v>124600</v>
       </c>
       <c r="F3" t="n">
-        <v>36.6346</v>
+        <v>0.7249</v>
       </c>
       <c r="G3" t="n">
-        <v>-346.31186172</v>
+        <v>-346.9418634799999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>126900</v>
+        <v>124500</v>
       </c>
       <c r="C4" t="n">
-        <v>127600</v>
+        <v>124500</v>
       </c>
       <c r="D4" t="n">
-        <v>127600</v>
+        <v>124500</v>
       </c>
       <c r="E4" t="n">
-        <v>126900</v>
+        <v>124500</v>
       </c>
       <c r="F4" t="n">
-        <v>28.0053</v>
+        <v>2.659</v>
       </c>
       <c r="G4" t="n">
-        <v>-318.30656172</v>
+        <v>-349.6008634799999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>127600</v>
+        <v>124700</v>
       </c>
       <c r="C5" t="n">
-        <v>127000</v>
+        <v>125000</v>
       </c>
       <c r="D5" t="n">
-        <v>127600</v>
+        <v>125000</v>
       </c>
       <c r="E5" t="n">
-        <v>127000</v>
+        <v>124600</v>
       </c>
       <c r="F5" t="n">
-        <v>17.8851</v>
+        <v>8.635999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>-336.1916617200001</v>
+        <v>-340.9648634799998</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>127400</v>
+        <v>124600</v>
       </c>
       <c r="C6" t="n">
-        <v>127400</v>
+        <v>124700</v>
       </c>
       <c r="D6" t="n">
-        <v>127400</v>
+        <v>124700</v>
       </c>
       <c r="E6" t="n">
-        <v>127400</v>
+        <v>124600</v>
       </c>
       <c r="F6" t="n">
-        <v>0.47</v>
+        <v>0.8704</v>
       </c>
       <c r="G6" t="n">
-        <v>-335.72166172</v>
+        <v>-341.8352634799999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>127200</v>
+        <v>124700</v>
       </c>
       <c r="C7" t="n">
-        <v>127200</v>
+        <v>124700</v>
       </c>
       <c r="D7" t="n">
-        <v>127200</v>
+        <v>124700</v>
       </c>
       <c r="E7" t="n">
-        <v>127200</v>
+        <v>124700</v>
       </c>
       <c r="F7" t="n">
-        <v>4.9647</v>
+        <v>1.646</v>
       </c>
       <c r="G7" t="n">
-        <v>-340.68636172</v>
+        <v>-341.8352634799999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>127000</v>
+        <v>124800</v>
       </c>
       <c r="C8" t="n">
-        <v>127000</v>
+        <v>124800</v>
       </c>
       <c r="D8" t="n">
-        <v>127000</v>
+        <v>124800</v>
       </c>
       <c r="E8" t="n">
-        <v>127000</v>
+        <v>124800</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0823</v>
+        <v>0.2675</v>
       </c>
       <c r="G8" t="n">
-        <v>-341.76866172</v>
+        <v>-341.5677634799999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>126900</v>
+        <v>124800</v>
       </c>
       <c r="C9" t="n">
-        <v>126600</v>
+        <v>124800</v>
       </c>
       <c r="D9" t="n">
-        <v>126900</v>
+        <v>124800</v>
       </c>
       <c r="E9" t="n">
-        <v>126600</v>
+        <v>124800</v>
       </c>
       <c r="F9" t="n">
-        <v>9.7433</v>
+        <v>0.2</v>
       </c>
       <c r="G9" t="n">
-        <v>-351.51196172</v>
+        <v>-341.5677634799999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>126900</v>
+        <v>124800</v>
       </c>
       <c r="C10" t="n">
-        <v>127000</v>
+        <v>124800</v>
       </c>
       <c r="D10" t="n">
-        <v>127000</v>
+        <v>124800</v>
       </c>
       <c r="E10" t="n">
-        <v>126900</v>
+        <v>124800</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4745</v>
+        <v>0.8002</v>
       </c>
       <c r="G10" t="n">
-        <v>-351.03746172</v>
+        <v>-341.5677634799999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>126700</v>
+        <v>124800</v>
       </c>
       <c r="C11" t="n">
-        <v>126700</v>
+        <v>124800</v>
       </c>
       <c r="D11" t="n">
-        <v>126700</v>
+        <v>124800</v>
       </c>
       <c r="E11" t="n">
-        <v>126700</v>
+        <v>124800</v>
       </c>
       <c r="F11" t="n">
-        <v>0.919</v>
+        <v>0.4221</v>
       </c>
       <c r="G11" t="n">
-        <v>-351.95646172</v>
+        <v>-341.5677634799999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,308 +791,369 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>126700</v>
+        <v>124900</v>
       </c>
       <c r="C12" t="n">
-        <v>126700</v>
+        <v>124900</v>
       </c>
       <c r="D12" t="n">
-        <v>126700</v>
+        <v>124900</v>
       </c>
       <c r="E12" t="n">
-        <v>126700</v>
+        <v>124900</v>
       </c>
       <c r="F12" t="n">
-        <v>2.2281</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>-351.95646172</v>
+        <v>-339.5677634799999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>124800</v>
+      </c>
+      <c r="K12" t="n">
+        <v>124800</v>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>126300</v>
+        <v>124900</v>
       </c>
       <c r="C13" t="n">
-        <v>126300</v>
+        <v>124900</v>
       </c>
       <c r="D13" t="n">
-        <v>126300</v>
+        <v>124900</v>
       </c>
       <c r="E13" t="n">
-        <v>126300</v>
+        <v>124900</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>0.03202562</v>
       </c>
       <c r="G13" t="n">
-        <v>-358.95646172</v>
+        <v>-339.5677634799999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>124900</v>
+      </c>
+      <c r="K13" t="n">
+        <v>124800</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>126500</v>
+        <v>124900</v>
       </c>
       <c r="C14" t="n">
-        <v>126400</v>
+        <v>124900</v>
       </c>
       <c r="D14" t="n">
-        <v>126500</v>
+        <v>124900</v>
       </c>
       <c r="E14" t="n">
-        <v>126400</v>
+        <v>124900</v>
       </c>
       <c r="F14" t="n">
-        <v>20.625</v>
+        <v>0.613</v>
       </c>
       <c r="G14" t="n">
-        <v>-338.33146172</v>
+        <v>-339.5677634799999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>124900</v>
+      </c>
+      <c r="K14" t="n">
+        <v>124800</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>126500</v>
+        <v>124700</v>
       </c>
       <c r="C15" t="n">
-        <v>126500</v>
+        <v>124700</v>
       </c>
       <c r="D15" t="n">
-        <v>126500</v>
+        <v>124700</v>
       </c>
       <c r="E15" t="n">
-        <v>126500</v>
+        <v>124700</v>
       </c>
       <c r="F15" t="n">
-        <v>2.4984</v>
+        <v>0.0003</v>
       </c>
       <c r="G15" t="n">
-        <v>-335.83306172</v>
+        <v>-339.5680634799999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>124900</v>
+      </c>
+      <c r="K15" t="n">
+        <v>124900</v>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>126500</v>
+        <v>124200</v>
       </c>
       <c r="C16" t="n">
-        <v>126500</v>
+        <v>124200</v>
       </c>
       <c r="D16" t="n">
-        <v>126500</v>
+        <v>124200</v>
       </c>
       <c r="E16" t="n">
-        <v>126500</v>
+        <v>124200</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0049</v>
+        <v>3.709</v>
       </c>
       <c r="G16" t="n">
-        <v>-335.83306172</v>
+        <v>-343.2770634799999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>124700</v>
+      </c>
+      <c r="K16" t="n">
+        <v>124900</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>126500</v>
+        <v>124100</v>
       </c>
       <c r="C17" t="n">
-        <v>126500</v>
+        <v>124100</v>
       </c>
       <c r="D17" t="n">
-        <v>126500</v>
+        <v>124100</v>
       </c>
       <c r="E17" t="n">
-        <v>126500</v>
+        <v>124100</v>
       </c>
       <c r="F17" t="n">
-        <v>6.6586</v>
+        <v>1.051</v>
       </c>
       <c r="G17" t="n">
-        <v>-335.83306172</v>
+        <v>-344.3280634799999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>124200</v>
+      </c>
+      <c r="K17" t="n">
+        <v>124900</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>126500</v>
+        <v>124200</v>
       </c>
       <c r="C18" t="n">
-        <v>126500</v>
+        <v>124200</v>
       </c>
       <c r="D18" t="n">
-        <v>126500</v>
+        <v>124200</v>
       </c>
       <c r="E18" t="n">
-        <v>126500</v>
+        <v>124200</v>
       </c>
       <c r="F18" t="n">
-        <v>35.9</v>
+        <v>0.245</v>
       </c>
       <c r="G18" t="n">
-        <v>-335.83306172</v>
+        <v>-344.0830634799999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>124100</v>
+      </c>
+      <c r="K18" t="n">
+        <v>124100</v>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>126300</v>
+        <v>124400</v>
       </c>
       <c r="C19" t="n">
-        <v>126300</v>
+        <v>124300</v>
       </c>
       <c r="D19" t="n">
-        <v>126300</v>
+        <v>124400</v>
       </c>
       <c r="E19" t="n">
-        <v>126300</v>
+        <v>124000</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1636</v>
+        <v>19.181</v>
       </c>
       <c r="G19" t="n">
-        <v>-335.99666172</v>
+        <v>-324.9020634799999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>124200</v>
+      </c>
+      <c r="K19" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>126300</v>
+        <v>124200</v>
       </c>
       <c r="C20" t="n">
-        <v>126300</v>
+        <v>124100</v>
       </c>
       <c r="D20" t="n">
-        <v>126300</v>
+        <v>124200</v>
       </c>
       <c r="E20" t="n">
-        <v>126300</v>
+        <v>124100</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7343</v>
+        <v>6.291</v>
       </c>
       <c r="G20" t="n">
-        <v>-335.99666172</v>
+        <v>-331.1930634799999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1087,33 +1162,40 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>125900</v>
+        <v>124000</v>
       </c>
       <c r="C21" t="n">
-        <v>125900</v>
+        <v>124000</v>
       </c>
       <c r="D21" t="n">
-        <v>125900</v>
+        <v>124000</v>
       </c>
       <c r="E21" t="n">
-        <v>125900</v>
+        <v>124000</v>
       </c>
       <c r="F21" t="n">
-        <v>1.019</v>
+        <v>16.026</v>
       </c>
       <c r="G21" t="n">
-        <v>-337.01566172</v>
+        <v>-347.2190634799999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,68 +1204,84 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>126300</v>
+        <v>123800</v>
       </c>
       <c r="C22" t="n">
-        <v>126300</v>
+        <v>124600</v>
       </c>
       <c r="D22" t="n">
-        <v>126300</v>
+        <v>124600</v>
       </c>
       <c r="E22" t="n">
-        <v>126300</v>
+        <v>123800</v>
       </c>
       <c r="F22" t="n">
-        <v>1.0414</v>
+        <v>57.942</v>
       </c>
       <c r="G22" t="n">
-        <v>-335.97426172</v>
+        <v>-289.2770634799999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>124000</v>
+      </c>
+      <c r="K22" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>126300</v>
+        <v>123800</v>
       </c>
       <c r="C23" t="n">
-        <v>126300</v>
+        <v>123800</v>
       </c>
       <c r="D23" t="n">
-        <v>126300</v>
+        <v>123800</v>
       </c>
       <c r="E23" t="n">
-        <v>126300</v>
+        <v>123800</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1498</v>
+        <v>0.518</v>
       </c>
       <c r="G23" t="n">
-        <v>-335.97426172</v>
+        <v>-289.7950634799998</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,208 +1290,260 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>126500</v>
+        <v>123800</v>
       </c>
       <c r="C24" t="n">
-        <v>126500</v>
+        <v>123800</v>
       </c>
       <c r="D24" t="n">
-        <v>126500</v>
+        <v>123800</v>
       </c>
       <c r="E24" t="n">
-        <v>126500</v>
+        <v>123800</v>
       </c>
       <c r="F24" t="n">
-        <v>2.2013</v>
+        <v>15.558</v>
       </c>
       <c r="G24" t="n">
-        <v>-333.77296172</v>
+        <v>-289.7950634799998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>123800</v>
+      </c>
+      <c r="K24" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>126300</v>
+        <v>124600</v>
       </c>
       <c r="C25" t="n">
-        <v>126300</v>
+        <v>124600</v>
       </c>
       <c r="D25" t="n">
-        <v>126300</v>
+        <v>124600</v>
       </c>
       <c r="E25" t="n">
-        <v>126300</v>
+        <v>124600</v>
       </c>
       <c r="F25" t="n">
-        <v>38.0492</v>
+        <v>0.6486</v>
       </c>
       <c r="G25" t="n">
-        <v>-371.8221617199999</v>
+        <v>-289.1464634799999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>123800</v>
+      </c>
+      <c r="K25" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>126300</v>
+        <v>123800</v>
       </c>
       <c r="C26" t="n">
-        <v>126500</v>
+        <v>123800</v>
       </c>
       <c r="D26" t="n">
-        <v>126500</v>
+        <v>123800</v>
       </c>
       <c r="E26" t="n">
-        <v>126300</v>
+        <v>123800</v>
       </c>
       <c r="F26" t="n">
-        <v>2.8914</v>
+        <v>0.2479</v>
       </c>
       <c r="G26" t="n">
-        <v>-368.93076172</v>
+        <v>-289.3943634799999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>124600</v>
+      </c>
+      <c r="K26" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>126400</v>
+        <v>123000</v>
       </c>
       <c r="C27" t="n">
-        <v>126400</v>
+        <v>123000</v>
       </c>
       <c r="D27" t="n">
-        <v>126400</v>
+        <v>123000</v>
       </c>
       <c r="E27" t="n">
-        <v>126400</v>
+        <v>123000</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0.2494</v>
       </c>
       <c r="G27" t="n">
-        <v>-369.93076172</v>
+        <v>-289.6437634799998</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>123800</v>
+      </c>
+      <c r="K27" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>126000</v>
+        <v>123000</v>
       </c>
       <c r="C28" t="n">
-        <v>126000</v>
+        <v>123000</v>
       </c>
       <c r="D28" t="n">
-        <v>126000</v>
+        <v>123000</v>
       </c>
       <c r="E28" t="n">
-        <v>126000</v>
+        <v>123000</v>
       </c>
       <c r="F28" t="n">
-        <v>1.008</v>
+        <v>0.9733000000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>-370.9387617199999</v>
+        <v>-289.6437634799998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>123000</v>
+      </c>
+      <c r="K28" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>125500</v>
+        <v>123600</v>
       </c>
       <c r="C29" t="n">
-        <v>125300</v>
+        <v>123600</v>
       </c>
       <c r="D29" t="n">
-        <v>125500</v>
+        <v>123600</v>
       </c>
       <c r="E29" t="n">
-        <v>125100</v>
+        <v>123600</v>
       </c>
       <c r="F29" t="n">
-        <v>3.21</v>
+        <v>0.03595469</v>
       </c>
       <c r="G29" t="n">
-        <v>-374.1487617199999</v>
+        <v>-289.6078087899999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,33 +1552,40 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>125100</v>
+        <v>123500</v>
       </c>
       <c r="C30" t="n">
-        <v>125000</v>
+        <v>123500</v>
       </c>
       <c r="D30" t="n">
-        <v>125100</v>
+        <v>123500</v>
       </c>
       <c r="E30" t="n">
-        <v>125000</v>
+        <v>123500</v>
       </c>
       <c r="F30" t="n">
-        <v>8.228899999999999</v>
+        <v>43.0708</v>
       </c>
       <c r="G30" t="n">
-        <v>-382.3776617199999</v>
+        <v>-332.6786087899999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1437,33 +1594,40 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>124600</v>
+        <v>123500</v>
       </c>
       <c r="C31" t="n">
-        <v>124700</v>
+        <v>123600</v>
       </c>
       <c r="D31" t="n">
-        <v>124700</v>
+        <v>123600</v>
       </c>
       <c r="E31" t="n">
-        <v>124600</v>
+        <v>123500</v>
       </c>
       <c r="F31" t="n">
-        <v>1.9242</v>
+        <v>32.4738</v>
       </c>
       <c r="G31" t="n">
-        <v>-384.3018617199999</v>
+        <v>-300.2048087899999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,68 +1636,84 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>124600</v>
+        <v>123500</v>
       </c>
       <c r="C32" t="n">
-        <v>124600</v>
+        <v>123500</v>
       </c>
       <c r="D32" t="n">
-        <v>124600</v>
+        <v>123500</v>
       </c>
       <c r="E32" t="n">
-        <v>124600</v>
+        <v>123500</v>
       </c>
       <c r="F32" t="n">
-        <v>39.3881</v>
+        <v>11.0963</v>
       </c>
       <c r="G32" t="n">
-        <v>-423.6899617199999</v>
+        <v>-311.3011087899999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>123600</v>
+      </c>
+      <c r="K32" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>124600</v>
+        <v>123500</v>
       </c>
       <c r="C33" t="n">
-        <v>124600</v>
+        <v>123500</v>
       </c>
       <c r="D33" t="n">
-        <v>124600</v>
+        <v>123500</v>
       </c>
       <c r="E33" t="n">
-        <v>124600</v>
+        <v>123500</v>
       </c>
       <c r="F33" t="n">
-        <v>3.0394</v>
+        <v>0.4595</v>
       </c>
       <c r="G33" t="n">
-        <v>-423.6899617199999</v>
+        <v>-311.3011087899999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,33 +1722,40 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>124300</v>
+        <v>123500</v>
       </c>
       <c r="C34" t="n">
-        <v>124300</v>
+        <v>123500</v>
       </c>
       <c r="D34" t="n">
-        <v>124300</v>
+        <v>123500</v>
       </c>
       <c r="E34" t="n">
-        <v>124300</v>
+        <v>123500</v>
       </c>
       <c r="F34" t="n">
-        <v>1.8551</v>
+        <v>0.468</v>
       </c>
       <c r="G34" t="n">
-        <v>-425.5450617199999</v>
+        <v>-311.3011087899999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,33 +1764,40 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>125400</v>
+        <v>124600</v>
       </c>
       <c r="C35" t="n">
-        <v>125400</v>
+        <v>124600</v>
       </c>
       <c r="D35" t="n">
-        <v>125400</v>
+        <v>124600</v>
       </c>
       <c r="E35" t="n">
-        <v>125400</v>
+        <v>124600</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04429824</v>
+        <v>1.8049</v>
       </c>
       <c r="G35" t="n">
-        <v>-425.5007634799999</v>
+        <v>-309.4962087899999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,33 +1806,40 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>125400</v>
+        <v>124600</v>
       </c>
       <c r="C36" t="n">
-        <v>125400</v>
+        <v>125000</v>
       </c>
       <c r="D36" t="n">
-        <v>125400</v>
+        <v>125000</v>
       </c>
       <c r="E36" t="n">
-        <v>125400</v>
+        <v>124600</v>
       </c>
       <c r="F36" t="n">
-        <v>1.9624</v>
+        <v>1.0224</v>
       </c>
       <c r="G36" t="n">
-        <v>-425.5007634799999</v>
+        <v>-308.4738087899999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,33 +1848,40 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>124900</v>
+        <v>124700</v>
       </c>
       <c r="C37" t="n">
-        <v>124900</v>
+        <v>124600</v>
       </c>
       <c r="D37" t="n">
-        <v>124900</v>
+        <v>124700</v>
       </c>
       <c r="E37" t="n">
-        <v>124900</v>
+        <v>124600</v>
       </c>
       <c r="F37" t="n">
-        <v>13.3229</v>
+        <v>15.7</v>
       </c>
       <c r="G37" t="n">
-        <v>-438.8236634799999</v>
+        <v>-324.1738087899999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,33 +1890,40 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>124900</v>
+        <v>125100</v>
       </c>
       <c r="C38" t="n">
-        <v>125800</v>
+        <v>125500</v>
       </c>
       <c r="D38" t="n">
-        <v>125800</v>
+        <v>125500</v>
       </c>
       <c r="E38" t="n">
-        <v>124900</v>
+        <v>125100</v>
       </c>
       <c r="F38" t="n">
-        <v>113.4723</v>
+        <v>0.03595888</v>
       </c>
       <c r="G38" t="n">
-        <v>-325.3513634799999</v>
+        <v>-324.1378499099999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1717,33 +1932,40 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>124900</v>
+        <v>125000</v>
       </c>
       <c r="C39" t="n">
-        <v>124900</v>
+        <v>125000</v>
       </c>
       <c r="D39" t="n">
-        <v>124900</v>
+        <v>125000</v>
       </c>
       <c r="E39" t="n">
-        <v>124900</v>
+        <v>125000</v>
       </c>
       <c r="F39" t="n">
-        <v>1.8582</v>
+        <v>15</v>
       </c>
       <c r="G39" t="n">
-        <v>-327.2095634799999</v>
+        <v>-339.1378499099999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,33 +1974,40 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>124800</v>
+        <v>125500</v>
       </c>
       <c r="C40" t="n">
-        <v>124800</v>
+        <v>126000</v>
       </c>
       <c r="D40" t="n">
-        <v>124800</v>
+        <v>126000</v>
       </c>
       <c r="E40" t="n">
-        <v>124800</v>
+        <v>125500</v>
       </c>
       <c r="F40" t="n">
-        <v>8.740600000000001</v>
+        <v>6.0398</v>
       </c>
       <c r="G40" t="n">
-        <v>-335.9501634799999</v>
+        <v>-333.0980499099999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,33 +2016,40 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>125000</v>
+        <v>126000</v>
       </c>
       <c r="C41" t="n">
-        <v>124800</v>
+        <v>126100</v>
       </c>
       <c r="D41" t="n">
-        <v>125000</v>
+        <v>126100</v>
       </c>
       <c r="E41" t="n">
-        <v>124800</v>
+        <v>126000</v>
       </c>
       <c r="F41" t="n">
-        <v>10.184</v>
+        <v>0.51</v>
       </c>
       <c r="G41" t="n">
-        <v>-335.9501634799999</v>
+        <v>-332.5880499099999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,33 +2058,40 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>124700</v>
+        <v>125900</v>
       </c>
       <c r="C42" t="n">
-        <v>124700</v>
+        <v>125900</v>
       </c>
       <c r="D42" t="n">
-        <v>124700</v>
+        <v>125900</v>
       </c>
       <c r="E42" t="n">
-        <v>124700</v>
+        <v>125900</v>
       </c>
       <c r="F42" t="n">
-        <v>5.993</v>
+        <v>1.406</v>
       </c>
       <c r="G42" t="n">
-        <v>-341.9431634799999</v>
+        <v>-333.9940499099999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1857,33 +2100,40 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>124500</v>
+        <v>125800</v>
       </c>
       <c r="C43" t="n">
-        <v>124500</v>
+        <v>125800</v>
       </c>
       <c r="D43" t="n">
-        <v>124500</v>
+        <v>125800</v>
       </c>
       <c r="E43" t="n">
-        <v>124500</v>
+        <v>125800</v>
       </c>
       <c r="F43" t="n">
-        <v>6</v>
+        <v>3.2727</v>
       </c>
       <c r="G43" t="n">
-        <v>-347.9431634799999</v>
+        <v>-337.2667499099999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1892,33 +2142,40 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>124600</v>
+        <v>125800</v>
       </c>
       <c r="C44" t="n">
-        <v>124600</v>
+        <v>125800</v>
       </c>
       <c r="D44" t="n">
-        <v>124600</v>
+        <v>125800</v>
       </c>
       <c r="E44" t="n">
-        <v>124600</v>
+        <v>125800</v>
       </c>
       <c r="F44" t="n">
-        <v>1.0013</v>
+        <v>0.8002</v>
       </c>
       <c r="G44" t="n">
-        <v>-346.9418634799999</v>
+        <v>-337.2667499099999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,33 +2184,40 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>124600</v>
+        <v>125800</v>
       </c>
       <c r="C45" t="n">
-        <v>124600</v>
+        <v>125800</v>
       </c>
       <c r="D45" t="n">
-        <v>124600</v>
+        <v>125800</v>
       </c>
       <c r="E45" t="n">
-        <v>124600</v>
+        <v>125800</v>
       </c>
       <c r="F45" t="n">
-        <v>0.7249</v>
+        <v>1.3435</v>
       </c>
       <c r="G45" t="n">
-        <v>-346.9418634799999</v>
+        <v>-337.2667499099999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1962,127 +2226,134 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>124500</v>
+        <v>126100</v>
       </c>
       <c r="C46" t="n">
-        <v>124500</v>
+        <v>126100</v>
       </c>
       <c r="D46" t="n">
-        <v>124500</v>
+        <v>126100</v>
       </c>
       <c r="E46" t="n">
-        <v>124500</v>
+        <v>126100</v>
       </c>
       <c r="F46" t="n">
-        <v>2.659</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>-349.6008634799999</v>
+        <v>-335.2667499099999</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>124600</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L46" t="inlineStr"/>
+        <v>124100</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>124700</v>
+        <v>125400</v>
       </c>
       <c r="C47" t="n">
-        <v>125000</v>
+        <v>125400</v>
       </c>
       <c r="D47" t="n">
-        <v>125000</v>
+        <v>125400</v>
       </c>
       <c r="E47" t="n">
-        <v>124600</v>
+        <v>125400</v>
       </c>
       <c r="F47" t="n">
-        <v>8.635999999999999</v>
+        <v>17.1839</v>
       </c>
       <c r="G47" t="n">
-        <v>-340.9648634799998</v>
+        <v>-352.4506499099999</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>124500</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>124600</v>
+        <v>124100</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>124600</v>
+        <v>125800</v>
       </c>
       <c r="C48" t="n">
-        <v>124700</v>
+        <v>125800</v>
       </c>
       <c r="D48" t="n">
-        <v>124700</v>
+        <v>125800</v>
       </c>
       <c r="E48" t="n">
-        <v>124600</v>
+        <v>125800</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8704</v>
+        <v>1.0266</v>
       </c>
       <c r="G48" t="n">
-        <v>-341.8352634799999</v>
+        <v>-351.4240499099999</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>125000</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>124600</v>
+        <v>124100</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2092,28 +2363,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>124700</v>
+        <v>126000</v>
       </c>
       <c r="C49" t="n">
-        <v>124700</v>
+        <v>126000</v>
       </c>
       <c r="D49" t="n">
-        <v>124700</v>
+        <v>126000</v>
       </c>
       <c r="E49" t="n">
-        <v>124700</v>
+        <v>126000</v>
       </c>
       <c r="F49" t="n">
-        <v>1.646</v>
+        <v>37.2863</v>
       </c>
       <c r="G49" t="n">
-        <v>-341.8352634799999</v>
+        <v>-314.1377499099999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2123,7 +2395,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>124600</v>
+        <v>124100</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2133,28 +2405,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>124800</v>
+        <v>126000</v>
       </c>
       <c r="C50" t="n">
-        <v>124800</v>
+        <v>126000</v>
       </c>
       <c r="D50" t="n">
-        <v>124800</v>
+        <v>126000</v>
       </c>
       <c r="E50" t="n">
-        <v>124800</v>
+        <v>126000</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2675</v>
+        <v>38.0241</v>
       </c>
       <c r="G50" t="n">
-        <v>-341.5677634799999</v>
+        <v>-314.1377499099999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2164,7 +2437,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>124600</v>
+        <v>124100</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2174,40 +2447,39 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>124800</v>
+        <v>126000</v>
       </c>
       <c r="C51" t="n">
-        <v>124800</v>
+        <v>126000</v>
       </c>
       <c r="D51" t="n">
-        <v>124800</v>
+        <v>126000</v>
       </c>
       <c r="E51" t="n">
-        <v>124800</v>
+        <v>126000</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2</v>
+        <v>33.976</v>
       </c>
       <c r="G51" t="n">
-        <v>-341.5677634799999</v>
+        <v>-314.1377499099999</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>124800</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>124600</v>
+        <v>124100</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2217,40 +2489,39 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>124800</v>
+        <v>125700</v>
       </c>
       <c r="C52" t="n">
-        <v>124800</v>
+        <v>125500</v>
       </c>
       <c r="D52" t="n">
-        <v>124800</v>
+        <v>125700</v>
       </c>
       <c r="E52" t="n">
-        <v>124800</v>
+        <v>125500</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8002</v>
+        <v>24.0013</v>
       </c>
       <c r="G52" t="n">
-        <v>-341.5677634799999</v>
+        <v>-338.1390499099999</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>124800</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>124600</v>
+        <v>124100</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2260,40 +2531,39 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>124800</v>
+        <v>125500</v>
       </c>
       <c r="C53" t="n">
-        <v>124800</v>
+        <v>125500</v>
       </c>
       <c r="D53" t="n">
-        <v>124800</v>
+        <v>125500</v>
       </c>
       <c r="E53" t="n">
-        <v>124800</v>
+        <v>125500</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4221</v>
+        <v>18.1302</v>
       </c>
       <c r="G53" t="n">
-        <v>-341.5677634799999</v>
+        <v>-338.1390499099999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>124800</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>124600</v>
+        <v>124100</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2303,28 +2573,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>124900</v>
+        <v>126000</v>
       </c>
       <c r="C54" t="n">
-        <v>124900</v>
+        <v>126000</v>
       </c>
       <c r="D54" t="n">
-        <v>124900</v>
+        <v>126000</v>
       </c>
       <c r="E54" t="n">
-        <v>124900</v>
+        <v>126000</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>0.03253968</v>
       </c>
       <c r="G54" t="n">
-        <v>-339.5677634799999</v>
+        <v>-338.1065102299999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2334,7 +2605,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>124600</v>
+        <v>124100</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2344,28 +2615,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>124900</v>
+        <v>126000</v>
       </c>
       <c r="C55" t="n">
-        <v>124900</v>
+        <v>126200</v>
       </c>
       <c r="D55" t="n">
-        <v>124900</v>
+        <v>126200</v>
       </c>
       <c r="E55" t="n">
-        <v>124900</v>
+        <v>126000</v>
       </c>
       <c r="F55" t="n">
-        <v>0.03202562</v>
+        <v>31.04816032</v>
       </c>
       <c r="G55" t="n">
-        <v>-339.5677634799999</v>
+        <v>-307.0583499099999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2375,7 +2647,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>124600</v>
+        <v>124100</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2385,28 +2657,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>124900</v>
+        <v>126400</v>
       </c>
       <c r="C56" t="n">
-        <v>124900</v>
+        <v>126400</v>
       </c>
       <c r="D56" t="n">
-        <v>124900</v>
+        <v>126400</v>
       </c>
       <c r="E56" t="n">
-        <v>124900</v>
+        <v>126400</v>
       </c>
       <c r="F56" t="n">
-        <v>0.613</v>
+        <v>0.63</v>
       </c>
       <c r="G56" t="n">
-        <v>-339.5677634799999</v>
+        <v>-306.4283499099999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2416,7 +2689,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>124600</v>
+        <v>124100</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2426,28 +2699,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>124700</v>
+        <v>126400</v>
       </c>
       <c r="C57" t="n">
-        <v>124700</v>
+        <v>126400</v>
       </c>
       <c r="D57" t="n">
-        <v>124700</v>
+        <v>126400</v>
       </c>
       <c r="E57" t="n">
-        <v>124700</v>
+        <v>126400</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0003</v>
+        <v>0.0394</v>
       </c>
       <c r="G57" t="n">
-        <v>-339.5680634799999</v>
+        <v>-306.4283499099999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2457,7 +2731,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>124600</v>
+        <v>124100</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2467,28 +2741,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>124200</v>
+        <v>127000</v>
       </c>
       <c r="C58" t="n">
-        <v>124200</v>
+        <v>127000</v>
       </c>
       <c r="D58" t="n">
-        <v>124200</v>
+        <v>127000</v>
       </c>
       <c r="E58" t="n">
-        <v>124200</v>
+        <v>127000</v>
       </c>
       <c r="F58" t="n">
-        <v>3.709</v>
+        <v>0.03499212</v>
       </c>
       <c r="G58" t="n">
-        <v>-343.2770634799999</v>
+        <v>-306.3933577899999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2498,7 +2773,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>124600</v>
+        <v>124100</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2508,28 +2783,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>124100</v>
+        <v>127000</v>
       </c>
       <c r="C59" t="n">
-        <v>124100</v>
+        <v>127000</v>
       </c>
       <c r="D59" t="n">
-        <v>124100</v>
+        <v>127000</v>
       </c>
       <c r="E59" t="n">
-        <v>124100</v>
+        <v>127000</v>
       </c>
       <c r="F59" t="n">
-        <v>1.051</v>
+        <v>0.1959</v>
       </c>
       <c r="G59" t="n">
-        <v>-344.3280634799999</v>
+        <v>-306.3933577899999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2539,7 +2815,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>124600</v>
+        <v>124100</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2549,28 +2825,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>124200</v>
+        <v>127000</v>
       </c>
       <c r="C60" t="n">
-        <v>124200</v>
+        <v>127000</v>
       </c>
       <c r="D60" t="n">
-        <v>124200</v>
+        <v>127000</v>
       </c>
       <c r="E60" t="n">
-        <v>124200</v>
+        <v>127000</v>
       </c>
       <c r="F60" t="n">
-        <v>0.245</v>
+        <v>2.914</v>
       </c>
       <c r="G60" t="n">
-        <v>-344.0830634799999</v>
+        <v>-306.3933577899999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2580,7 +2857,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>124600</v>
+        <v>124100</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2590,28 +2867,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>124400</v>
+        <v>127000</v>
       </c>
       <c r="C61" t="n">
-        <v>124300</v>
+        <v>127000</v>
       </c>
       <c r="D61" t="n">
-        <v>124400</v>
+        <v>127000</v>
       </c>
       <c r="E61" t="n">
-        <v>124000</v>
+        <v>127000</v>
       </c>
       <c r="F61" t="n">
-        <v>19.181</v>
+        <v>20.0379</v>
       </c>
       <c r="G61" t="n">
-        <v>-324.9020634799999</v>
+        <v>-306.3933577899999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2621,7 +2899,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>124600</v>
+        <v>124100</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2631,28 +2909,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>124200</v>
+        <v>127000</v>
       </c>
       <c r="C62" t="n">
-        <v>124100</v>
+        <v>127300</v>
       </c>
       <c r="D62" t="n">
-        <v>124200</v>
+        <v>127300</v>
       </c>
       <c r="E62" t="n">
-        <v>124100</v>
+        <v>127000</v>
       </c>
       <c r="F62" t="n">
-        <v>6.291</v>
+        <v>6.8736</v>
       </c>
       <c r="G62" t="n">
-        <v>-331.1930634799999</v>
+        <v>-299.5197577899999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2662,7 +2941,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>124600</v>
+        <v>124100</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2672,28 +2951,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>124000</v>
+        <v>127300</v>
       </c>
       <c r="C63" t="n">
-        <v>124000</v>
+        <v>127700</v>
       </c>
       <c r="D63" t="n">
-        <v>124000</v>
+        <v>127700</v>
       </c>
       <c r="E63" t="n">
-        <v>124000</v>
+        <v>127300</v>
       </c>
       <c r="F63" t="n">
-        <v>16.026</v>
+        <v>46.1934</v>
       </c>
       <c r="G63" t="n">
-        <v>-347.2190634799999</v>
+        <v>-253.3263577899999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2703,7 +2983,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>124600</v>
+        <v>124100</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2713,28 +2993,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>123800</v>
+        <v>127700</v>
       </c>
       <c r="C64" t="n">
-        <v>124600</v>
+        <v>127800</v>
       </c>
       <c r="D64" t="n">
-        <v>124600</v>
+        <v>127800</v>
       </c>
       <c r="E64" t="n">
-        <v>123800</v>
+        <v>127700</v>
       </c>
       <c r="F64" t="n">
-        <v>57.942</v>
+        <v>12.7542</v>
       </c>
       <c r="G64" t="n">
-        <v>-289.2770634799999</v>
+        <v>-240.5721577899999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2744,7 +3025,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>124600</v>
+        <v>124100</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2754,28 +3035,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>123800</v>
+        <v>127800</v>
       </c>
       <c r="C65" t="n">
-        <v>123800</v>
+        <v>127800</v>
       </c>
       <c r="D65" t="n">
-        <v>123800</v>
+        <v>127800</v>
       </c>
       <c r="E65" t="n">
-        <v>123800</v>
+        <v>127800</v>
       </c>
       <c r="F65" t="n">
-        <v>0.518</v>
+        <v>0.0622</v>
       </c>
       <c r="G65" t="n">
-        <v>-289.7950634799998</v>
+        <v>-240.5721577899999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2785,7 +3067,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>124600</v>
+        <v>124100</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2795,28 +3077,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>123800</v>
+        <v>127900</v>
       </c>
       <c r="C66" t="n">
-        <v>123800</v>
+        <v>129000</v>
       </c>
       <c r="D66" t="n">
-        <v>123800</v>
+        <v>129000</v>
       </c>
       <c r="E66" t="n">
-        <v>123800</v>
+        <v>127900</v>
       </c>
       <c r="F66" t="n">
-        <v>15.558</v>
+        <v>24.1768</v>
       </c>
       <c r="G66" t="n">
-        <v>-289.7950634799998</v>
+        <v>-216.3953577899999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2826,7 +3109,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>124600</v>
+        <v>124100</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2836,28 +3119,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>124600</v>
+        <v>129000</v>
       </c>
       <c r="C67" t="n">
-        <v>124600</v>
+        <v>129000</v>
       </c>
       <c r="D67" t="n">
-        <v>124600</v>
+        <v>129000</v>
       </c>
       <c r="E67" t="n">
-        <v>124600</v>
+        <v>129000</v>
       </c>
       <c r="F67" t="n">
-        <v>0.6486</v>
+        <v>0.0279</v>
       </c>
       <c r="G67" t="n">
-        <v>-289.1464634799999</v>
+        <v>-216.3953577899999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2867,7 +3151,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>124600</v>
+        <v>124100</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -2877,438 +3161,395 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>123800</v>
+        <v>129000</v>
       </c>
       <c r="C68" t="n">
-        <v>123800</v>
+        <v>129000</v>
       </c>
       <c r="D68" t="n">
-        <v>123800</v>
+        <v>129000</v>
       </c>
       <c r="E68" t="n">
-        <v>123800</v>
+        <v>129000</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2479</v>
+        <v>7.3908</v>
       </c>
       <c r="G68" t="n">
-        <v>-289.3943634799999</v>
+        <v>-216.3953577899999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>124600</v>
+        <v>124100</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>1</v>
-      </c>
+        <v>1.034484286865431</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>123000</v>
+        <v>128500</v>
       </c>
       <c r="C69" t="n">
-        <v>123000</v>
+        <v>129300</v>
       </c>
       <c r="D69" t="n">
-        <v>123000</v>
+        <v>129300</v>
       </c>
       <c r="E69" t="n">
-        <v>123000</v>
+        <v>128500</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2494</v>
+        <v>3.1567</v>
       </c>
       <c r="G69" t="n">
-        <v>-289.6437634799998</v>
+        <v>-213.2386577899999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>123000</v>
+        <v>128500</v>
       </c>
       <c r="C70" t="n">
-        <v>123000</v>
+        <v>128500</v>
       </c>
       <c r="D70" t="n">
-        <v>123000</v>
+        <v>128500</v>
       </c>
       <c r="E70" t="n">
-        <v>123000</v>
+        <v>128500</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9733000000000001</v>
+        <v>7</v>
       </c>
       <c r="G70" t="n">
-        <v>-289.6437634799998</v>
+        <v>-220.2386577899999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>123600</v>
+        <v>128500</v>
       </c>
       <c r="C71" t="n">
-        <v>123600</v>
+        <v>128400</v>
       </c>
       <c r="D71" t="n">
-        <v>123600</v>
+        <v>128500</v>
       </c>
       <c r="E71" t="n">
-        <v>123600</v>
+        <v>128400</v>
       </c>
       <c r="F71" t="n">
-        <v>0.03595469</v>
+        <v>54.3925</v>
       </c>
       <c r="G71" t="n">
-        <v>-289.6078087899999</v>
+        <v>-274.6311577899999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>123500</v>
+        <v>128100</v>
       </c>
       <c r="C72" t="n">
-        <v>123500</v>
+        <v>129200</v>
       </c>
       <c r="D72" t="n">
-        <v>123500</v>
+        <v>129200</v>
       </c>
       <c r="E72" t="n">
-        <v>123500</v>
+        <v>128100</v>
       </c>
       <c r="F72" t="n">
-        <v>43.0708</v>
+        <v>14.5</v>
       </c>
       <c r="G72" t="n">
-        <v>-332.6786087899999</v>
+        <v>-260.1311577899999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>123500</v>
+        <v>129300</v>
       </c>
       <c r="C73" t="n">
-        <v>123600</v>
+        <v>129300</v>
       </c>
       <c r="D73" t="n">
-        <v>123600</v>
+        <v>129300</v>
       </c>
       <c r="E73" t="n">
-        <v>123500</v>
+        <v>128900</v>
       </c>
       <c r="F73" t="n">
-        <v>32.4738</v>
+        <v>4.8274621</v>
       </c>
       <c r="G73" t="n">
-        <v>-300.2048087899999</v>
+        <v>-255.3036956899999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>123500</v>
+        <v>128800</v>
       </c>
       <c r="C74" t="n">
-        <v>123500</v>
+        <v>128800</v>
       </c>
       <c r="D74" t="n">
-        <v>123500</v>
+        <v>128800</v>
       </c>
       <c r="E74" t="n">
-        <v>123500</v>
+        <v>128800</v>
       </c>
       <c r="F74" t="n">
-        <v>11.0963</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>-311.3011087899999</v>
+        <v>-257.3036956899999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>123500</v>
+        <v>128000</v>
       </c>
       <c r="C75" t="n">
-        <v>123500</v>
+        <v>127900</v>
       </c>
       <c r="D75" t="n">
-        <v>123500</v>
+        <v>128000</v>
       </c>
       <c r="E75" t="n">
-        <v>123500</v>
+        <v>127900</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4595</v>
+        <v>11.811</v>
       </c>
       <c r="G75" t="n">
-        <v>-311.3011087899999</v>
+        <v>-269.1146956899998</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>123500</v>
+        <v>127200</v>
       </c>
       <c r="C76" t="n">
-        <v>123500</v>
+        <v>127000</v>
       </c>
       <c r="D76" t="n">
-        <v>123500</v>
+        <v>127200</v>
       </c>
       <c r="E76" t="n">
-        <v>123500</v>
+        <v>127000</v>
       </c>
       <c r="F76" t="n">
-        <v>0.468</v>
+        <v>11</v>
       </c>
       <c r="G76" t="n">
-        <v>-311.3011087899999</v>
+        <v>-280.1146956899998</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>124600</v>
+        <v>127000</v>
       </c>
       <c r="C77" t="n">
-        <v>124600</v>
+        <v>127000</v>
       </c>
       <c r="D77" t="n">
-        <v>124600</v>
+        <v>127000</v>
       </c>
       <c r="E77" t="n">
-        <v>124600</v>
+        <v>127000</v>
       </c>
       <c r="F77" t="n">
-        <v>1.8049</v>
+        <v>1.0318</v>
       </c>
       <c r="G77" t="n">
-        <v>-309.4962087899999</v>
+        <v>-280.1146956899998</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>124600</v>
+        <v>127400</v>
       </c>
       <c r="C78" t="n">
-        <v>125000</v>
+        <v>127400</v>
       </c>
       <c r="D78" t="n">
-        <v>125000</v>
+        <v>127400</v>
       </c>
       <c r="E78" t="n">
-        <v>124600</v>
+        <v>127400</v>
       </c>
       <c r="F78" t="n">
-        <v>1.0224</v>
+        <v>0.03575353</v>
       </c>
       <c r="G78" t="n">
-        <v>-308.4738087899999</v>
+        <v>-280.0789421599998</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3317,80 +3558,70 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>124700</v>
+        <v>126700</v>
       </c>
       <c r="C79" t="n">
-        <v>124600</v>
+        <v>126600</v>
       </c>
       <c r="D79" t="n">
-        <v>124700</v>
+        <v>126700</v>
       </c>
       <c r="E79" t="n">
-        <v>124600</v>
+        <v>126600</v>
       </c>
       <c r="F79" t="n">
-        <v>15.7</v>
+        <v>2.8436</v>
       </c>
       <c r="G79" t="n">
-        <v>-324.1738087899999</v>
+        <v>-282.9225421599998</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>125100</v>
+        <v>126800</v>
       </c>
       <c r="C80" t="n">
-        <v>125500</v>
+        <v>127400</v>
       </c>
       <c r="D80" t="n">
-        <v>125500</v>
+        <v>127400</v>
       </c>
       <c r="E80" t="n">
-        <v>125100</v>
+        <v>126800</v>
       </c>
       <c r="F80" t="n">
-        <v>0.03595888</v>
+        <v>22.3768</v>
       </c>
       <c r="G80" t="n">
-        <v>-324.1378499099999</v>
+        <v>-260.5457421599998</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3399,39 +3630,34 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>125000</v>
+        <v>126900</v>
       </c>
       <c r="C81" t="n">
-        <v>125000</v>
+        <v>127100</v>
       </c>
       <c r="D81" t="n">
-        <v>125000</v>
+        <v>127100</v>
       </c>
       <c r="E81" t="n">
-        <v>125000</v>
+        <v>126900</v>
       </c>
       <c r="F81" t="n">
-        <v>15</v>
+        <v>23.90964138</v>
       </c>
       <c r="G81" t="n">
-        <v>-339.1378499099999</v>
+        <v>-284.4553835399998</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3440,80 +3666,70 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>125500</v>
+        <v>126400</v>
       </c>
       <c r="C82" t="n">
-        <v>126000</v>
+        <v>126400</v>
       </c>
       <c r="D82" t="n">
-        <v>126000</v>
+        <v>126400</v>
       </c>
       <c r="E82" t="n">
-        <v>125500</v>
+        <v>126400</v>
       </c>
       <c r="F82" t="n">
-        <v>6.0398</v>
+        <v>0.8355</v>
       </c>
       <c r="G82" t="n">
-        <v>-333.0980499099999</v>
+        <v>-285.2908835399998</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>126000</v>
+        <v>126400</v>
       </c>
       <c r="C83" t="n">
-        <v>126100</v>
+        <v>126400</v>
       </c>
       <c r="D83" t="n">
-        <v>126100</v>
+        <v>126400</v>
       </c>
       <c r="E83" t="n">
-        <v>126000</v>
+        <v>126400</v>
       </c>
       <c r="F83" t="n">
-        <v>0.51</v>
+        <v>0.1645</v>
       </c>
       <c r="G83" t="n">
-        <v>-332.5880499099999</v>
+        <v>-285.2908835399998</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3522,39 +3738,34 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>125900</v>
+        <v>126900</v>
       </c>
       <c r="C84" t="n">
-        <v>125900</v>
+        <v>126900</v>
       </c>
       <c r="D84" t="n">
-        <v>125900</v>
+        <v>126900</v>
       </c>
       <c r="E84" t="n">
-        <v>125900</v>
+        <v>126900</v>
       </c>
       <c r="F84" t="n">
-        <v>1.406</v>
+        <v>0.01750985</v>
       </c>
       <c r="G84" t="n">
-        <v>-333.9940499099999</v>
+        <v>-285.2733736899998</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3563,39 +3774,34 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>125800</v>
+        <v>126500</v>
       </c>
       <c r="C85" t="n">
-        <v>125800</v>
+        <v>126500</v>
       </c>
       <c r="D85" t="n">
-        <v>125800</v>
+        <v>126500</v>
       </c>
       <c r="E85" t="n">
-        <v>125800</v>
+        <v>126500</v>
       </c>
       <c r="F85" t="n">
-        <v>3.2727</v>
+        <v>0.5</v>
       </c>
       <c r="G85" t="n">
-        <v>-337.2667499099999</v>
+        <v>-285.7733736899998</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3604,39 +3810,34 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>125800</v>
+        <v>126500</v>
       </c>
       <c r="C86" t="n">
-        <v>125800</v>
+        <v>126500</v>
       </c>
       <c r="D86" t="n">
-        <v>125800</v>
+        <v>126500</v>
       </c>
       <c r="E86" t="n">
-        <v>125800</v>
+        <v>126500</v>
       </c>
       <c r="F86" t="n">
-        <v>0.8002</v>
+        <v>11.659</v>
       </c>
       <c r="G86" t="n">
-        <v>-337.2667499099999</v>
+        <v>-285.7733736899998</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3645,39 +3846,34 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>125800</v>
+        <v>126500</v>
       </c>
       <c r="C87" t="n">
-        <v>125800</v>
+        <v>126500</v>
       </c>
       <c r="D87" t="n">
-        <v>125800</v>
+        <v>126500</v>
       </c>
       <c r="E87" t="n">
-        <v>125800</v>
+        <v>126500</v>
       </c>
       <c r="F87" t="n">
-        <v>1.3435</v>
+        <v>28.6669</v>
       </c>
       <c r="G87" t="n">
-        <v>-337.2667499099999</v>
+        <v>-285.7733736899998</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3686,39 +3882,34 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>126100</v>
+        <v>126500</v>
       </c>
       <c r="C88" t="n">
-        <v>126100</v>
+        <v>126500</v>
       </c>
       <c r="D88" t="n">
-        <v>126100</v>
+        <v>126500</v>
       </c>
       <c r="E88" t="n">
-        <v>126100</v>
+        <v>126500</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>0.07870000000000001</v>
       </c>
       <c r="G88" t="n">
-        <v>-335.2667499099999</v>
+        <v>-285.7733736899998</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3727,39 +3918,34 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>125400</v>
+        <v>126300</v>
       </c>
       <c r="C89" t="n">
-        <v>125400</v>
+        <v>126300</v>
       </c>
       <c r="D89" t="n">
-        <v>125400</v>
+        <v>126300</v>
       </c>
       <c r="E89" t="n">
-        <v>125400</v>
+        <v>126300</v>
       </c>
       <c r="F89" t="n">
-        <v>17.1839</v>
+        <v>32.3186</v>
       </c>
       <c r="G89" t="n">
-        <v>-352.4506499099999</v>
+        <v>-318.0919736899998</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3768,39 +3954,34 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>125800</v>
+        <v>126300</v>
       </c>
       <c r="C90" t="n">
-        <v>125800</v>
+        <v>126400</v>
       </c>
       <c r="D90" t="n">
-        <v>125800</v>
+        <v>126400</v>
       </c>
       <c r="E90" t="n">
-        <v>125800</v>
+        <v>126300</v>
       </c>
       <c r="F90" t="n">
-        <v>1.0266</v>
+        <v>1.63976867</v>
       </c>
       <c r="G90" t="n">
-        <v>-351.4240499099999</v>
+        <v>-316.4522050199998</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3809,39 +3990,34 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>126000</v>
+        <v>126100</v>
       </c>
       <c r="C91" t="n">
-        <v>126000</v>
+        <v>126100</v>
       </c>
       <c r="D91" t="n">
-        <v>126000</v>
+        <v>126100</v>
       </c>
       <c r="E91" t="n">
-        <v>126000</v>
+        <v>126100</v>
       </c>
       <c r="F91" t="n">
-        <v>37.2863</v>
+        <v>0.51</v>
       </c>
       <c r="G91" t="n">
-        <v>-314.1377499099999</v>
+        <v>-316.9622050199998</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3850,39 +4026,34 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>126000</v>
+        <v>125700</v>
       </c>
       <c r="C92" t="n">
-        <v>126000</v>
+        <v>125700</v>
       </c>
       <c r="D92" t="n">
-        <v>126000</v>
+        <v>125700</v>
       </c>
       <c r="E92" t="n">
-        <v>126000</v>
+        <v>125700</v>
       </c>
       <c r="F92" t="n">
-        <v>38.0241</v>
+        <v>0.63</v>
       </c>
       <c r="G92" t="n">
-        <v>-314.1377499099999</v>
+        <v>-317.5922050199998</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3891,39 +4062,34 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>126000</v>
+        <v>125900</v>
       </c>
       <c r="C93" t="n">
-        <v>126000</v>
+        <v>125900</v>
       </c>
       <c r="D93" t="n">
-        <v>126000</v>
+        <v>125900</v>
       </c>
       <c r="E93" t="n">
-        <v>126000</v>
+        <v>125900</v>
       </c>
       <c r="F93" t="n">
-        <v>33.976</v>
+        <v>1.3863</v>
       </c>
       <c r="G93" t="n">
-        <v>-314.1377499099999</v>
+        <v>-316.2059050199998</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3932,39 +4098,34 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>125700</v>
+        <v>126000</v>
       </c>
       <c r="C94" t="n">
-        <v>125500</v>
+        <v>126000</v>
       </c>
       <c r="D94" t="n">
-        <v>125700</v>
+        <v>126000</v>
       </c>
       <c r="E94" t="n">
-        <v>125500</v>
+        <v>126000</v>
       </c>
       <c r="F94" t="n">
-        <v>24.0013</v>
+        <v>0.01763492</v>
       </c>
       <c r="G94" t="n">
-        <v>-338.1390499099999</v>
+        <v>-316.1882700999998</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3973,39 +4134,34 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>125500</v>
+        <v>125600</v>
       </c>
       <c r="C95" t="n">
-        <v>125500</v>
+        <v>125800</v>
       </c>
       <c r="D95" t="n">
-        <v>125500</v>
+        <v>125800</v>
       </c>
       <c r="E95" t="n">
-        <v>125500</v>
+        <v>125600</v>
       </c>
       <c r="F95" t="n">
-        <v>18.1302</v>
+        <v>6.4408</v>
       </c>
       <c r="G95" t="n">
-        <v>-338.1390499099999</v>
+        <v>-322.6290700999998</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4014,39 +4170,34 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>126000</v>
+        <v>126100</v>
       </c>
       <c r="C96" t="n">
-        <v>126000</v>
+        <v>126100</v>
       </c>
       <c r="D96" t="n">
-        <v>126000</v>
+        <v>126100</v>
       </c>
       <c r="E96" t="n">
-        <v>126000</v>
+        <v>126100</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03253968</v>
+        <v>3.96510705</v>
       </c>
       <c r="G96" t="n">
-        <v>-338.1065102299999</v>
+        <v>-318.6639630499998</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4055,39 +4206,34 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>126000</v>
+        <v>125800</v>
       </c>
       <c r="C97" t="n">
-        <v>126200</v>
+        <v>125800</v>
       </c>
       <c r="D97" t="n">
-        <v>126200</v>
+        <v>125800</v>
       </c>
       <c r="E97" t="n">
-        <v>126000</v>
+        <v>125800</v>
       </c>
       <c r="F97" t="n">
-        <v>31.04816032</v>
+        <v>0.3423</v>
       </c>
       <c r="G97" t="n">
-        <v>-307.0583499099999</v>
+        <v>-319.0062630499999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4096,39 +4242,34 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>126400</v>
+        <v>125400</v>
       </c>
       <c r="C98" t="n">
-        <v>126400</v>
+        <v>125100</v>
       </c>
       <c r="D98" t="n">
-        <v>126400</v>
+        <v>125400</v>
       </c>
       <c r="E98" t="n">
-        <v>126400</v>
+        <v>125100</v>
       </c>
       <c r="F98" t="n">
-        <v>0.63</v>
+        <v>3.5</v>
       </c>
       <c r="G98" t="n">
-        <v>-306.4283499099999</v>
+        <v>-322.5062630499999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4137,39 +4278,34 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>126400</v>
+        <v>125300</v>
       </c>
       <c r="C99" t="n">
-        <v>126400</v>
+        <v>125300</v>
       </c>
       <c r="D99" t="n">
-        <v>126400</v>
+        <v>125300</v>
       </c>
       <c r="E99" t="n">
-        <v>126400</v>
+        <v>125300</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0394</v>
+        <v>0.79</v>
       </c>
       <c r="G99" t="n">
-        <v>-306.4283499099999</v>
+        <v>-321.7162630499998</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4178,39 +4314,34 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>127000</v>
+        <v>125300</v>
       </c>
       <c r="C100" t="n">
-        <v>127000</v>
+        <v>125300</v>
       </c>
       <c r="D100" t="n">
-        <v>127000</v>
+        <v>125300</v>
       </c>
       <c r="E100" t="n">
-        <v>127000</v>
+        <v>125300</v>
       </c>
       <c r="F100" t="n">
-        <v>0.03499212</v>
+        <v>0.2</v>
       </c>
       <c r="G100" t="n">
-        <v>-306.3933577899999</v>
+        <v>-321.7162630499998</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4219,39 +4350,34 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>127000</v>
+        <v>125200</v>
       </c>
       <c r="C101" t="n">
-        <v>127000</v>
+        <v>125200</v>
       </c>
       <c r="D101" t="n">
-        <v>127000</v>
+        <v>125200</v>
       </c>
       <c r="E101" t="n">
-        <v>127000</v>
+        <v>125200</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1959</v>
+        <v>5.1638</v>
       </c>
       <c r="G101" t="n">
-        <v>-306.3933577899999</v>
+        <v>-326.8800630499998</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4260,39 +4386,34 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>127000</v>
+        <v>125200</v>
       </c>
       <c r="C102" t="n">
-        <v>127000</v>
+        <v>125200</v>
       </c>
       <c r="D102" t="n">
-        <v>127000</v>
+        <v>125200</v>
       </c>
       <c r="E102" t="n">
-        <v>127000</v>
+        <v>125200</v>
       </c>
       <c r="F102" t="n">
-        <v>2.914</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>-306.3933577899999</v>
+        <v>-326.8800630499998</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4301,39 +4422,34 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>127000</v>
+        <v>126000</v>
       </c>
       <c r="C103" t="n">
-        <v>127000</v>
+        <v>126000</v>
       </c>
       <c r="D103" t="n">
-        <v>127000</v>
+        <v>126000</v>
       </c>
       <c r="E103" t="n">
-        <v>127000</v>
+        <v>126000</v>
       </c>
       <c r="F103" t="n">
-        <v>20.0379</v>
+        <v>2</v>
       </c>
       <c r="G103" t="n">
-        <v>-306.3933577899999</v>
+        <v>-324.8800630499998</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4342,39 +4458,34 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>127000</v>
+        <v>125600</v>
       </c>
       <c r="C104" t="n">
-        <v>127300</v>
+        <v>125600</v>
       </c>
       <c r="D104" t="n">
-        <v>127300</v>
+        <v>125600</v>
       </c>
       <c r="E104" t="n">
-        <v>127000</v>
+        <v>125600</v>
       </c>
       <c r="F104" t="n">
-        <v>6.8736</v>
+        <v>0.472</v>
       </c>
       <c r="G104" t="n">
-        <v>-299.5197577899999</v>
+        <v>-325.3520630499998</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4383,39 +4494,34 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>127300</v>
+        <v>125600</v>
       </c>
       <c r="C105" t="n">
-        <v>127700</v>
+        <v>125300</v>
       </c>
       <c r="D105" t="n">
-        <v>127700</v>
+        <v>125600</v>
       </c>
       <c r="E105" t="n">
-        <v>127300</v>
+        <v>125300</v>
       </c>
       <c r="F105" t="n">
-        <v>46.1934</v>
+        <v>6.1</v>
       </c>
       <c r="G105" t="n">
-        <v>-253.3263577899999</v>
+        <v>-331.4520630499998</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4424,39 +4530,34 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>127700</v>
+        <v>125800</v>
       </c>
       <c r="C106" t="n">
-        <v>127800</v>
+        <v>125800</v>
       </c>
       <c r="D106" t="n">
-        <v>127800</v>
+        <v>125800</v>
       </c>
       <c r="E106" t="n">
-        <v>127700</v>
+        <v>125800</v>
       </c>
       <c r="F106" t="n">
-        <v>12.7542</v>
+        <v>5.4719</v>
       </c>
       <c r="G106" t="n">
-        <v>-240.5721577899999</v>
+        <v>-325.9801630499998</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4465,39 +4566,34 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>127800</v>
+        <v>125300</v>
       </c>
       <c r="C107" t="n">
-        <v>127800</v>
+        <v>125200</v>
       </c>
       <c r="D107" t="n">
-        <v>127800</v>
+        <v>125300</v>
       </c>
       <c r="E107" t="n">
-        <v>127800</v>
+        <v>125200</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0622</v>
+        <v>3.3416</v>
       </c>
       <c r="G107" t="n">
-        <v>-240.5721577899999</v>
+        <v>-329.3217630499998</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4506,39 +4602,34 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>127900</v>
+        <v>125200</v>
       </c>
       <c r="C108" t="n">
-        <v>129000</v>
+        <v>125200</v>
       </c>
       <c r="D108" t="n">
-        <v>129000</v>
+        <v>125200</v>
       </c>
       <c r="E108" t="n">
-        <v>127900</v>
+        <v>125200</v>
       </c>
       <c r="F108" t="n">
-        <v>24.1768</v>
+        <v>4.138</v>
       </c>
       <c r="G108" t="n">
-        <v>-216.3953577899999</v>
+        <v>-329.3217630499998</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4547,39 +4638,34 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>129000</v>
+        <v>125000</v>
       </c>
       <c r="C109" t="n">
-        <v>129000</v>
+        <v>125000</v>
       </c>
       <c r="D109" t="n">
-        <v>129000</v>
+        <v>125000</v>
       </c>
       <c r="E109" t="n">
-        <v>129000</v>
+        <v>125000</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0279</v>
+        <v>2.0498</v>
       </c>
       <c r="G109" t="n">
-        <v>-216.3953577899999</v>
+        <v>-331.3715630499998</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4588,39 +4674,34 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>129000</v>
+        <v>125000</v>
       </c>
       <c r="C110" t="n">
-        <v>129000</v>
+        <v>125000</v>
       </c>
       <c r="D110" t="n">
-        <v>129000</v>
+        <v>125000</v>
       </c>
       <c r="E110" t="n">
-        <v>129000</v>
+        <v>125000</v>
       </c>
       <c r="F110" t="n">
-        <v>7.3908</v>
+        <v>4.9001</v>
       </c>
       <c r="G110" t="n">
-        <v>-216.3953577899999</v>
+        <v>-331.3715630499998</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4629,1493 +4710,12 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>128500</v>
-      </c>
-      <c r="C111" t="n">
-        <v>129300</v>
-      </c>
-      <c r="D111" t="n">
-        <v>129300</v>
-      </c>
-      <c r="E111" t="n">
-        <v>128500</v>
-      </c>
-      <c r="F111" t="n">
-        <v>3.1567</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-213.2386577899999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>124600</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1.032720706260032</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>128500</v>
-      </c>
-      <c r="C112" t="n">
-        <v>128500</v>
-      </c>
-      <c r="D112" t="n">
-        <v>128500</v>
-      </c>
-      <c r="E112" t="n">
-        <v>128500</v>
-      </c>
-      <c r="F112" t="n">
-        <v>7</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-220.2386577899999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>128500</v>
-      </c>
-      <c r="C113" t="n">
-        <v>128400</v>
-      </c>
-      <c r="D113" t="n">
-        <v>128500</v>
-      </c>
-      <c r="E113" t="n">
-        <v>128400</v>
-      </c>
-      <c r="F113" t="n">
-        <v>54.3925</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-274.6311577899999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>128100</v>
-      </c>
-      <c r="C114" t="n">
-        <v>129200</v>
-      </c>
-      <c r="D114" t="n">
-        <v>129200</v>
-      </c>
-      <c r="E114" t="n">
-        <v>128100</v>
-      </c>
-      <c r="F114" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-260.1311577899999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>129300</v>
-      </c>
-      <c r="C115" t="n">
-        <v>129300</v>
-      </c>
-      <c r="D115" t="n">
-        <v>129300</v>
-      </c>
-      <c r="E115" t="n">
-        <v>128900</v>
-      </c>
-      <c r="F115" t="n">
-        <v>4.8274621</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-255.3036956899999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>128800</v>
-      </c>
-      <c r="C116" t="n">
-        <v>128800</v>
-      </c>
-      <c r="D116" t="n">
-        <v>128800</v>
-      </c>
-      <c r="E116" t="n">
-        <v>128800</v>
-      </c>
-      <c r="F116" t="n">
-        <v>2</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-257.3036956899999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>128000</v>
-      </c>
-      <c r="C117" t="n">
-        <v>127900</v>
-      </c>
-      <c r="D117" t="n">
-        <v>128000</v>
-      </c>
-      <c r="E117" t="n">
-        <v>127900</v>
-      </c>
-      <c r="F117" t="n">
-        <v>11.811</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-269.1146956899998</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>127200</v>
-      </c>
-      <c r="C118" t="n">
-        <v>127000</v>
-      </c>
-      <c r="D118" t="n">
-        <v>127200</v>
-      </c>
-      <c r="E118" t="n">
-        <v>127000</v>
-      </c>
-      <c r="F118" t="n">
-        <v>11</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-280.1146956899998</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>127000</v>
-      </c>
-      <c r="C119" t="n">
-        <v>127000</v>
-      </c>
-      <c r="D119" t="n">
-        <v>127000</v>
-      </c>
-      <c r="E119" t="n">
-        <v>127000</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1.0318</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-280.1146956899998</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>127400</v>
-      </c>
-      <c r="C120" t="n">
-        <v>127400</v>
-      </c>
-      <c r="D120" t="n">
-        <v>127400</v>
-      </c>
-      <c r="E120" t="n">
-        <v>127400</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.03575353</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-280.0789421599998</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>126700</v>
-      </c>
-      <c r="C121" t="n">
-        <v>126600</v>
-      </c>
-      <c r="D121" t="n">
-        <v>126700</v>
-      </c>
-      <c r="E121" t="n">
-        <v>126600</v>
-      </c>
-      <c r="F121" t="n">
-        <v>2.8436</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-282.9225421599998</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>126800</v>
-      </c>
-      <c r="C122" t="n">
-        <v>127400</v>
-      </c>
-      <c r="D122" t="n">
-        <v>127400</v>
-      </c>
-      <c r="E122" t="n">
-        <v>126800</v>
-      </c>
-      <c r="F122" t="n">
-        <v>22.3768</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-260.5457421599998</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>126900</v>
-      </c>
-      <c r="C123" t="n">
-        <v>127100</v>
-      </c>
-      <c r="D123" t="n">
-        <v>127100</v>
-      </c>
-      <c r="E123" t="n">
-        <v>126900</v>
-      </c>
-      <c r="F123" t="n">
-        <v>23.90964138</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-284.4553835399998</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>126400</v>
-      </c>
-      <c r="C124" t="n">
-        <v>126400</v>
-      </c>
-      <c r="D124" t="n">
-        <v>126400</v>
-      </c>
-      <c r="E124" t="n">
-        <v>126400</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.8355</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-285.2908835399998</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>126400</v>
-      </c>
-      <c r="C125" t="n">
-        <v>126400</v>
-      </c>
-      <c r="D125" t="n">
-        <v>126400</v>
-      </c>
-      <c r="E125" t="n">
-        <v>126400</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.1645</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-285.2908835399998</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>126900</v>
-      </c>
-      <c r="C126" t="n">
-        <v>126900</v>
-      </c>
-      <c r="D126" t="n">
-        <v>126900</v>
-      </c>
-      <c r="E126" t="n">
-        <v>126900</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.01750985</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-285.2733736899998</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>126500</v>
-      </c>
-      <c r="C127" t="n">
-        <v>126500</v>
-      </c>
-      <c r="D127" t="n">
-        <v>126500</v>
-      </c>
-      <c r="E127" t="n">
-        <v>126500</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-285.7733736899998</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>126500</v>
-      </c>
-      <c r="C128" t="n">
-        <v>126500</v>
-      </c>
-      <c r="D128" t="n">
-        <v>126500</v>
-      </c>
-      <c r="E128" t="n">
-        <v>126500</v>
-      </c>
-      <c r="F128" t="n">
-        <v>11.659</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-285.7733736899998</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>126500</v>
-      </c>
-      <c r="C129" t="n">
-        <v>126500</v>
-      </c>
-      <c r="D129" t="n">
-        <v>126500</v>
-      </c>
-      <c r="E129" t="n">
-        <v>126500</v>
-      </c>
-      <c r="F129" t="n">
-        <v>28.6669</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-285.7733736899998</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>126500</v>
-      </c>
-      <c r="C130" t="n">
-        <v>126500</v>
-      </c>
-      <c r="D130" t="n">
-        <v>126500</v>
-      </c>
-      <c r="E130" t="n">
-        <v>126500</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.07870000000000001</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-285.7733736899998</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>126300</v>
-      </c>
-      <c r="C131" t="n">
-        <v>126300</v>
-      </c>
-      <c r="D131" t="n">
-        <v>126300</v>
-      </c>
-      <c r="E131" t="n">
-        <v>126300</v>
-      </c>
-      <c r="F131" t="n">
-        <v>32.3186</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-318.0919736899998</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>126300</v>
-      </c>
-      <c r="C132" t="n">
-        <v>126400</v>
-      </c>
-      <c r="D132" t="n">
-        <v>126400</v>
-      </c>
-      <c r="E132" t="n">
-        <v>126300</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1.63976867</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-316.4522050199998</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>126100</v>
-      </c>
-      <c r="C133" t="n">
-        <v>126100</v>
-      </c>
-      <c r="D133" t="n">
-        <v>126100</v>
-      </c>
-      <c r="E133" t="n">
-        <v>126100</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-316.9622050199998</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>125700</v>
-      </c>
-      <c r="C134" t="n">
-        <v>125700</v>
-      </c>
-      <c r="D134" t="n">
-        <v>125700</v>
-      </c>
-      <c r="E134" t="n">
-        <v>125700</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-317.5922050199998</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>125900</v>
-      </c>
-      <c r="C135" t="n">
-        <v>125900</v>
-      </c>
-      <c r="D135" t="n">
-        <v>125900</v>
-      </c>
-      <c r="E135" t="n">
-        <v>125900</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1.3863</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-316.2059050199998</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>126000</v>
-      </c>
-      <c r="C136" t="n">
-        <v>126000</v>
-      </c>
-      <c r="D136" t="n">
-        <v>126000</v>
-      </c>
-      <c r="E136" t="n">
-        <v>126000</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.01763492</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-316.1882700999998</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>125600</v>
-      </c>
-      <c r="C137" t="n">
-        <v>125800</v>
-      </c>
-      <c r="D137" t="n">
-        <v>125800</v>
-      </c>
-      <c r="E137" t="n">
-        <v>125600</v>
-      </c>
-      <c r="F137" t="n">
-        <v>6.4408</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-322.6290700999998</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>126100</v>
-      </c>
-      <c r="C138" t="n">
-        <v>126100</v>
-      </c>
-      <c r="D138" t="n">
-        <v>126100</v>
-      </c>
-      <c r="E138" t="n">
-        <v>126100</v>
-      </c>
-      <c r="F138" t="n">
-        <v>3.96510705</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-318.6639630499998</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>125800</v>
-      </c>
-      <c r="C139" t="n">
-        <v>125800</v>
-      </c>
-      <c r="D139" t="n">
-        <v>125800</v>
-      </c>
-      <c r="E139" t="n">
-        <v>125800</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-319.0062630499999</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>125400</v>
-      </c>
-      <c r="C140" t="n">
-        <v>125100</v>
-      </c>
-      <c r="D140" t="n">
-        <v>125400</v>
-      </c>
-      <c r="E140" t="n">
-        <v>125100</v>
-      </c>
-      <c r="F140" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-322.5062630499999</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>125300</v>
-      </c>
-      <c r="C141" t="n">
-        <v>125300</v>
-      </c>
-      <c r="D141" t="n">
-        <v>125300</v>
-      </c>
-      <c r="E141" t="n">
-        <v>125300</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-321.7162630499998</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>125300</v>
-      </c>
-      <c r="C142" t="n">
-        <v>125300</v>
-      </c>
-      <c r="D142" t="n">
-        <v>125300</v>
-      </c>
-      <c r="E142" t="n">
-        <v>125300</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-321.7162630499998</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>125200</v>
-      </c>
-      <c r="C143" t="n">
-        <v>125200</v>
-      </c>
-      <c r="D143" t="n">
-        <v>125200</v>
-      </c>
-      <c r="E143" t="n">
-        <v>125200</v>
-      </c>
-      <c r="F143" t="n">
-        <v>5.1638</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-326.8800630499998</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>125200</v>
-      </c>
-      <c r="C144" t="n">
-        <v>125200</v>
-      </c>
-      <c r="D144" t="n">
-        <v>125200</v>
-      </c>
-      <c r="E144" t="n">
-        <v>125200</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-326.8800630499998</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>126000</v>
-      </c>
-      <c r="C145" t="n">
-        <v>126000</v>
-      </c>
-      <c r="D145" t="n">
-        <v>126000</v>
-      </c>
-      <c r="E145" t="n">
-        <v>126000</v>
-      </c>
-      <c r="F145" t="n">
-        <v>2</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-324.8800630499998</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>125600</v>
-      </c>
-      <c r="C146" t="n">
-        <v>125600</v>
-      </c>
-      <c r="D146" t="n">
-        <v>125600</v>
-      </c>
-      <c r="E146" t="n">
-        <v>125600</v>
-      </c>
-      <c r="F146" t="n">
-        <v>0.472</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-325.3520630499998</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>125600</v>
-      </c>
-      <c r="C147" t="n">
-        <v>125300</v>
-      </c>
-      <c r="D147" t="n">
-        <v>125600</v>
-      </c>
-      <c r="E147" t="n">
-        <v>125300</v>
-      </c>
-      <c r="F147" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-331.4520630499998</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>125800</v>
-      </c>
-      <c r="C148" t="n">
-        <v>125800</v>
-      </c>
-      <c r="D148" t="n">
-        <v>125800</v>
-      </c>
-      <c r="E148" t="n">
-        <v>125800</v>
-      </c>
-      <c r="F148" t="n">
-        <v>5.4719</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-325.9801630499998</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>125300</v>
-      </c>
-      <c r="C149" t="n">
-        <v>125200</v>
-      </c>
-      <c r="D149" t="n">
-        <v>125300</v>
-      </c>
-      <c r="E149" t="n">
-        <v>125200</v>
-      </c>
-      <c r="F149" t="n">
-        <v>3.3416</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-329.3217630499998</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>125200</v>
-      </c>
-      <c r="C150" t="n">
-        <v>125200</v>
-      </c>
-      <c r="D150" t="n">
-        <v>125200</v>
-      </c>
-      <c r="E150" t="n">
-        <v>125200</v>
-      </c>
-      <c r="F150" t="n">
-        <v>4.138</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-329.3217630499998</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>125000</v>
-      </c>
-      <c r="C151" t="n">
-        <v>125000</v>
-      </c>
-      <c r="D151" t="n">
-        <v>125000</v>
-      </c>
-      <c r="E151" t="n">
-        <v>125000</v>
-      </c>
-      <c r="F151" t="n">
-        <v>2.0498</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-331.3715630499998</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>125000</v>
-      </c>
-      <c r="C152" t="n">
-        <v>125000</v>
-      </c>
-      <c r="D152" t="n">
-        <v>125000</v>
-      </c>
-      <c r="E152" t="n">
-        <v>125000</v>
-      </c>
-      <c r="F152" t="n">
-        <v>4.9001</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-331.3715630499998</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
+      <c r="N110" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-23 BackTest DASH.xlsx
+++ b/BackTest/2020-01-23 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>124600</v>
+        <v>125300</v>
       </c>
       <c r="C2" t="n">
-        <v>124600</v>
+        <v>125000</v>
       </c>
       <c r="D2" t="n">
-        <v>124600</v>
+        <v>125300</v>
       </c>
       <c r="E2" t="n">
-        <v>124600</v>
+        <v>125000</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0013</v>
+        <v>31.6158</v>
       </c>
       <c r="G2" t="n">
-        <v>-346.9418634799999</v>
+        <v>-337.77191067</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>124600</v>
+        <v>125400</v>
       </c>
       <c r="C3" t="n">
-        <v>124600</v>
+        <v>125600</v>
       </c>
       <c r="D3" t="n">
-        <v>124600</v>
+        <v>125600</v>
       </c>
       <c r="E3" t="n">
-        <v>124600</v>
+        <v>125400</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7249</v>
+        <v>3.3241</v>
       </c>
       <c r="G3" t="n">
-        <v>-346.9418634799999</v>
+        <v>-334.44781067</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>124500</v>
+        <v>125600</v>
       </c>
       <c r="C4" t="n">
-        <v>124500</v>
+        <v>125600</v>
       </c>
       <c r="D4" t="n">
-        <v>124500</v>
+        <v>126400</v>
       </c>
       <c r="E4" t="n">
-        <v>124500</v>
+        <v>125600</v>
       </c>
       <c r="F4" t="n">
-        <v>2.659</v>
+        <v>16.9614</v>
       </c>
       <c r="G4" t="n">
-        <v>-349.6008634799999</v>
+        <v>-334.44781067</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>124700</v>
+        <v>125800</v>
       </c>
       <c r="C5" t="n">
-        <v>125000</v>
+        <v>125500</v>
       </c>
       <c r="D5" t="n">
-        <v>125000</v>
+        <v>125800</v>
       </c>
       <c r="E5" t="n">
-        <v>124600</v>
+        <v>125500</v>
       </c>
       <c r="F5" t="n">
-        <v>8.635999999999999</v>
+        <v>4.0848</v>
       </c>
       <c r="G5" t="n">
-        <v>-340.9648634799998</v>
+        <v>-338.53261067</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>124600</v>
+        <v>125200</v>
       </c>
       <c r="C6" t="n">
-        <v>124700</v>
+        <v>125200</v>
       </c>
       <c r="D6" t="n">
-        <v>124700</v>
+        <v>125200</v>
       </c>
       <c r="E6" t="n">
-        <v>124600</v>
+        <v>125200</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8704</v>
+        <v>5.4608</v>
       </c>
       <c r="G6" t="n">
-        <v>-341.8352634799999</v>
+        <v>-343.99341067</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>124700</v>
+        <v>125200</v>
       </c>
       <c r="C7" t="n">
-        <v>124700</v>
+        <v>125200</v>
       </c>
       <c r="D7" t="n">
-        <v>124700</v>
+        <v>125200</v>
       </c>
       <c r="E7" t="n">
-        <v>124700</v>
+        <v>125200</v>
       </c>
       <c r="F7" t="n">
-        <v>1.646</v>
+        <v>0.0001</v>
       </c>
       <c r="G7" t="n">
-        <v>-341.8352634799999</v>
+        <v>-343.99341067</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>124800</v>
+        <v>125000</v>
       </c>
       <c r="C8" t="n">
-        <v>124800</v>
+        <v>125000</v>
       </c>
       <c r="D8" t="n">
-        <v>124800</v>
+        <v>125000</v>
       </c>
       <c r="E8" t="n">
-        <v>124800</v>
+        <v>125000</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2675</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>-341.5677634799999</v>
+        <v>-344.06491067</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>124800</v>
+        <v>125800</v>
       </c>
       <c r="C9" t="n">
-        <v>124800</v>
+        <v>125800</v>
       </c>
       <c r="D9" t="n">
-        <v>124800</v>
+        <v>125800</v>
       </c>
       <c r="E9" t="n">
-        <v>124800</v>
+        <v>125800</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2</v>
+        <v>0.0357</v>
       </c>
       <c r="G9" t="n">
-        <v>-341.5677634799999</v>
+        <v>-344.02921067</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>124800</v>
+        <v>126500</v>
       </c>
       <c r="C10" t="n">
-        <v>124800</v>
+        <v>127000</v>
       </c>
       <c r="D10" t="n">
-        <v>124800</v>
+        <v>127000</v>
       </c>
       <c r="E10" t="n">
-        <v>124800</v>
+        <v>126500</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8002</v>
+        <v>7.87891535</v>
       </c>
       <c r="G10" t="n">
-        <v>-341.5677634799999</v>
+        <v>-336.15029532</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>124800</v>
+        <v>126500</v>
       </c>
       <c r="C11" t="n">
-        <v>124800</v>
+        <v>126500</v>
       </c>
       <c r="D11" t="n">
-        <v>124800</v>
+        <v>126500</v>
       </c>
       <c r="E11" t="n">
-        <v>124800</v>
+        <v>126500</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4221</v>
+        <v>1.4824664</v>
       </c>
       <c r="G11" t="n">
-        <v>-341.5677634799999</v>
+        <v>-337.63276172</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,35 +798,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>124900</v>
+        <v>126000</v>
       </c>
       <c r="C12" t="n">
-        <v>124900</v>
+        <v>125600</v>
       </c>
       <c r="D12" t="n">
-        <v>124900</v>
+        <v>126000</v>
       </c>
       <c r="E12" t="n">
-        <v>124900</v>
+        <v>125600</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>4.0833</v>
       </c>
       <c r="G12" t="n">
-        <v>-339.5677634799999</v>
+        <v>-341.71606172</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>124800</v>
-      </c>
-      <c r="K12" t="n">
-        <v>124800</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
@@ -838,40 +834,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>124900</v>
+        <v>125300</v>
       </c>
       <c r="C13" t="n">
-        <v>124900</v>
+        <v>125300</v>
       </c>
       <c r="D13" t="n">
-        <v>124900</v>
+        <v>125300</v>
       </c>
       <c r="E13" t="n">
-        <v>124900</v>
+        <v>125300</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03202562</v>
+        <v>0.9986</v>
       </c>
       <c r="G13" t="n">
-        <v>-339.5677634799999</v>
+        <v>-342.71466172</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>124900</v>
-      </c>
-      <c r="K13" t="n">
-        <v>124800</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -882,40 +870,32 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>124900</v>
+        <v>126000</v>
       </c>
       <c r="C14" t="n">
-        <v>124900</v>
+        <v>126000</v>
       </c>
       <c r="D14" t="n">
-        <v>124900</v>
+        <v>126000</v>
       </c>
       <c r="E14" t="n">
-        <v>124900</v>
+        <v>126000</v>
       </c>
       <c r="F14" t="n">
-        <v>0.613</v>
+        <v>1.5398</v>
       </c>
       <c r="G14" t="n">
-        <v>-339.5677634799999</v>
+        <v>-341.17486172</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>124900</v>
-      </c>
-      <c r="K14" t="n">
-        <v>124800</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -926,35 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>124700</v>
+        <v>126000</v>
       </c>
       <c r="C15" t="n">
-        <v>124700</v>
+        <v>126000</v>
       </c>
       <c r="D15" t="n">
-        <v>124700</v>
+        <v>126000</v>
       </c>
       <c r="E15" t="n">
-        <v>124700</v>
+        <v>126000</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0003</v>
+        <v>0.0176</v>
       </c>
       <c r="G15" t="n">
-        <v>-339.5680634799999</v>
+        <v>-341.17486172</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>124900</v>
-      </c>
-      <c r="K15" t="n">
-        <v>124900</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
@@ -966,40 +942,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>124200</v>
+        <v>125300</v>
       </c>
       <c r="C16" t="n">
-        <v>124200</v>
+        <v>125200</v>
       </c>
       <c r="D16" t="n">
-        <v>124200</v>
+        <v>125300</v>
       </c>
       <c r="E16" t="n">
-        <v>124200</v>
+        <v>125200</v>
       </c>
       <c r="F16" t="n">
-        <v>3.709</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>-343.2770634799999</v>
+        <v>-351.17486172</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>124700</v>
-      </c>
-      <c r="K16" t="n">
-        <v>124900</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1010,40 +978,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>124100</v>
+        <v>125300</v>
       </c>
       <c r="C17" t="n">
-        <v>124100</v>
+        <v>125300</v>
       </c>
       <c r="D17" t="n">
-        <v>124100</v>
+        <v>125300</v>
       </c>
       <c r="E17" t="n">
-        <v>124100</v>
+        <v>125300</v>
       </c>
       <c r="F17" t="n">
-        <v>1.051</v>
+        <v>1.5574</v>
       </c>
       <c r="G17" t="n">
-        <v>-344.3280634799999</v>
+        <v>-349.6174617200001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>124200</v>
-      </c>
-      <c r="K17" t="n">
-        <v>124900</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1054,35 +1014,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>124200</v>
+        <v>125200</v>
       </c>
       <c r="C18" t="n">
-        <v>124200</v>
+        <v>125000</v>
       </c>
       <c r="D18" t="n">
-        <v>124200</v>
+        <v>125200</v>
       </c>
       <c r="E18" t="n">
-        <v>124200</v>
+        <v>125000</v>
       </c>
       <c r="F18" t="n">
-        <v>0.245</v>
+        <v>50.3483</v>
       </c>
       <c r="G18" t="n">
-        <v>-344.0830634799999</v>
+        <v>-399.96576172</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>124100</v>
-      </c>
-      <c r="K18" t="n">
-        <v>124100</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
@@ -1094,40 +1050,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>124400</v>
+        <v>125300</v>
       </c>
       <c r="C19" t="n">
-        <v>124300</v>
+        <v>125300</v>
       </c>
       <c r="D19" t="n">
-        <v>124400</v>
+        <v>125300</v>
       </c>
       <c r="E19" t="n">
-        <v>124000</v>
+        <v>125300</v>
       </c>
       <c r="F19" t="n">
-        <v>19.181</v>
+        <v>0.02</v>
       </c>
       <c r="G19" t="n">
-        <v>-324.9020634799999</v>
+        <v>-399.9457617200001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>124200</v>
-      </c>
-      <c r="K19" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1138,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>124200</v>
+        <v>125800</v>
       </c>
       <c r="C20" t="n">
-        <v>124100</v>
+        <v>125800</v>
       </c>
       <c r="D20" t="n">
-        <v>124200</v>
+        <v>125800</v>
       </c>
       <c r="E20" t="n">
-        <v>124100</v>
+        <v>125800</v>
       </c>
       <c r="F20" t="n">
-        <v>6.291</v>
+        <v>7</v>
       </c>
       <c r="G20" t="n">
-        <v>-331.1930634799999</v>
+        <v>-392.9457617200001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1162,14 +1110,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1180,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>124000</v>
+        <v>125800</v>
       </c>
       <c r="C21" t="n">
-        <v>124000</v>
+        <v>125800</v>
       </c>
       <c r="D21" t="n">
-        <v>124000</v>
+        <v>125800</v>
       </c>
       <c r="E21" t="n">
-        <v>124000</v>
+        <v>125800</v>
       </c>
       <c r="F21" t="n">
-        <v>16.026</v>
+        <v>5.98</v>
       </c>
       <c r="G21" t="n">
-        <v>-347.2190634799999</v>
+        <v>-392.9457617200001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1204,14 +1146,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1222,40 +1158,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>123800</v>
+        <v>125800</v>
       </c>
       <c r="C22" t="n">
-        <v>124600</v>
+        <v>125800</v>
       </c>
       <c r="D22" t="n">
-        <v>124600</v>
+        <v>125800</v>
       </c>
       <c r="E22" t="n">
-        <v>123800</v>
+        <v>125800</v>
       </c>
       <c r="F22" t="n">
-        <v>57.942</v>
+        <v>0.105</v>
       </c>
       <c r="G22" t="n">
-        <v>-289.2770634799999</v>
+        <v>-392.9457617200001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>124000</v>
-      </c>
-      <c r="K22" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>123800</v>
+        <v>125400</v>
       </c>
       <c r="C23" t="n">
-        <v>123800</v>
+        <v>125400</v>
       </c>
       <c r="D23" t="n">
-        <v>123800</v>
+        <v>125400</v>
       </c>
       <c r="E23" t="n">
-        <v>123800</v>
+        <v>125400</v>
       </c>
       <c r="F23" t="n">
-        <v>0.518</v>
+        <v>1.0001</v>
       </c>
       <c r="G23" t="n">
-        <v>-289.7950634799998</v>
+        <v>-393.94586172</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1290,14 +1218,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1308,40 +1230,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>123800</v>
+        <v>125200</v>
       </c>
       <c r="C24" t="n">
-        <v>123800</v>
+        <v>125200</v>
       </c>
       <c r="D24" t="n">
-        <v>123800</v>
+        <v>125200</v>
       </c>
       <c r="E24" t="n">
-        <v>123800</v>
+        <v>125200</v>
       </c>
       <c r="F24" t="n">
-        <v>15.558</v>
+        <v>4.5339</v>
       </c>
       <c r="G24" t="n">
-        <v>-289.7950634799998</v>
+        <v>-398.4797617200001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>123800</v>
-      </c>
-      <c r="K24" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1352,40 +1266,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>124600</v>
+        <v>125200</v>
       </c>
       <c r="C25" t="n">
-        <v>124600</v>
+        <v>125200</v>
       </c>
       <c r="D25" t="n">
-        <v>124600</v>
+        <v>125200</v>
       </c>
       <c r="E25" t="n">
-        <v>124600</v>
+        <v>125200</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6486</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>-289.1464634799999</v>
+        <v>-398.4797617200001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>123800</v>
-      </c>
-      <c r="K25" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1396,40 +1302,32 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>123800</v>
+        <v>125500</v>
       </c>
       <c r="C26" t="n">
-        <v>123800</v>
+        <v>125500</v>
       </c>
       <c r="D26" t="n">
-        <v>123800</v>
+        <v>125500</v>
       </c>
       <c r="E26" t="n">
-        <v>123800</v>
+        <v>125500</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2479</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>-289.3943634799999</v>
+        <v>-393.4797617200001</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>124600</v>
-      </c>
-      <c r="K26" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1440,40 +1338,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>123000</v>
+        <v>125300</v>
       </c>
       <c r="C27" t="n">
-        <v>123000</v>
+        <v>125300</v>
       </c>
       <c r="D27" t="n">
-        <v>123000</v>
+        <v>125300</v>
       </c>
       <c r="E27" t="n">
-        <v>123000</v>
+        <v>125300</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2494</v>
+        <v>1.7929</v>
       </c>
       <c r="G27" t="n">
-        <v>-289.6437634799998</v>
+        <v>-395.27266172</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>123800</v>
-      </c>
-      <c r="K27" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1484,40 +1374,32 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>123000</v>
+        <v>125300</v>
       </c>
       <c r="C28" t="n">
-        <v>123000</v>
+        <v>125300</v>
       </c>
       <c r="D28" t="n">
-        <v>123000</v>
+        <v>125300</v>
       </c>
       <c r="E28" t="n">
-        <v>123000</v>
+        <v>125300</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9733000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="G28" t="n">
-        <v>-289.6437634799998</v>
+        <v>-395.27266172</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>123000</v>
-      </c>
-      <c r="K28" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1528,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>123600</v>
+        <v>125500</v>
       </c>
       <c r="C29" t="n">
-        <v>123600</v>
+        <v>125500</v>
       </c>
       <c r="D29" t="n">
-        <v>123600</v>
+        <v>125500</v>
       </c>
       <c r="E29" t="n">
-        <v>123600</v>
+        <v>125500</v>
       </c>
       <c r="F29" t="n">
-        <v>0.03595469</v>
+        <v>7</v>
       </c>
       <c r="G29" t="n">
-        <v>-289.6078087899999</v>
+        <v>-388.27266172</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1552,14 +1434,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1570,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>123500</v>
+        <v>126000</v>
       </c>
       <c r="C30" t="n">
-        <v>123500</v>
+        <v>126000</v>
       </c>
       <c r="D30" t="n">
-        <v>123500</v>
+        <v>126000</v>
       </c>
       <c r="E30" t="n">
-        <v>123500</v>
+        <v>126000</v>
       </c>
       <c r="F30" t="n">
-        <v>43.0708</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>-332.6786087899999</v>
+        <v>-386.27266172</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1594,14 +1470,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1612,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>123500</v>
+        <v>126400</v>
       </c>
       <c r="C31" t="n">
-        <v>123600</v>
+        <v>126700</v>
       </c>
       <c r="D31" t="n">
-        <v>123600</v>
+        <v>126700</v>
       </c>
       <c r="E31" t="n">
-        <v>123500</v>
+        <v>126400</v>
       </c>
       <c r="F31" t="n">
-        <v>32.4738</v>
+        <v>3.3262</v>
       </c>
       <c r="G31" t="n">
-        <v>-300.2048087899999</v>
+        <v>-382.94646172</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1636,14 +1506,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1654,40 +1518,32 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>123500</v>
+        <v>126900</v>
       </c>
       <c r="C32" t="n">
-        <v>123500</v>
+        <v>126900</v>
       </c>
       <c r="D32" t="n">
-        <v>123500</v>
+        <v>126900</v>
       </c>
       <c r="E32" t="n">
-        <v>123500</v>
+        <v>126900</v>
       </c>
       <c r="F32" t="n">
-        <v>11.0963</v>
+        <v>36.6346</v>
       </c>
       <c r="G32" t="n">
-        <v>-311.3011087899999</v>
+        <v>-346.31186172</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>123600</v>
-      </c>
-      <c r="K32" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>123500</v>
+        <v>126900</v>
       </c>
       <c r="C33" t="n">
-        <v>123500</v>
+        <v>127600</v>
       </c>
       <c r="D33" t="n">
-        <v>123500</v>
+        <v>127600</v>
       </c>
       <c r="E33" t="n">
-        <v>123500</v>
+        <v>126900</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4595</v>
+        <v>28.0053</v>
       </c>
       <c r="G33" t="n">
-        <v>-311.3011087899999</v>
+        <v>-318.30656172</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1722,14 +1578,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1740,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>123500</v>
+        <v>127600</v>
       </c>
       <c r="C34" t="n">
-        <v>123500</v>
+        <v>127000</v>
       </c>
       <c r="D34" t="n">
-        <v>123500</v>
+        <v>127600</v>
       </c>
       <c r="E34" t="n">
-        <v>123500</v>
+        <v>127000</v>
       </c>
       <c r="F34" t="n">
-        <v>0.468</v>
+        <v>17.8851</v>
       </c>
       <c r="G34" t="n">
-        <v>-311.3011087899999</v>
+        <v>-336.1916617200001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1764,14 +1614,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1782,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>124600</v>
+        <v>127400</v>
       </c>
       <c r="C35" t="n">
-        <v>124600</v>
+        <v>127400</v>
       </c>
       <c r="D35" t="n">
-        <v>124600</v>
+        <v>127400</v>
       </c>
       <c r="E35" t="n">
-        <v>124600</v>
+        <v>127400</v>
       </c>
       <c r="F35" t="n">
-        <v>1.8049</v>
+        <v>0.47</v>
       </c>
       <c r="G35" t="n">
-        <v>-309.4962087899999</v>
+        <v>-335.72166172</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1806,14 +1650,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1824,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>124600</v>
+        <v>127200</v>
       </c>
       <c r="C36" t="n">
-        <v>125000</v>
+        <v>127200</v>
       </c>
       <c r="D36" t="n">
-        <v>125000</v>
+        <v>127200</v>
       </c>
       <c r="E36" t="n">
-        <v>124600</v>
+        <v>127200</v>
       </c>
       <c r="F36" t="n">
-        <v>1.0224</v>
+        <v>4.9647</v>
       </c>
       <c r="G36" t="n">
-        <v>-308.4738087899999</v>
+        <v>-340.68636172</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1848,14 +1686,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1866,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>124700</v>
+        <v>127000</v>
       </c>
       <c r="C37" t="n">
-        <v>124600</v>
+        <v>127000</v>
       </c>
       <c r="D37" t="n">
-        <v>124700</v>
+        <v>127000</v>
       </c>
       <c r="E37" t="n">
-        <v>124600</v>
+        <v>127000</v>
       </c>
       <c r="F37" t="n">
-        <v>15.7</v>
+        <v>1.0823</v>
       </c>
       <c r="G37" t="n">
-        <v>-324.1738087899999</v>
+        <v>-341.76866172</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1890,14 +1722,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1908,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>125100</v>
+        <v>126900</v>
       </c>
       <c r="C38" t="n">
-        <v>125500</v>
+        <v>126600</v>
       </c>
       <c r="D38" t="n">
-        <v>125500</v>
+        <v>126900</v>
       </c>
       <c r="E38" t="n">
-        <v>125100</v>
+        <v>126600</v>
       </c>
       <c r="F38" t="n">
-        <v>0.03595888</v>
+        <v>9.7433</v>
       </c>
       <c r="G38" t="n">
-        <v>-324.1378499099999</v>
+        <v>-351.51196172</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1932,14 +1758,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>125000</v>
+        <v>126900</v>
       </c>
       <c r="C39" t="n">
-        <v>125000</v>
+        <v>127000</v>
       </c>
       <c r="D39" t="n">
-        <v>125000</v>
+        <v>127000</v>
       </c>
       <c r="E39" t="n">
-        <v>125000</v>
+        <v>126900</v>
       </c>
       <c r="F39" t="n">
-        <v>15</v>
+        <v>0.4745</v>
       </c>
       <c r="G39" t="n">
-        <v>-339.1378499099999</v>
+        <v>-351.03746172</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1974,14 +1794,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1992,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>125500</v>
+        <v>126700</v>
       </c>
       <c r="C40" t="n">
-        <v>126000</v>
+        <v>126700</v>
       </c>
       <c r="D40" t="n">
-        <v>126000</v>
+        <v>126700</v>
       </c>
       <c r="E40" t="n">
-        <v>125500</v>
+        <v>126700</v>
       </c>
       <c r="F40" t="n">
-        <v>6.0398</v>
+        <v>0.919</v>
       </c>
       <c r="G40" t="n">
-        <v>-333.0980499099999</v>
+        <v>-351.95646172</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2016,14 +1830,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2034,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>126000</v>
+        <v>126700</v>
       </c>
       <c r="C41" t="n">
-        <v>126100</v>
+        <v>126700</v>
       </c>
       <c r="D41" t="n">
-        <v>126100</v>
+        <v>126700</v>
       </c>
       <c r="E41" t="n">
-        <v>126000</v>
+        <v>126700</v>
       </c>
       <c r="F41" t="n">
-        <v>0.51</v>
+        <v>2.2281</v>
       </c>
       <c r="G41" t="n">
-        <v>-332.5880499099999</v>
+        <v>-351.95646172</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2058,14 +1866,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2076,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>125900</v>
+        <v>126300</v>
       </c>
       <c r="C42" t="n">
-        <v>125900</v>
+        <v>126300</v>
       </c>
       <c r="D42" t="n">
-        <v>125900</v>
+        <v>126300</v>
       </c>
       <c r="E42" t="n">
-        <v>125900</v>
+        <v>126300</v>
       </c>
       <c r="F42" t="n">
-        <v>1.406</v>
+        <v>7</v>
       </c>
       <c r="G42" t="n">
-        <v>-333.9940499099999</v>
+        <v>-358.95646172</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2100,14 +1902,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2118,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>125800</v>
+        <v>126500</v>
       </c>
       <c r="C43" t="n">
-        <v>125800</v>
+        <v>126400</v>
       </c>
       <c r="D43" t="n">
-        <v>125800</v>
+        <v>126500</v>
       </c>
       <c r="E43" t="n">
-        <v>125800</v>
+        <v>126400</v>
       </c>
       <c r="F43" t="n">
-        <v>3.2727</v>
+        <v>20.625</v>
       </c>
       <c r="G43" t="n">
-        <v>-337.2667499099999</v>
+        <v>-338.33146172</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2142,14 +1938,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2160,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>125800</v>
+        <v>126500</v>
       </c>
       <c r="C44" t="n">
-        <v>125800</v>
+        <v>126500</v>
       </c>
       <c r="D44" t="n">
-        <v>125800</v>
+        <v>126500</v>
       </c>
       <c r="E44" t="n">
-        <v>125800</v>
+        <v>126500</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8002</v>
+        <v>2.4984</v>
       </c>
       <c r="G44" t="n">
-        <v>-337.2667499099999</v>
+        <v>-335.83306172</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2184,14 +1974,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2202,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>125800</v>
+        <v>126500</v>
       </c>
       <c r="C45" t="n">
-        <v>125800</v>
+        <v>126500</v>
       </c>
       <c r="D45" t="n">
-        <v>125800</v>
+        <v>126500</v>
       </c>
       <c r="E45" t="n">
-        <v>125800</v>
+        <v>126500</v>
       </c>
       <c r="F45" t="n">
-        <v>1.3435</v>
+        <v>0.0049</v>
       </c>
       <c r="G45" t="n">
-        <v>-337.2667499099999</v>
+        <v>-335.83306172</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2226,14 +2010,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2244,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>126100</v>
+        <v>126500</v>
       </c>
       <c r="C46" t="n">
-        <v>126100</v>
+        <v>126500</v>
       </c>
       <c r="D46" t="n">
-        <v>126100</v>
+        <v>126500</v>
       </c>
       <c r="E46" t="n">
-        <v>126100</v>
+        <v>126500</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>6.6586</v>
       </c>
       <c r="G46" t="n">
-        <v>-335.2667499099999</v>
+        <v>-335.83306172</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2268,14 +2046,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2286,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>125400</v>
+        <v>126500</v>
       </c>
       <c r="C47" t="n">
-        <v>125400</v>
+        <v>126500</v>
       </c>
       <c r="D47" t="n">
-        <v>125400</v>
+        <v>126500</v>
       </c>
       <c r="E47" t="n">
-        <v>125400</v>
+        <v>126500</v>
       </c>
       <c r="F47" t="n">
-        <v>17.1839</v>
+        <v>35.9</v>
       </c>
       <c r="G47" t="n">
-        <v>-352.4506499099999</v>
+        <v>-335.83306172</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2310,14 +2082,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2328,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>125800</v>
+        <v>126300</v>
       </c>
       <c r="C48" t="n">
-        <v>125800</v>
+        <v>126300</v>
       </c>
       <c r="D48" t="n">
-        <v>125800</v>
+        <v>126300</v>
       </c>
       <c r="E48" t="n">
-        <v>125800</v>
+        <v>126300</v>
       </c>
       <c r="F48" t="n">
-        <v>1.0266</v>
+        <v>0.1636</v>
       </c>
       <c r="G48" t="n">
-        <v>-351.4240499099999</v>
+        <v>-335.99666172</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2352,14 +2118,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2370,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>126000</v>
+        <v>126300</v>
       </c>
       <c r="C49" t="n">
-        <v>126000</v>
+        <v>126300</v>
       </c>
       <c r="D49" t="n">
-        <v>126000</v>
+        <v>126300</v>
       </c>
       <c r="E49" t="n">
-        <v>126000</v>
+        <v>126300</v>
       </c>
       <c r="F49" t="n">
-        <v>37.2863</v>
+        <v>0.7343</v>
       </c>
       <c r="G49" t="n">
-        <v>-314.1377499099999</v>
+        <v>-335.99666172</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2394,14 +2154,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2412,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>126000</v>
+        <v>125900</v>
       </c>
       <c r="C50" t="n">
-        <v>126000</v>
+        <v>125900</v>
       </c>
       <c r="D50" t="n">
-        <v>126000</v>
+        <v>125900</v>
       </c>
       <c r="E50" t="n">
-        <v>126000</v>
+        <v>125900</v>
       </c>
       <c r="F50" t="n">
-        <v>38.0241</v>
+        <v>1.019</v>
       </c>
       <c r="G50" t="n">
-        <v>-314.1377499099999</v>
+        <v>-337.01566172</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2436,14 +2190,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2454,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>126000</v>
+        <v>126300</v>
       </c>
       <c r="C51" t="n">
-        <v>126000</v>
+        <v>126300</v>
       </c>
       <c r="D51" t="n">
-        <v>126000</v>
+        <v>126300</v>
       </c>
       <c r="E51" t="n">
-        <v>126000</v>
+        <v>126300</v>
       </c>
       <c r="F51" t="n">
-        <v>33.976</v>
+        <v>1.0414</v>
       </c>
       <c r="G51" t="n">
-        <v>-314.1377499099999</v>
+        <v>-335.97426172</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2478,14 +2226,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2496,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>125700</v>
+        <v>126300</v>
       </c>
       <c r="C52" t="n">
-        <v>125500</v>
+        <v>126300</v>
       </c>
       <c r="D52" t="n">
-        <v>125700</v>
+        <v>126300</v>
       </c>
       <c r="E52" t="n">
-        <v>125500</v>
+        <v>126300</v>
       </c>
       <c r="F52" t="n">
-        <v>24.0013</v>
+        <v>0.1498</v>
       </c>
       <c r="G52" t="n">
-        <v>-338.1390499099999</v>
+        <v>-335.97426172</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2520,14 +2262,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2538,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>125500</v>
+        <v>126500</v>
       </c>
       <c r="C53" t="n">
-        <v>125500</v>
+        <v>126500</v>
       </c>
       <c r="D53" t="n">
-        <v>125500</v>
+        <v>126500</v>
       </c>
       <c r="E53" t="n">
-        <v>125500</v>
+        <v>126500</v>
       </c>
       <c r="F53" t="n">
-        <v>18.1302</v>
+        <v>2.2013</v>
       </c>
       <c r="G53" t="n">
-        <v>-338.1390499099999</v>
+        <v>-333.77296172</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2562,14 +2298,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2580,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>126000</v>
+        <v>126300</v>
       </c>
       <c r="C54" t="n">
-        <v>126000</v>
+        <v>126300</v>
       </c>
       <c r="D54" t="n">
-        <v>126000</v>
+        <v>126300</v>
       </c>
       <c r="E54" t="n">
-        <v>126000</v>
+        <v>126300</v>
       </c>
       <c r="F54" t="n">
-        <v>0.03253968</v>
+        <v>38.0492</v>
       </c>
       <c r="G54" t="n">
-        <v>-338.1065102299999</v>
+        <v>-371.8221617199999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2604,14 +2334,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2622,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>126000</v>
+        <v>126300</v>
       </c>
       <c r="C55" t="n">
-        <v>126200</v>
+        <v>126500</v>
       </c>
       <c r="D55" t="n">
-        <v>126200</v>
+        <v>126500</v>
       </c>
       <c r="E55" t="n">
-        <v>126000</v>
+        <v>126300</v>
       </c>
       <c r="F55" t="n">
-        <v>31.04816032</v>
+        <v>2.8914</v>
       </c>
       <c r="G55" t="n">
-        <v>-307.0583499099999</v>
+        <v>-368.93076172</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2646,14 +2370,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2676,10 +2394,10 @@
         <v>126400</v>
       </c>
       <c r="F56" t="n">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>-306.4283499099999</v>
+        <v>-369.93076172</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2688,14 +2406,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2706,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>126400</v>
+        <v>126000</v>
       </c>
       <c r="C57" t="n">
-        <v>126400</v>
+        <v>126000</v>
       </c>
       <c r="D57" t="n">
-        <v>126400</v>
+        <v>126000</v>
       </c>
       <c r="E57" t="n">
-        <v>126400</v>
+        <v>126000</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0394</v>
+        <v>1.008</v>
       </c>
       <c r="G57" t="n">
-        <v>-306.4283499099999</v>
+        <v>-370.9387617199999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2730,14 +2442,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2748,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>127000</v>
+        <v>125500</v>
       </c>
       <c r="C58" t="n">
-        <v>127000</v>
+        <v>125300</v>
       </c>
       <c r="D58" t="n">
-        <v>127000</v>
+        <v>125500</v>
       </c>
       <c r="E58" t="n">
-        <v>127000</v>
+        <v>125100</v>
       </c>
       <c r="F58" t="n">
-        <v>0.03499212</v>
+        <v>3.21</v>
       </c>
       <c r="G58" t="n">
-        <v>-306.3933577899999</v>
+        <v>-374.1487617199999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2772,14 +2478,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>124100</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2790,36 +2490,36 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>127000</v>
+        <v>125100</v>
       </c>
       <c r="C59" t="n">
-        <v>127000</v>
+        <v>125000</v>
       </c>
       <c r="D59" t="n">
-        <v>127000</v>
+        <v>125100</v>
       </c>
       <c r="E59" t="n">
-        <v>127000</v>
+        <v>125000</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1959</v>
+        <v>8.228899999999999</v>
       </c>
       <c r="G59" t="n">
-        <v>-306.3933577899999</v>
+        <v>-382.3776617199999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>124100</v>
-      </c>
+      <c r="J59" t="n">
+        <v>125300</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M59" t="n">
@@ -2832,33 +2532,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>127000</v>
+        <v>124600</v>
       </c>
       <c r="C60" t="n">
-        <v>127000</v>
+        <v>124700</v>
       </c>
       <c r="D60" t="n">
-        <v>127000</v>
+        <v>124700</v>
       </c>
       <c r="E60" t="n">
-        <v>127000</v>
+        <v>124600</v>
       </c>
       <c r="F60" t="n">
-        <v>2.914</v>
+        <v>1.9242</v>
       </c>
       <c r="G60" t="n">
-        <v>-306.3933577899999</v>
+        <v>-384.3018617199999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>124100</v>
-      </c>
+      <c r="J60" t="n">
+        <v>125000</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2874,33 +2574,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>127000</v>
+        <v>124600</v>
       </c>
       <c r="C61" t="n">
-        <v>127000</v>
+        <v>124600</v>
       </c>
       <c r="D61" t="n">
-        <v>127000</v>
+        <v>124600</v>
       </c>
       <c r="E61" t="n">
-        <v>127000</v>
+        <v>124600</v>
       </c>
       <c r="F61" t="n">
-        <v>20.0379</v>
+        <v>39.3881</v>
       </c>
       <c r="G61" t="n">
-        <v>-306.3933577899999</v>
+        <v>-423.6899617199999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>124100</v>
-      </c>
+      <c r="J61" t="n">
+        <v>124700</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2916,33 +2616,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>127000</v>
+        <v>124600</v>
       </c>
       <c r="C62" t="n">
-        <v>127300</v>
+        <v>124600</v>
       </c>
       <c r="D62" t="n">
-        <v>127300</v>
+        <v>124600</v>
       </c>
       <c r="E62" t="n">
-        <v>127000</v>
+        <v>124600</v>
       </c>
       <c r="F62" t="n">
-        <v>6.8736</v>
+        <v>3.0394</v>
       </c>
       <c r="G62" t="n">
-        <v>-299.5197577899999</v>
+        <v>-423.6899617199999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>124100</v>
-      </c>
+      <c r="J62" t="n">
+        <v>124600</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2958,33 +2658,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>127300</v>
+        <v>124300</v>
       </c>
       <c r="C63" t="n">
-        <v>127700</v>
+        <v>124300</v>
       </c>
       <c r="D63" t="n">
-        <v>127700</v>
+        <v>124300</v>
       </c>
       <c r="E63" t="n">
-        <v>127300</v>
+        <v>124300</v>
       </c>
       <c r="F63" t="n">
-        <v>46.1934</v>
+        <v>1.8551</v>
       </c>
       <c r="G63" t="n">
-        <v>-253.3263577899999</v>
+        <v>-425.5450617199999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>124100</v>
-      </c>
+      <c r="J63" t="n">
+        <v>124600</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3000,33 +2700,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>127700</v>
+        <v>125400</v>
       </c>
       <c r="C64" t="n">
-        <v>127800</v>
+        <v>125400</v>
       </c>
       <c r="D64" t="n">
-        <v>127800</v>
+        <v>125400</v>
       </c>
       <c r="E64" t="n">
-        <v>127700</v>
+        <v>125400</v>
       </c>
       <c r="F64" t="n">
-        <v>12.7542</v>
+        <v>0.04429824</v>
       </c>
       <c r="G64" t="n">
-        <v>-240.5721577899999</v>
+        <v>-425.5007634799999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>124100</v>
-      </c>
+      <c r="J64" t="n">
+        <v>124300</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3042,33 +2742,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>127800</v>
+        <v>125400</v>
       </c>
       <c r="C65" t="n">
-        <v>127800</v>
+        <v>125400</v>
       </c>
       <c r="D65" t="n">
-        <v>127800</v>
+        <v>125400</v>
       </c>
       <c r="E65" t="n">
-        <v>127800</v>
+        <v>125400</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0622</v>
+        <v>1.9624</v>
       </c>
       <c r="G65" t="n">
-        <v>-240.5721577899999</v>
+        <v>-425.5007634799999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>124100</v>
-      </c>
+      <c r="J65" t="n">
+        <v>125400</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3084,33 +2784,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>127900</v>
+        <v>124900</v>
       </c>
       <c r="C66" t="n">
-        <v>129000</v>
+        <v>124900</v>
       </c>
       <c r="D66" t="n">
-        <v>129000</v>
+        <v>124900</v>
       </c>
       <c r="E66" t="n">
-        <v>127900</v>
+        <v>124900</v>
       </c>
       <c r="F66" t="n">
-        <v>24.1768</v>
+        <v>13.3229</v>
       </c>
       <c r="G66" t="n">
-        <v>-216.3953577899999</v>
+        <v>-438.8236634799999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>124100</v>
-      </c>
+      <c r="J66" t="n">
+        <v>125400</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3126,33 +2826,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>129000</v>
+        <v>124900</v>
       </c>
       <c r="C67" t="n">
-        <v>129000</v>
+        <v>125800</v>
       </c>
       <c r="D67" t="n">
-        <v>129000</v>
+        <v>125800</v>
       </c>
       <c r="E67" t="n">
-        <v>129000</v>
+        <v>124900</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0279</v>
+        <v>113.4723</v>
       </c>
       <c r="G67" t="n">
-        <v>-216.3953577899999</v>
+        <v>-325.3513634799999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>124100</v>
-      </c>
+      <c r="J67" t="n">
+        <v>124900</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3168,40 +2868,38 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>129000</v>
+        <v>124900</v>
       </c>
       <c r="C68" t="n">
-        <v>129000</v>
+        <v>124900</v>
       </c>
       <c r="D68" t="n">
-        <v>129000</v>
+        <v>124900</v>
       </c>
       <c r="E68" t="n">
-        <v>129000</v>
+        <v>124900</v>
       </c>
       <c r="F68" t="n">
-        <v>7.3908</v>
+        <v>1.8582</v>
       </c>
       <c r="G68" t="n">
-        <v>-216.3953577899999</v>
+        <v>-327.2095634799999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>124100</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>1.034484286865431</v>
+        <v>1</v>
       </c>
       <c r="N68" t="inlineStr"/>
     </row>
@@ -3210,32 +2908,36 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>128500</v>
+        <v>124800</v>
       </c>
       <c r="C69" t="n">
-        <v>129300</v>
+        <v>124800</v>
       </c>
       <c r="D69" t="n">
-        <v>129300</v>
+        <v>124800</v>
       </c>
       <c r="E69" t="n">
-        <v>128500</v>
+        <v>124800</v>
       </c>
       <c r="F69" t="n">
-        <v>3.1567</v>
+        <v>8.740600000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>-213.2386577899999</v>
+        <v>-335.9501634799999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3246,32 +2948,36 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>128500</v>
+        <v>125000</v>
       </c>
       <c r="C70" t="n">
-        <v>128500</v>
+        <v>124800</v>
       </c>
       <c r="D70" t="n">
-        <v>128500</v>
+        <v>125000</v>
       </c>
       <c r="E70" t="n">
-        <v>128500</v>
+        <v>124800</v>
       </c>
       <c r="F70" t="n">
-        <v>7</v>
+        <v>10.184</v>
       </c>
       <c r="G70" t="n">
-        <v>-220.2386577899999</v>
+        <v>-335.9501634799999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3282,32 +2988,38 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>128500</v>
+        <v>124700</v>
       </c>
       <c r="C71" t="n">
-        <v>128400</v>
+        <v>124700</v>
       </c>
       <c r="D71" t="n">
-        <v>128500</v>
+        <v>124700</v>
       </c>
       <c r="E71" t="n">
-        <v>128400</v>
+        <v>124700</v>
       </c>
       <c r="F71" t="n">
-        <v>54.3925</v>
+        <v>5.993</v>
       </c>
       <c r="G71" t="n">
-        <v>-274.6311577899999</v>
+        <v>-341.9431634799999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>124800</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3318,32 +3030,38 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>128100</v>
+        <v>124500</v>
       </c>
       <c r="C72" t="n">
-        <v>129200</v>
+        <v>124500</v>
       </c>
       <c r="D72" t="n">
-        <v>129200</v>
+        <v>124500</v>
       </c>
       <c r="E72" t="n">
-        <v>128100</v>
+        <v>124500</v>
       </c>
       <c r="F72" t="n">
-        <v>14.5</v>
+        <v>6</v>
       </c>
       <c r="G72" t="n">
-        <v>-260.1311577899999</v>
+        <v>-347.9431634799999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>124700</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3354,32 +3072,38 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>129300</v>
+        <v>124600</v>
       </c>
       <c r="C73" t="n">
-        <v>129300</v>
+        <v>124600</v>
       </c>
       <c r="D73" t="n">
-        <v>129300</v>
+        <v>124600</v>
       </c>
       <c r="E73" t="n">
-        <v>128900</v>
+        <v>124600</v>
       </c>
       <c r="F73" t="n">
-        <v>4.8274621</v>
+        <v>1.0013</v>
       </c>
       <c r="G73" t="n">
-        <v>-255.3036956899999</v>
+        <v>-346.9418634799999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>124500</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3390,32 +3114,38 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>128800</v>
+        <v>124600</v>
       </c>
       <c r="C74" t="n">
-        <v>128800</v>
+        <v>124600</v>
       </c>
       <c r="D74" t="n">
-        <v>128800</v>
+        <v>124600</v>
       </c>
       <c r="E74" t="n">
-        <v>128800</v>
+        <v>124600</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>0.7249</v>
       </c>
       <c r="G74" t="n">
-        <v>-257.3036956899999</v>
+        <v>-346.9418634799999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>124600</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3426,32 +3156,38 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>128000</v>
+        <v>124500</v>
       </c>
       <c r="C75" t="n">
-        <v>127900</v>
+        <v>124500</v>
       </c>
       <c r="D75" t="n">
-        <v>128000</v>
+        <v>124500</v>
       </c>
       <c r="E75" t="n">
-        <v>127900</v>
+        <v>124500</v>
       </c>
       <c r="F75" t="n">
-        <v>11.811</v>
+        <v>2.659</v>
       </c>
       <c r="G75" t="n">
-        <v>-269.1146956899998</v>
+        <v>-349.6008634799999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>124600</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3462,32 +3198,38 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>127200</v>
+        <v>124700</v>
       </c>
       <c r="C76" t="n">
-        <v>127000</v>
+        <v>125000</v>
       </c>
       <c r="D76" t="n">
-        <v>127200</v>
+        <v>125000</v>
       </c>
       <c r="E76" t="n">
-        <v>127000</v>
+        <v>124600</v>
       </c>
       <c r="F76" t="n">
-        <v>11</v>
+        <v>8.635999999999999</v>
       </c>
       <c r="G76" t="n">
-        <v>-280.1146956899998</v>
+        <v>-340.9648634799998</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>124500</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3498,32 +3240,38 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>127000</v>
+        <v>124600</v>
       </c>
       <c r="C77" t="n">
-        <v>127000</v>
+        <v>124700</v>
       </c>
       <c r="D77" t="n">
-        <v>127000</v>
+        <v>124700</v>
       </c>
       <c r="E77" t="n">
-        <v>127000</v>
+        <v>124600</v>
       </c>
       <c r="F77" t="n">
-        <v>1.0318</v>
+        <v>0.8704</v>
       </c>
       <c r="G77" t="n">
-        <v>-280.1146956899998</v>
+        <v>-341.8352634799999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>125000</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3534,32 +3282,38 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>127400</v>
+        <v>124700</v>
       </c>
       <c r="C78" t="n">
-        <v>127400</v>
+        <v>124700</v>
       </c>
       <c r="D78" t="n">
-        <v>127400</v>
+        <v>124700</v>
       </c>
       <c r="E78" t="n">
-        <v>127400</v>
+        <v>124700</v>
       </c>
       <c r="F78" t="n">
-        <v>0.03575353</v>
+        <v>1.646</v>
       </c>
       <c r="G78" t="n">
-        <v>-280.0789421599998</v>
+        <v>-341.8352634799999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>124700</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3570,32 +3324,38 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>126700</v>
+        <v>124800</v>
       </c>
       <c r="C79" t="n">
-        <v>126600</v>
+        <v>124800</v>
       </c>
       <c r="D79" t="n">
-        <v>126700</v>
+        <v>124800</v>
       </c>
       <c r="E79" t="n">
-        <v>126600</v>
+        <v>124800</v>
       </c>
       <c r="F79" t="n">
-        <v>2.8436</v>
+        <v>0.2675</v>
       </c>
       <c r="G79" t="n">
-        <v>-282.9225421599998</v>
+        <v>-341.5677634799999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>124700</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3606,32 +3366,38 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>126800</v>
+        <v>124800</v>
       </c>
       <c r="C80" t="n">
-        <v>127400</v>
+        <v>124800</v>
       </c>
       <c r="D80" t="n">
-        <v>127400</v>
+        <v>124800</v>
       </c>
       <c r="E80" t="n">
-        <v>126800</v>
+        <v>124800</v>
       </c>
       <c r="F80" t="n">
-        <v>22.3768</v>
+        <v>0.2</v>
       </c>
       <c r="G80" t="n">
-        <v>-260.5457421599998</v>
+        <v>-341.5677634799999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>124800</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3642,32 +3408,38 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>126900</v>
+        <v>124800</v>
       </c>
       <c r="C81" t="n">
-        <v>127100</v>
+        <v>124800</v>
       </c>
       <c r="D81" t="n">
-        <v>127100</v>
+        <v>124800</v>
       </c>
       <c r="E81" t="n">
-        <v>126900</v>
+        <v>124800</v>
       </c>
       <c r="F81" t="n">
-        <v>23.90964138</v>
+        <v>0.8002</v>
       </c>
       <c r="G81" t="n">
-        <v>-284.4553835399998</v>
+        <v>-341.5677634799999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>124800</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3678,32 +3450,38 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>126400</v>
+        <v>124800</v>
       </c>
       <c r="C82" t="n">
-        <v>126400</v>
+        <v>124800</v>
       </c>
       <c r="D82" t="n">
-        <v>126400</v>
+        <v>124800</v>
       </c>
       <c r="E82" t="n">
-        <v>126400</v>
+        <v>124800</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8355</v>
+        <v>0.4221</v>
       </c>
       <c r="G82" t="n">
-        <v>-285.2908835399998</v>
+        <v>-341.5677634799999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>124800</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3714,32 +3492,38 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>126400</v>
+        <v>124900</v>
       </c>
       <c r="C83" t="n">
-        <v>126400</v>
+        <v>124900</v>
       </c>
       <c r="D83" t="n">
-        <v>126400</v>
+        <v>124900</v>
       </c>
       <c r="E83" t="n">
-        <v>126400</v>
+        <v>124900</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1645</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>-285.2908835399998</v>
+        <v>-339.5677634799999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>124800</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3750,32 +3534,38 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>126900</v>
+        <v>124900</v>
       </c>
       <c r="C84" t="n">
-        <v>126900</v>
+        <v>124900</v>
       </c>
       <c r="D84" t="n">
-        <v>126900</v>
+        <v>124900</v>
       </c>
       <c r="E84" t="n">
-        <v>126900</v>
+        <v>124900</v>
       </c>
       <c r="F84" t="n">
-        <v>0.01750985</v>
+        <v>0.03202562</v>
       </c>
       <c r="G84" t="n">
-        <v>-285.2733736899998</v>
+        <v>-339.5677634799999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>124900</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3786,32 +3576,38 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>126500</v>
+        <v>124900</v>
       </c>
       <c r="C85" t="n">
-        <v>126500</v>
+        <v>124900</v>
       </c>
       <c r="D85" t="n">
-        <v>126500</v>
+        <v>124900</v>
       </c>
       <c r="E85" t="n">
-        <v>126500</v>
+        <v>124900</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5</v>
+        <v>0.613</v>
       </c>
       <c r="G85" t="n">
-        <v>-285.7733736899998</v>
+        <v>-339.5677634799999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>124900</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3822,32 +3618,38 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>126500</v>
+        <v>124700</v>
       </c>
       <c r="C86" t="n">
-        <v>126500</v>
+        <v>124700</v>
       </c>
       <c r="D86" t="n">
-        <v>126500</v>
+        <v>124700</v>
       </c>
       <c r="E86" t="n">
-        <v>126500</v>
+        <v>124700</v>
       </c>
       <c r="F86" t="n">
-        <v>11.659</v>
+        <v>0.0003</v>
       </c>
       <c r="G86" t="n">
-        <v>-285.7733736899998</v>
+        <v>-339.5680634799999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>124900</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3858,32 +3660,38 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>126500</v>
+        <v>124200</v>
       </c>
       <c r="C87" t="n">
-        <v>126500</v>
+        <v>124200</v>
       </c>
       <c r="D87" t="n">
-        <v>126500</v>
+        <v>124200</v>
       </c>
       <c r="E87" t="n">
-        <v>126500</v>
+        <v>124200</v>
       </c>
       <c r="F87" t="n">
-        <v>28.6669</v>
+        <v>3.709</v>
       </c>
       <c r="G87" t="n">
-        <v>-285.7733736899998</v>
+        <v>-343.2770634799999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>124700</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3894,32 +3702,38 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>126500</v>
+        <v>124100</v>
       </c>
       <c r="C88" t="n">
-        <v>126500</v>
+        <v>124100</v>
       </c>
       <c r="D88" t="n">
-        <v>126500</v>
+        <v>124100</v>
       </c>
       <c r="E88" t="n">
-        <v>126500</v>
+        <v>124100</v>
       </c>
       <c r="F88" t="n">
-        <v>0.07870000000000001</v>
+        <v>1.051</v>
       </c>
       <c r="G88" t="n">
-        <v>-285.7733736899998</v>
+        <v>-344.3280634799999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>124200</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3930,32 +3744,38 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>126300</v>
+        <v>124200</v>
       </c>
       <c r="C89" t="n">
-        <v>126300</v>
+        <v>124200</v>
       </c>
       <c r="D89" t="n">
-        <v>126300</v>
+        <v>124200</v>
       </c>
       <c r="E89" t="n">
-        <v>126300</v>
+        <v>124200</v>
       </c>
       <c r="F89" t="n">
-        <v>32.3186</v>
+        <v>0.245</v>
       </c>
       <c r="G89" t="n">
-        <v>-318.0919736899998</v>
+        <v>-344.0830634799999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>124100</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3966,32 +3786,38 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>126300</v>
+        <v>124400</v>
       </c>
       <c r="C90" t="n">
-        <v>126400</v>
+        <v>124300</v>
       </c>
       <c r="D90" t="n">
-        <v>126400</v>
+        <v>124400</v>
       </c>
       <c r="E90" t="n">
-        <v>126300</v>
+        <v>124000</v>
       </c>
       <c r="F90" t="n">
-        <v>1.63976867</v>
+        <v>19.181</v>
       </c>
       <c r="G90" t="n">
-        <v>-316.4522050199998</v>
+        <v>-324.9020634799999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>124200</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4002,32 +3828,38 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>126100</v>
+        <v>124200</v>
       </c>
       <c r="C91" t="n">
-        <v>126100</v>
+        <v>124100</v>
       </c>
       <c r="D91" t="n">
-        <v>126100</v>
+        <v>124200</v>
       </c>
       <c r="E91" t="n">
-        <v>126100</v>
+        <v>124100</v>
       </c>
       <c r="F91" t="n">
-        <v>0.51</v>
+        <v>6.291</v>
       </c>
       <c r="G91" t="n">
-        <v>-316.9622050199998</v>
+        <v>-331.1930634799999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>124300</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4038,32 +3870,38 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>125700</v>
+        <v>124000</v>
       </c>
       <c r="C92" t="n">
-        <v>125700</v>
+        <v>124000</v>
       </c>
       <c r="D92" t="n">
-        <v>125700</v>
+        <v>124000</v>
       </c>
       <c r="E92" t="n">
-        <v>125700</v>
+        <v>124000</v>
       </c>
       <c r="F92" t="n">
-        <v>0.63</v>
+        <v>16.026</v>
       </c>
       <c r="G92" t="n">
-        <v>-317.5922050199998</v>
+        <v>-347.2190634799999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>124100</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4074,32 +3912,38 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>125900</v>
+        <v>123800</v>
       </c>
       <c r="C93" t="n">
-        <v>125900</v>
+        <v>124600</v>
       </c>
       <c r="D93" t="n">
-        <v>125900</v>
+        <v>124600</v>
       </c>
       <c r="E93" t="n">
-        <v>125900</v>
+        <v>123800</v>
       </c>
       <c r="F93" t="n">
-        <v>1.3863</v>
+        <v>57.942</v>
       </c>
       <c r="G93" t="n">
-        <v>-316.2059050199998</v>
+        <v>-289.2770634799999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>124000</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4110,32 +3954,38 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>126000</v>
+        <v>123800</v>
       </c>
       <c r="C94" t="n">
-        <v>126000</v>
+        <v>123800</v>
       </c>
       <c r="D94" t="n">
-        <v>126000</v>
+        <v>123800</v>
       </c>
       <c r="E94" t="n">
-        <v>126000</v>
+        <v>123800</v>
       </c>
       <c r="F94" t="n">
-        <v>0.01763492</v>
+        <v>0.518</v>
       </c>
       <c r="G94" t="n">
-        <v>-316.1882700999998</v>
+        <v>-289.7950634799998</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>124600</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4146,32 +3996,38 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>125600</v>
+        <v>123800</v>
       </c>
       <c r="C95" t="n">
-        <v>125800</v>
+        <v>123800</v>
       </c>
       <c r="D95" t="n">
-        <v>125800</v>
+        <v>123800</v>
       </c>
       <c r="E95" t="n">
-        <v>125600</v>
+        <v>123800</v>
       </c>
       <c r="F95" t="n">
-        <v>6.4408</v>
+        <v>15.558</v>
       </c>
       <c r="G95" t="n">
-        <v>-322.6290700999998</v>
+        <v>-289.7950634799998</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>123800</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4182,22 +4038,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>126100</v>
+        <v>124600</v>
       </c>
       <c r="C96" t="n">
-        <v>126100</v>
+        <v>124600</v>
       </c>
       <c r="D96" t="n">
-        <v>126100</v>
+        <v>124600</v>
       </c>
       <c r="E96" t="n">
-        <v>126100</v>
+        <v>124600</v>
       </c>
       <c r="F96" t="n">
-        <v>3.96510705</v>
+        <v>0.6486</v>
       </c>
       <c r="G96" t="n">
-        <v>-318.6639630499998</v>
+        <v>-289.1464634799999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4207,7 +4063,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4218,22 +4078,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>125800</v>
+        <v>123800</v>
       </c>
       <c r="C97" t="n">
-        <v>125800</v>
+        <v>123800</v>
       </c>
       <c r="D97" t="n">
-        <v>125800</v>
+        <v>123800</v>
       </c>
       <c r="E97" t="n">
-        <v>125800</v>
+        <v>123800</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3423</v>
+        <v>0.2479</v>
       </c>
       <c r="G97" t="n">
-        <v>-319.0062630499999</v>
+        <v>-289.3943634799999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4243,7 +4103,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4254,22 +4118,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>125400</v>
+        <v>123000</v>
       </c>
       <c r="C98" t="n">
-        <v>125100</v>
+        <v>123000</v>
       </c>
       <c r="D98" t="n">
-        <v>125400</v>
+        <v>123000</v>
       </c>
       <c r="E98" t="n">
-        <v>125100</v>
+        <v>123000</v>
       </c>
       <c r="F98" t="n">
-        <v>3.5</v>
+        <v>0.2494</v>
       </c>
       <c r="G98" t="n">
-        <v>-322.5062630499999</v>
+        <v>-289.6437634799998</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4279,7 +4143,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4290,22 +4158,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>125300</v>
+        <v>123000</v>
       </c>
       <c r="C99" t="n">
-        <v>125300</v>
+        <v>123000</v>
       </c>
       <c r="D99" t="n">
-        <v>125300</v>
+        <v>123000</v>
       </c>
       <c r="E99" t="n">
-        <v>125300</v>
+        <v>123000</v>
       </c>
       <c r="F99" t="n">
-        <v>0.79</v>
+        <v>0.9733000000000001</v>
       </c>
       <c r="G99" t="n">
-        <v>-321.7162630499998</v>
+        <v>-289.6437634799998</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4315,7 +4183,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4326,22 +4198,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>125300</v>
+        <v>123600</v>
       </c>
       <c r="C100" t="n">
-        <v>125300</v>
+        <v>123600</v>
       </c>
       <c r="D100" t="n">
-        <v>125300</v>
+        <v>123600</v>
       </c>
       <c r="E100" t="n">
-        <v>125300</v>
+        <v>123600</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2</v>
+        <v>0.03595469</v>
       </c>
       <c r="G100" t="n">
-        <v>-321.7162630499998</v>
+        <v>-289.6078087899999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4351,7 +4223,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4362,32 +4238,38 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>125200</v>
+        <v>123500</v>
       </c>
       <c r="C101" t="n">
-        <v>125200</v>
+        <v>123500</v>
       </c>
       <c r="D101" t="n">
-        <v>125200</v>
+        <v>123500</v>
       </c>
       <c r="E101" t="n">
-        <v>125200</v>
+        <v>123500</v>
       </c>
       <c r="F101" t="n">
-        <v>5.1638</v>
+        <v>43.0708</v>
       </c>
       <c r="G101" t="n">
-        <v>-326.8800630499998</v>
+        <v>-332.6786087899999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>123600</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4398,22 +4280,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>125200</v>
+        <v>123500</v>
       </c>
       <c r="C102" t="n">
-        <v>125200</v>
+        <v>123600</v>
       </c>
       <c r="D102" t="n">
-        <v>125200</v>
+        <v>123600</v>
       </c>
       <c r="E102" t="n">
-        <v>125200</v>
+        <v>123500</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>32.4738</v>
       </c>
       <c r="G102" t="n">
-        <v>-326.8800630499998</v>
+        <v>-300.2048087899999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4423,7 +4305,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4434,22 +4320,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>126000</v>
+        <v>123500</v>
       </c>
       <c r="C103" t="n">
-        <v>126000</v>
+        <v>123500</v>
       </c>
       <c r="D103" t="n">
-        <v>126000</v>
+        <v>123500</v>
       </c>
       <c r="E103" t="n">
-        <v>126000</v>
+        <v>123500</v>
       </c>
       <c r="F103" t="n">
-        <v>2</v>
+        <v>11.0963</v>
       </c>
       <c r="G103" t="n">
-        <v>-324.8800630499998</v>
+        <v>-311.3011087899999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4459,7 +4345,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4470,22 +4360,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>125600</v>
+        <v>123500</v>
       </c>
       <c r="C104" t="n">
-        <v>125600</v>
+        <v>123500</v>
       </c>
       <c r="D104" t="n">
-        <v>125600</v>
+        <v>123500</v>
       </c>
       <c r="E104" t="n">
-        <v>125600</v>
+        <v>123500</v>
       </c>
       <c r="F104" t="n">
-        <v>0.472</v>
+        <v>0.4595</v>
       </c>
       <c r="G104" t="n">
-        <v>-325.3520630499998</v>
+        <v>-311.3011087899999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4495,7 +4385,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4506,32 +4400,38 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>125600</v>
+        <v>123500</v>
       </c>
       <c r="C105" t="n">
-        <v>125300</v>
+        <v>123500</v>
       </c>
       <c r="D105" t="n">
-        <v>125600</v>
+        <v>123500</v>
       </c>
       <c r="E105" t="n">
-        <v>125300</v>
+        <v>123500</v>
       </c>
       <c r="F105" t="n">
-        <v>6.1</v>
+        <v>0.468</v>
       </c>
       <c r="G105" t="n">
-        <v>-331.4520630499998</v>
+        <v>-311.3011087899999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>123500</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4542,22 +4442,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>125800</v>
+        <v>124600</v>
       </c>
       <c r="C106" t="n">
-        <v>125800</v>
+        <v>124600</v>
       </c>
       <c r="D106" t="n">
-        <v>125800</v>
+        <v>124600</v>
       </c>
       <c r="E106" t="n">
-        <v>125800</v>
+        <v>124600</v>
       </c>
       <c r="F106" t="n">
-        <v>5.4719</v>
+        <v>1.8049</v>
       </c>
       <c r="G106" t="n">
-        <v>-325.9801630499998</v>
+        <v>-309.4962087899999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4567,7 +4467,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4578,22 +4482,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>125300</v>
+        <v>124600</v>
       </c>
       <c r="C107" t="n">
-        <v>125200</v>
+        <v>125000</v>
       </c>
       <c r="D107" t="n">
-        <v>125300</v>
+        <v>125000</v>
       </c>
       <c r="E107" t="n">
-        <v>125200</v>
+        <v>124600</v>
       </c>
       <c r="F107" t="n">
-        <v>3.3416</v>
+        <v>1.0224</v>
       </c>
       <c r="G107" t="n">
-        <v>-329.3217630499998</v>
+        <v>-308.4738087899999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4603,7 +4507,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4614,22 +4522,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>125200</v>
+        <v>124700</v>
       </c>
       <c r="C108" t="n">
-        <v>125200</v>
+        <v>124600</v>
       </c>
       <c r="D108" t="n">
-        <v>125200</v>
+        <v>124700</v>
       </c>
       <c r="E108" t="n">
-        <v>125200</v>
+        <v>124600</v>
       </c>
       <c r="F108" t="n">
-        <v>4.138</v>
+        <v>15.7</v>
       </c>
       <c r="G108" t="n">
-        <v>-329.3217630499998</v>
+        <v>-324.1738087899999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4639,7 +4547,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4650,22 +4562,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>125000</v>
+        <v>125100</v>
       </c>
       <c r="C109" t="n">
-        <v>125000</v>
+        <v>125500</v>
       </c>
       <c r="D109" t="n">
-        <v>125000</v>
+        <v>125500</v>
       </c>
       <c r="E109" t="n">
-        <v>125000</v>
+        <v>125100</v>
       </c>
       <c r="F109" t="n">
-        <v>2.0498</v>
+        <v>0.03595888</v>
       </c>
       <c r="G109" t="n">
-        <v>-331.3715630499998</v>
+        <v>-324.1378499099999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4675,7 +4587,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4698,10 +4614,10 @@
         <v>125000</v>
       </c>
       <c r="F110" t="n">
-        <v>4.9001</v>
+        <v>15</v>
       </c>
       <c r="G110" t="n">
-        <v>-331.3715630499998</v>
+        <v>-339.1378499099999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4711,11 +4627,2707 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
       <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>125500</v>
+      </c>
+      <c r="C111" t="n">
+        <v>126000</v>
+      </c>
+      <c r="D111" t="n">
+        <v>126000</v>
+      </c>
+      <c r="E111" t="n">
+        <v>125500</v>
+      </c>
+      <c r="F111" t="n">
+        <v>6.0398</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-333.0980499099999</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>126000</v>
+      </c>
+      <c r="C112" t="n">
+        <v>126100</v>
+      </c>
+      <c r="D112" t="n">
+        <v>126100</v>
+      </c>
+      <c r="E112" t="n">
+        <v>126000</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-332.5880499099999</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>125900</v>
+      </c>
+      <c r="C113" t="n">
+        <v>125900</v>
+      </c>
+      <c r="D113" t="n">
+        <v>125900</v>
+      </c>
+      <c r="E113" t="n">
+        <v>125900</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1.406</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-333.9940499099999</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>125800</v>
+      </c>
+      <c r="C114" t="n">
+        <v>125800</v>
+      </c>
+      <c r="D114" t="n">
+        <v>125800</v>
+      </c>
+      <c r="E114" t="n">
+        <v>125800</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3.2727</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-337.2667499099999</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>125800</v>
+      </c>
+      <c r="C115" t="n">
+        <v>125800</v>
+      </c>
+      <c r="D115" t="n">
+        <v>125800</v>
+      </c>
+      <c r="E115" t="n">
+        <v>125800</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.8002</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-337.2667499099999</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>125800</v>
+      </c>
+      <c r="C116" t="n">
+        <v>125800</v>
+      </c>
+      <c r="D116" t="n">
+        <v>125800</v>
+      </c>
+      <c r="E116" t="n">
+        <v>125800</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.3435</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-337.2667499099999</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>126100</v>
+      </c>
+      <c r="C117" t="n">
+        <v>126100</v>
+      </c>
+      <c r="D117" t="n">
+        <v>126100</v>
+      </c>
+      <c r="E117" t="n">
+        <v>126100</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-335.2667499099999</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>125400</v>
+      </c>
+      <c r="C118" t="n">
+        <v>125400</v>
+      </c>
+      <c r="D118" t="n">
+        <v>125400</v>
+      </c>
+      <c r="E118" t="n">
+        <v>125400</v>
+      </c>
+      <c r="F118" t="n">
+        <v>17.1839</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-352.4506499099999</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>125800</v>
+      </c>
+      <c r="C119" t="n">
+        <v>125800</v>
+      </c>
+      <c r="D119" t="n">
+        <v>125800</v>
+      </c>
+      <c r="E119" t="n">
+        <v>125800</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1.0266</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-351.4240499099999</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>126000</v>
+      </c>
+      <c r="C120" t="n">
+        <v>126000</v>
+      </c>
+      <c r="D120" t="n">
+        <v>126000</v>
+      </c>
+      <c r="E120" t="n">
+        <v>126000</v>
+      </c>
+      <c r="F120" t="n">
+        <v>37.2863</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-314.1377499099999</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>126000</v>
+      </c>
+      <c r="C121" t="n">
+        <v>126000</v>
+      </c>
+      <c r="D121" t="n">
+        <v>126000</v>
+      </c>
+      <c r="E121" t="n">
+        <v>126000</v>
+      </c>
+      <c r="F121" t="n">
+        <v>38.0241</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-314.1377499099999</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>126000</v>
+      </c>
+      <c r="C122" t="n">
+        <v>126000</v>
+      </c>
+      <c r="D122" t="n">
+        <v>126000</v>
+      </c>
+      <c r="E122" t="n">
+        <v>126000</v>
+      </c>
+      <c r="F122" t="n">
+        <v>33.976</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-314.1377499099999</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>125700</v>
+      </c>
+      <c r="C123" t="n">
+        <v>125500</v>
+      </c>
+      <c r="D123" t="n">
+        <v>125700</v>
+      </c>
+      <c r="E123" t="n">
+        <v>125500</v>
+      </c>
+      <c r="F123" t="n">
+        <v>24.0013</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-338.1390499099999</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>125500</v>
+      </c>
+      <c r="C124" t="n">
+        <v>125500</v>
+      </c>
+      <c r="D124" t="n">
+        <v>125500</v>
+      </c>
+      <c r="E124" t="n">
+        <v>125500</v>
+      </c>
+      <c r="F124" t="n">
+        <v>18.1302</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-338.1390499099999</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>126000</v>
+      </c>
+      <c r="C125" t="n">
+        <v>126000</v>
+      </c>
+      <c r="D125" t="n">
+        <v>126000</v>
+      </c>
+      <c r="E125" t="n">
+        <v>126000</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.03253968</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-338.1065102299999</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>126000</v>
+      </c>
+      <c r="C126" t="n">
+        <v>126200</v>
+      </c>
+      <c r="D126" t="n">
+        <v>126200</v>
+      </c>
+      <c r="E126" t="n">
+        <v>126000</v>
+      </c>
+      <c r="F126" t="n">
+        <v>31.04816032</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-307.0583499099999</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>126400</v>
+      </c>
+      <c r="C127" t="n">
+        <v>126400</v>
+      </c>
+      <c r="D127" t="n">
+        <v>126400</v>
+      </c>
+      <c r="E127" t="n">
+        <v>126400</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-306.4283499099999</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>126400</v>
+      </c>
+      <c r="C128" t="n">
+        <v>126400</v>
+      </c>
+      <c r="D128" t="n">
+        <v>126400</v>
+      </c>
+      <c r="E128" t="n">
+        <v>126400</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.0394</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-306.4283499099999</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>127000</v>
+      </c>
+      <c r="C129" t="n">
+        <v>127000</v>
+      </c>
+      <c r="D129" t="n">
+        <v>127000</v>
+      </c>
+      <c r="E129" t="n">
+        <v>127000</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.03499212</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-306.3933577899999</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>127000</v>
+      </c>
+      <c r="C130" t="n">
+        <v>127000</v>
+      </c>
+      <c r="D130" t="n">
+        <v>127000</v>
+      </c>
+      <c r="E130" t="n">
+        <v>127000</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.1959</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-306.3933577899999</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>127000</v>
+      </c>
+      <c r="C131" t="n">
+        <v>127000</v>
+      </c>
+      <c r="D131" t="n">
+        <v>127000</v>
+      </c>
+      <c r="E131" t="n">
+        <v>127000</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-306.3933577899999</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>127000</v>
+      </c>
+      <c r="C132" t="n">
+        <v>127000</v>
+      </c>
+      <c r="D132" t="n">
+        <v>127000</v>
+      </c>
+      <c r="E132" t="n">
+        <v>127000</v>
+      </c>
+      <c r="F132" t="n">
+        <v>20.0379</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-306.3933577899999</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>127000</v>
+      </c>
+      <c r="C133" t="n">
+        <v>127300</v>
+      </c>
+      <c r="D133" t="n">
+        <v>127300</v>
+      </c>
+      <c r="E133" t="n">
+        <v>127000</v>
+      </c>
+      <c r="F133" t="n">
+        <v>6.8736</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-299.5197577899999</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>127300</v>
+      </c>
+      <c r="C134" t="n">
+        <v>127700</v>
+      </c>
+      <c r="D134" t="n">
+        <v>127700</v>
+      </c>
+      <c r="E134" t="n">
+        <v>127300</v>
+      </c>
+      <c r="F134" t="n">
+        <v>46.1934</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-253.3263577899999</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>127700</v>
+      </c>
+      <c r="C135" t="n">
+        <v>127800</v>
+      </c>
+      <c r="D135" t="n">
+        <v>127800</v>
+      </c>
+      <c r="E135" t="n">
+        <v>127700</v>
+      </c>
+      <c r="F135" t="n">
+        <v>12.7542</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-240.5721577899999</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>127800</v>
+      </c>
+      <c r="C136" t="n">
+        <v>127800</v>
+      </c>
+      <c r="D136" t="n">
+        <v>127800</v>
+      </c>
+      <c r="E136" t="n">
+        <v>127800</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.0622</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-240.5721577899999</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>127900</v>
+      </c>
+      <c r="C137" t="n">
+        <v>129000</v>
+      </c>
+      <c r="D137" t="n">
+        <v>129000</v>
+      </c>
+      <c r="E137" t="n">
+        <v>127900</v>
+      </c>
+      <c r="F137" t="n">
+        <v>24.1768</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-216.3953577899999</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>129000</v>
+      </c>
+      <c r="C138" t="n">
+        <v>129000</v>
+      </c>
+      <c r="D138" t="n">
+        <v>129000</v>
+      </c>
+      <c r="E138" t="n">
+        <v>129000</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.0279</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-216.3953577899999</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>129000</v>
+      </c>
+      <c r="C139" t="n">
+        <v>129000</v>
+      </c>
+      <c r="D139" t="n">
+        <v>129000</v>
+      </c>
+      <c r="E139" t="n">
+        <v>129000</v>
+      </c>
+      <c r="F139" t="n">
+        <v>7.3908</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-216.3953577899999</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>128500</v>
+      </c>
+      <c r="C140" t="n">
+        <v>129300</v>
+      </c>
+      <c r="D140" t="n">
+        <v>129300</v>
+      </c>
+      <c r="E140" t="n">
+        <v>128500</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3.1567</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-213.2386577899999</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>128500</v>
+      </c>
+      <c r="C141" t="n">
+        <v>128500</v>
+      </c>
+      <c r="D141" t="n">
+        <v>128500</v>
+      </c>
+      <c r="E141" t="n">
+        <v>128500</v>
+      </c>
+      <c r="F141" t="n">
+        <v>7</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-220.2386577899999</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>128500</v>
+      </c>
+      <c r="C142" t="n">
+        <v>128400</v>
+      </c>
+      <c r="D142" t="n">
+        <v>128500</v>
+      </c>
+      <c r="E142" t="n">
+        <v>128400</v>
+      </c>
+      <c r="F142" t="n">
+        <v>54.3925</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-274.6311577899999</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>128100</v>
+      </c>
+      <c r="C143" t="n">
+        <v>129200</v>
+      </c>
+      <c r="D143" t="n">
+        <v>129200</v>
+      </c>
+      <c r="E143" t="n">
+        <v>128100</v>
+      </c>
+      <c r="F143" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-260.1311577899999</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>129300</v>
+      </c>
+      <c r="C144" t="n">
+        <v>129300</v>
+      </c>
+      <c r="D144" t="n">
+        <v>129300</v>
+      </c>
+      <c r="E144" t="n">
+        <v>128900</v>
+      </c>
+      <c r="F144" t="n">
+        <v>4.8274621</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-255.3036956899999</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>128800</v>
+      </c>
+      <c r="C145" t="n">
+        <v>128800</v>
+      </c>
+      <c r="D145" t="n">
+        <v>128800</v>
+      </c>
+      <c r="E145" t="n">
+        <v>128800</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-257.3036956899999</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>128000</v>
+      </c>
+      <c r="C146" t="n">
+        <v>127900</v>
+      </c>
+      <c r="D146" t="n">
+        <v>128000</v>
+      </c>
+      <c r="E146" t="n">
+        <v>127900</v>
+      </c>
+      <c r="F146" t="n">
+        <v>11.811</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-269.1146956899998</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>127200</v>
+      </c>
+      <c r="C147" t="n">
+        <v>127000</v>
+      </c>
+      <c r="D147" t="n">
+        <v>127200</v>
+      </c>
+      <c r="E147" t="n">
+        <v>127000</v>
+      </c>
+      <c r="F147" t="n">
+        <v>11</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-280.1146956899998</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>127000</v>
+      </c>
+      <c r="C148" t="n">
+        <v>127000</v>
+      </c>
+      <c r="D148" t="n">
+        <v>127000</v>
+      </c>
+      <c r="E148" t="n">
+        <v>127000</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1.0318</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-280.1146956899998</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>127400</v>
+      </c>
+      <c r="C149" t="n">
+        <v>127400</v>
+      </c>
+      <c r="D149" t="n">
+        <v>127400</v>
+      </c>
+      <c r="E149" t="n">
+        <v>127400</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.03575353</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-280.0789421599998</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>126700</v>
+      </c>
+      <c r="C150" t="n">
+        <v>126600</v>
+      </c>
+      <c r="D150" t="n">
+        <v>126700</v>
+      </c>
+      <c r="E150" t="n">
+        <v>126600</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2.8436</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-282.9225421599998</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>126800</v>
+      </c>
+      <c r="C151" t="n">
+        <v>127400</v>
+      </c>
+      <c r="D151" t="n">
+        <v>127400</v>
+      </c>
+      <c r="E151" t="n">
+        <v>126800</v>
+      </c>
+      <c r="F151" t="n">
+        <v>22.3768</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-260.5457421599998</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>126900</v>
+      </c>
+      <c r="C152" t="n">
+        <v>127100</v>
+      </c>
+      <c r="D152" t="n">
+        <v>127100</v>
+      </c>
+      <c r="E152" t="n">
+        <v>126900</v>
+      </c>
+      <c r="F152" t="n">
+        <v>23.90964138</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-284.4553835399998</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>126400</v>
+      </c>
+      <c r="C153" t="n">
+        <v>126400</v>
+      </c>
+      <c r="D153" t="n">
+        <v>126400</v>
+      </c>
+      <c r="E153" t="n">
+        <v>126400</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.8355</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-285.2908835399998</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>126400</v>
+      </c>
+      <c r="C154" t="n">
+        <v>126400</v>
+      </c>
+      <c r="D154" t="n">
+        <v>126400</v>
+      </c>
+      <c r="E154" t="n">
+        <v>126400</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.1645</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-285.2908835399998</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>126900</v>
+      </c>
+      <c r="C155" t="n">
+        <v>126900</v>
+      </c>
+      <c r="D155" t="n">
+        <v>126900</v>
+      </c>
+      <c r="E155" t="n">
+        <v>126900</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.01750985</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-285.2733736899998</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>126500</v>
+      </c>
+      <c r="C156" t="n">
+        <v>126500</v>
+      </c>
+      <c r="D156" t="n">
+        <v>126500</v>
+      </c>
+      <c r="E156" t="n">
+        <v>126500</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-285.7733736899998</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>126500</v>
+      </c>
+      <c r="C157" t="n">
+        <v>126500</v>
+      </c>
+      <c r="D157" t="n">
+        <v>126500</v>
+      </c>
+      <c r="E157" t="n">
+        <v>126500</v>
+      </c>
+      <c r="F157" t="n">
+        <v>11.659</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-285.7733736899998</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>126500</v>
+      </c>
+      <c r="C158" t="n">
+        <v>126500</v>
+      </c>
+      <c r="D158" t="n">
+        <v>126500</v>
+      </c>
+      <c r="E158" t="n">
+        <v>126500</v>
+      </c>
+      <c r="F158" t="n">
+        <v>28.6669</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-285.7733736899998</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>126500</v>
+      </c>
+      <c r="C159" t="n">
+        <v>126500</v>
+      </c>
+      <c r="D159" t="n">
+        <v>126500</v>
+      </c>
+      <c r="E159" t="n">
+        <v>126500</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.07870000000000001</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-285.7733736899998</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>126300</v>
+      </c>
+      <c r="C160" t="n">
+        <v>126300</v>
+      </c>
+      <c r="D160" t="n">
+        <v>126300</v>
+      </c>
+      <c r="E160" t="n">
+        <v>126300</v>
+      </c>
+      <c r="F160" t="n">
+        <v>32.3186</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-318.0919736899998</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>126300</v>
+      </c>
+      <c r="C161" t="n">
+        <v>126400</v>
+      </c>
+      <c r="D161" t="n">
+        <v>126400</v>
+      </c>
+      <c r="E161" t="n">
+        <v>126300</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1.63976867</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-316.4522050199998</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>126100</v>
+      </c>
+      <c r="C162" t="n">
+        <v>126100</v>
+      </c>
+      <c r="D162" t="n">
+        <v>126100</v>
+      </c>
+      <c r="E162" t="n">
+        <v>126100</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-316.9622050199998</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>125700</v>
+      </c>
+      <c r="C163" t="n">
+        <v>125700</v>
+      </c>
+      <c r="D163" t="n">
+        <v>125700</v>
+      </c>
+      <c r="E163" t="n">
+        <v>125700</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-317.5922050199998</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>125900</v>
+      </c>
+      <c r="C164" t="n">
+        <v>125900</v>
+      </c>
+      <c r="D164" t="n">
+        <v>125900</v>
+      </c>
+      <c r="E164" t="n">
+        <v>125900</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1.3863</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-316.2059050199998</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>126000</v>
+      </c>
+      <c r="C165" t="n">
+        <v>126000</v>
+      </c>
+      <c r="D165" t="n">
+        <v>126000</v>
+      </c>
+      <c r="E165" t="n">
+        <v>126000</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.01763492</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-316.1882700999998</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>125600</v>
+      </c>
+      <c r="C166" t="n">
+        <v>125800</v>
+      </c>
+      <c r="D166" t="n">
+        <v>125800</v>
+      </c>
+      <c r="E166" t="n">
+        <v>125600</v>
+      </c>
+      <c r="F166" t="n">
+        <v>6.4408</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-322.6290700999998</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>126100</v>
+      </c>
+      <c r="C167" t="n">
+        <v>126100</v>
+      </c>
+      <c r="D167" t="n">
+        <v>126100</v>
+      </c>
+      <c r="E167" t="n">
+        <v>126100</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3.96510705</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-318.6639630499998</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>125800</v>
+      </c>
+      <c r="C168" t="n">
+        <v>125800</v>
+      </c>
+      <c r="D168" t="n">
+        <v>125800</v>
+      </c>
+      <c r="E168" t="n">
+        <v>125800</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-319.0062630499999</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>125400</v>
+      </c>
+      <c r="C169" t="n">
+        <v>125100</v>
+      </c>
+      <c r="D169" t="n">
+        <v>125400</v>
+      </c>
+      <c r="E169" t="n">
+        <v>125100</v>
+      </c>
+      <c r="F169" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-322.5062630499999</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>125300</v>
+      </c>
+      <c r="C170" t="n">
+        <v>125300</v>
+      </c>
+      <c r="D170" t="n">
+        <v>125300</v>
+      </c>
+      <c r="E170" t="n">
+        <v>125300</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-321.7162630499998</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>125300</v>
+      </c>
+      <c r="C171" t="n">
+        <v>125300</v>
+      </c>
+      <c r="D171" t="n">
+        <v>125300</v>
+      </c>
+      <c r="E171" t="n">
+        <v>125300</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-321.7162630499998</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>125200</v>
+      </c>
+      <c r="C172" t="n">
+        <v>125200</v>
+      </c>
+      <c r="D172" t="n">
+        <v>125200</v>
+      </c>
+      <c r="E172" t="n">
+        <v>125200</v>
+      </c>
+      <c r="F172" t="n">
+        <v>5.1638</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-326.8800630499998</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>125200</v>
+      </c>
+      <c r="C173" t="n">
+        <v>125200</v>
+      </c>
+      <c r="D173" t="n">
+        <v>125200</v>
+      </c>
+      <c r="E173" t="n">
+        <v>125200</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-326.8800630499998</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>126000</v>
+      </c>
+      <c r="C174" t="n">
+        <v>126000</v>
+      </c>
+      <c r="D174" t="n">
+        <v>126000</v>
+      </c>
+      <c r="E174" t="n">
+        <v>126000</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-324.8800630499998</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>125200</v>
+      </c>
+      <c r="K174" t="n">
+        <v>125200</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>125600</v>
+      </c>
+      <c r="C175" t="n">
+        <v>125600</v>
+      </c>
+      <c r="D175" t="n">
+        <v>125600</v>
+      </c>
+      <c r="E175" t="n">
+        <v>125600</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-325.3520630499998</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>125200</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>125600</v>
+      </c>
+      <c r="C176" t="n">
+        <v>125300</v>
+      </c>
+      <c r="D176" t="n">
+        <v>125600</v>
+      </c>
+      <c r="E176" t="n">
+        <v>125300</v>
+      </c>
+      <c r="F176" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-331.4520630499998</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>125200</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>125800</v>
+      </c>
+      <c r="C177" t="n">
+        <v>125800</v>
+      </c>
+      <c r="D177" t="n">
+        <v>125800</v>
+      </c>
+      <c r="E177" t="n">
+        <v>125800</v>
+      </c>
+      <c r="F177" t="n">
+        <v>5.4719</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-325.9801630499998</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>125300</v>
+      </c>
+      <c r="C178" t="n">
+        <v>125200</v>
+      </c>
+      <c r="D178" t="n">
+        <v>125300</v>
+      </c>
+      <c r="E178" t="n">
+        <v>125200</v>
+      </c>
+      <c r="F178" t="n">
+        <v>3.3416</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-329.3217630499998</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>125200</v>
+      </c>
+      <c r="C179" t="n">
+        <v>125200</v>
+      </c>
+      <c r="D179" t="n">
+        <v>125200</v>
+      </c>
+      <c r="E179" t="n">
+        <v>125200</v>
+      </c>
+      <c r="F179" t="n">
+        <v>4.138</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-329.3217630499998</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>125000</v>
+      </c>
+      <c r="C180" t="n">
+        <v>125000</v>
+      </c>
+      <c r="D180" t="n">
+        <v>125000</v>
+      </c>
+      <c r="E180" t="n">
+        <v>125000</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2.0498</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-331.3715630499998</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>125200</v>
+      </c>
+      <c r="K180" t="n">
+        <v>125200</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>125000</v>
+      </c>
+      <c r="C181" t="n">
+        <v>125000</v>
+      </c>
+      <c r="D181" t="n">
+        <v>125000</v>
+      </c>
+      <c r="E181" t="n">
+        <v>125000</v>
+      </c>
+      <c r="F181" t="n">
+        <v>4.9001</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-331.3715630499998</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>125200</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-23 BackTest DASH.xlsx
+++ b/BackTest/2020-01-23 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-337.77191067</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-334.44781067</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-338.53261067</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -1707,8 +1707,12 @@
       <c r="H40" t="n">
         <v>1</v>
       </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>127000</v>
+      </c>
+      <c r="J40" t="n">
+        <v>127000</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
@@ -1738,11 +1742,19 @@
         <v>-351.95646172</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>126700</v>
+      </c>
+      <c r="J41" t="n">
+        <v>127000</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1783,19 @@
         <v>-358.95646172</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>126700</v>
+      </c>
+      <c r="J42" t="n">
+        <v>127000</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,10 +1824,14 @@
         <v>-338.33146172</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>126300</v>
+      </c>
+      <c r="J43" t="n">
+        <v>126300</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
@@ -1837,11 +1861,19 @@
         <v>-335.83306172</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>126400</v>
+      </c>
+      <c r="J44" t="n">
+        <v>126300</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1902,19 @@
         <v>-335.83306172</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>126500</v>
+      </c>
+      <c r="J45" t="n">
+        <v>126300</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,10 +1943,14 @@
         <v>-335.83306172</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>126500</v>
+      </c>
+      <c r="J46" t="n">
+        <v>126500</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
@@ -1936,11 +1980,19 @@
         <v>-335.83306172</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>126500</v>
+      </c>
+      <c r="J47" t="n">
+        <v>126500</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2021,19 @@
         <v>-335.99666172</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>126500</v>
+      </c>
+      <c r="J48" t="n">
+        <v>126500</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2392,17 @@
         <v>-382.3776617199999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>125300</v>
+      </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2431,17 @@
         <v>-384.3018617199999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>125000</v>
+      </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2470,17 @@
         <v>-423.6899617199999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>124700</v>
+      </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2509,17 @@
         <v>-423.6899617199999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>124600</v>
+      </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2548,17 @@
         <v>-425.5450617199999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>124600</v>
+      </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2587,17 @@
         <v>-425.5007634799999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>124300</v>
+      </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2626,17 @@
         <v>-425.5007634799999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>125400</v>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2665,17 @@
         <v>-438.8236634799999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>125400</v>
+      </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2704,17 @@
         <v>-325.3513634799999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>124900</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2747,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2784,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2821,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,15 +2854,17 @@
         <v>-341.9431634799999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>124800</v>
       </c>
-      <c r="J71" t="n">
-        <v>124800</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,15 +2893,15 @@
         <v>-347.9431634799999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>124800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>124700</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -2804,15 +2932,15 @@
         <v>-346.9418634799999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>124800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>124500</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -2843,11 +2971,17 @@
         <v>-346.9418634799999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>124600</v>
+      </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2876,11 +3010,17 @@
         <v>-349.6008634799999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>124600</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2909,11 +3049,17 @@
         <v>-340.9648634799998</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>124500</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2942,11 +3088,17 @@
         <v>-341.8352634799999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>125000</v>
+      </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2975,15 +3127,17 @@
         <v>-341.8352634799999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>124700</v>
       </c>
-      <c r="J78" t="n">
-        <v>124700</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3012,17 +3166,15 @@
         <v>-341.5677634799999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>124700</v>
       </c>
-      <c r="J79" t="n">
-        <v>124700</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3053,15 +3205,15 @@
         <v>-341.5677634799999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>124700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>124800</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -3092,11 +3244,17 @@
         <v>-341.5677634799999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>124800</v>
+      </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3125,11 +3283,17 @@
         <v>-341.5677634799999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>124800</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3158,11 +3322,17 @@
         <v>-339.5677634799999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>124800</v>
+      </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3191,11 +3361,17 @@
         <v>-339.5677634799999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>124900</v>
+      </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3228,7 +3404,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3261,7 +3441,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3290,11 +3474,17 @@
         <v>-343.2770634799999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>124700</v>
+      </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3323,11 +3513,17 @@
         <v>-344.3280634799999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>124200</v>
+      </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3356,11 +3552,17 @@
         <v>-344.0830634799999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>124100</v>
+      </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3389,11 +3591,17 @@
         <v>-324.9020634799999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>124200</v>
+      </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3422,15 +3630,13 @@
         <v>-331.1930634799999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>124300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -3461,7 +3667,7 @@
         <v>-347.2190634799999</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>124100</v>
@@ -3500,11 +3706,9 @@
         <v>-289.2770634799999</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>124000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -3539,11 +3743,9 @@
         <v>-289.7950634799998</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>124600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -3800,11 +4002,9 @@
         <v>-332.6786087899999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>123600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -3839,11 +4039,9 @@
         <v>-300.2048087899999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>123500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -3878,7 +4076,7 @@
         <v>-311.3011087899999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>123600</v>
@@ -3917,9 +4115,11 @@
         <v>-311.3011087899999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>123500</v>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -3954,11 +4154,9 @@
         <v>-311.3011087899999</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>123500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -3993,7 +4191,7 @@
         <v>-309.4962087899999</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>123500</v>
@@ -4032,11 +4230,9 @@
         <v>-308.4738087899999</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>124600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4071,11 +4267,9 @@
         <v>-324.1738087899999</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>125000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4110,11 +4304,9 @@
         <v>-324.1378499099999</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>124600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4149,11 +4341,9 @@
         <v>-339.1378499099999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>125500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4188,11 +4378,9 @@
         <v>-333.0980499099999</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>125000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4227,11 +4415,9 @@
         <v>-332.5880499099999</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>126000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4414,11 +4600,9 @@
         <v>-335.2667499099999</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>125800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4490,11 +4674,9 @@
         <v>-351.4240499099999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>125400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -4529,11 +4711,9 @@
         <v>-314.1377499099999</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>125800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -4568,11 +4748,9 @@
         <v>-314.1377499099999</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>126000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -4607,11 +4785,9 @@
         <v>-314.1377499099999</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>126000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -4646,11 +4822,9 @@
         <v>-338.1390499099999</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>126000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -4685,11 +4859,9 @@
         <v>-338.1390499099999</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>125500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -4724,11 +4896,9 @@
         <v>-338.1065102299999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>125500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -4763,11 +4933,9 @@
         <v>-307.0583499099999</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>126000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -4876,16 +5044,18 @@
         <v>-306.3933577899999</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
       <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
@@ -4911,11 +5081,15 @@
         <v>-306.3933577899999</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4948,7 +5122,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4977,11 +5155,15 @@
         <v>-306.3933577899999</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5010,11 +5192,15 @@
         <v>-299.5197577899999</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5043,11 +5229,15 @@
         <v>-253.3263577899999</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5076,11 +5266,15 @@
         <v>-240.5721577899999</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5109,11 +5303,15 @@
         <v>-240.5721577899999</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5142,11 +5340,15 @@
         <v>-216.3953577899999</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5175,11 +5377,15 @@
         <v>-216.3953577899999</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5208,11 +5414,15 @@
         <v>-216.3953577899999</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5241,11 +5451,15 @@
         <v>-213.2386577899999</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5274,11 +5488,15 @@
         <v>-220.2386577899999</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5307,11 +5525,15 @@
         <v>-274.6311577899999</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5340,14 +5562,16 @@
         <v>-260.1311577899999</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
@@ -5373,7 +5597,7 @@
         <v>-255.3036956899999</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5406,7 +5630,7 @@
         <v>-257.3036956899999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5439,7 +5663,7 @@
         <v>-269.1146956899998</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5472,7 +5696,7 @@
         <v>-280.1146956899998</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5505,7 +5729,7 @@
         <v>-280.1146956899998</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5538,7 +5762,7 @@
         <v>-280.0789421599998</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5571,7 +5795,7 @@
         <v>-282.9225421599998</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5604,7 +5828,7 @@
         <v>-260.5457421599998</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5637,7 +5861,7 @@
         <v>-284.4553835399998</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5670,7 +5894,7 @@
         <v>-285.2908835399998</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5703,7 +5927,7 @@
         <v>-285.2908835399998</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5736,7 +5960,7 @@
         <v>-285.2733736899998</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5769,7 +5993,7 @@
         <v>-285.7733736899998</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5802,7 +6026,7 @@
         <v>-285.7733736899998</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5835,7 +6059,7 @@
         <v>-285.7733736899998</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5868,7 +6092,7 @@
         <v>-285.7733736899998</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5901,7 +6125,7 @@
         <v>-318.0919736899998</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5934,7 +6158,7 @@
         <v>-316.4522050199998</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5967,7 +6191,7 @@
         <v>-316.9622050199998</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6000,7 +6224,7 @@
         <v>-317.5922050199998</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6033,7 +6257,7 @@
         <v>-316.2059050199998</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6066,7 +6290,7 @@
         <v>-316.1882700999998</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6099,7 +6323,7 @@
         <v>-322.6290700999998</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6165,7 +6389,7 @@
         <v>-319.0062630499999</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6297,7 +6521,7 @@
         <v>-326.8800630499998</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6396,7 +6620,7 @@
         <v>-325.3520630499998</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6429,7 +6653,7 @@
         <v>-331.4520630499998</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6462,7 +6686,7 @@
         <v>-325.9801630499998</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6495,7 +6719,7 @@
         <v>-329.3217630499998</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6528,7 +6752,7 @@
         <v>-329.3217630499998</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6561,7 +6785,7 @@
         <v>-331.3715630499998</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6605,6 +6829,6 @@
       <c r="M181" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest DASH.xlsx
+++ b/BackTest/2020-01-23 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-337.77191067</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-334.44781067</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-338.53261067</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-398.4797617200001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-398.4797617200001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-393.4797617200001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-395.27266172</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-395.27266172</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-388.27266172</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-386.27266172</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-382.94646172</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-346.31186172</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-318.30656172</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-336.1916617200001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-335.72166172</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1705,14 +1705,10 @@
         <v>-351.95646172</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>127000</v>
-      </c>
-      <c r="J40" t="n">
-        <v>127000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
@@ -1742,19 +1738,11 @@
         <v>-351.95646172</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>126700</v>
-      </c>
-      <c r="J41" t="n">
-        <v>127000</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1783,19 +1771,11 @@
         <v>-358.95646172</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>126700</v>
-      </c>
-      <c r="J42" t="n">
-        <v>127000</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1824,14 +1804,10 @@
         <v>-338.33146172</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>126300</v>
-      </c>
-      <c r="J43" t="n">
-        <v>126300</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
@@ -1861,19 +1837,11 @@
         <v>-335.83306172</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>126400</v>
-      </c>
-      <c r="J44" t="n">
-        <v>126300</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1902,19 +1870,11 @@
         <v>-335.83306172</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>126500</v>
-      </c>
-      <c r="J45" t="n">
-        <v>126300</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1943,14 +1903,10 @@
         <v>-335.83306172</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>126500</v>
-      </c>
-      <c r="J46" t="n">
-        <v>126500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
@@ -1980,19 +1936,11 @@
         <v>-335.83306172</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>126500</v>
-      </c>
-      <c r="J47" t="n">
-        <v>126500</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2021,19 +1969,11 @@
         <v>-335.99666172</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>126500</v>
-      </c>
-      <c r="J48" t="n">
-        <v>126500</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2392,1216 +2332,1046 @@
         <v>-382.3776617199999</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>125300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>124600</v>
+      </c>
+      <c r="C60" t="n">
+        <v>124700</v>
+      </c>
+      <c r="D60" t="n">
+        <v>124700</v>
+      </c>
+      <c r="E60" t="n">
+        <v>124600</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.9242</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-384.3018617199999</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>124600</v>
+      </c>
+      <c r="C61" t="n">
+        <v>124600</v>
+      </c>
+      <c r="D61" t="n">
+        <v>124600</v>
+      </c>
+      <c r="E61" t="n">
+        <v>124600</v>
+      </c>
+      <c r="F61" t="n">
+        <v>39.3881</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-423.6899617199999</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>124600</v>
+      </c>
+      <c r="C62" t="n">
+        <v>124600</v>
+      </c>
+      <c r="D62" t="n">
+        <v>124600</v>
+      </c>
+      <c r="E62" t="n">
+        <v>124600</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3.0394</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-423.6899617199999</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>124300</v>
+      </c>
+      <c r="C63" t="n">
+        <v>124300</v>
+      </c>
+      <c r="D63" t="n">
+        <v>124300</v>
+      </c>
+      <c r="E63" t="n">
+        <v>124300</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.8551</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-425.5450617199999</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>125400</v>
+      </c>
+      <c r="C64" t="n">
+        <v>125400</v>
+      </c>
+      <c r="D64" t="n">
+        <v>125400</v>
+      </c>
+      <c r="E64" t="n">
+        <v>125400</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.04429824</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-425.5007634799999</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>125400</v>
+      </c>
+      <c r="C65" t="n">
+        <v>125400</v>
+      </c>
+      <c r="D65" t="n">
+        <v>125400</v>
+      </c>
+      <c r="E65" t="n">
+        <v>125400</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.9624</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-425.5007634799999</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>124900</v>
+      </c>
+      <c r="C66" t="n">
+        <v>124900</v>
+      </c>
+      <c r="D66" t="n">
+        <v>124900</v>
+      </c>
+      <c r="E66" t="n">
+        <v>124900</v>
+      </c>
+      <c r="F66" t="n">
+        <v>13.3229</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-438.8236634799999</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>124900</v>
+      </c>
+      <c r="C67" t="n">
+        <v>125800</v>
+      </c>
+      <c r="D67" t="n">
+        <v>125800</v>
+      </c>
+      <c r="E67" t="n">
+        <v>124900</v>
+      </c>
+      <c r="F67" t="n">
+        <v>113.4723</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-325.3513634799999</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>124900</v>
+      </c>
+      <c r="C68" t="n">
+        <v>124900</v>
+      </c>
+      <c r="D68" t="n">
+        <v>124900</v>
+      </c>
+      <c r="E68" t="n">
+        <v>124900</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.8582</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-327.2095634799999</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>124800</v>
+      </c>
+      <c r="C69" t="n">
+        <v>124800</v>
+      </c>
+      <c r="D69" t="n">
+        <v>124800</v>
+      </c>
+      <c r="E69" t="n">
+        <v>124800</v>
+      </c>
+      <c r="F69" t="n">
+        <v>8.740600000000001</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-335.9501634799999</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>125000</v>
+      </c>
+      <c r="C70" t="n">
+        <v>124800</v>
+      </c>
+      <c r="D70" t="n">
+        <v>125000</v>
+      </c>
+      <c r="E70" t="n">
+        <v>124800</v>
+      </c>
+      <c r="F70" t="n">
+        <v>10.184</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-335.9501634799999</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>124700</v>
+      </c>
+      <c r="C71" t="n">
+        <v>124700</v>
+      </c>
+      <c r="D71" t="n">
+        <v>124700</v>
+      </c>
+      <c r="E71" t="n">
+        <v>124700</v>
+      </c>
+      <c r="F71" t="n">
+        <v>5.993</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-341.9431634799999</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>124500</v>
+      </c>
+      <c r="C72" t="n">
+        <v>124500</v>
+      </c>
+      <c r="D72" t="n">
+        <v>124500</v>
+      </c>
+      <c r="E72" t="n">
+        <v>124500</v>
+      </c>
+      <c r="F72" t="n">
+        <v>6</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-347.9431634799999</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>124600</v>
+      </c>
+      <c r="C73" t="n">
+        <v>124600</v>
+      </c>
+      <c r="D73" t="n">
+        <v>124600</v>
+      </c>
+      <c r="E73" t="n">
+        <v>124600</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.0013</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-346.9418634799999</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>124600</v>
+      </c>
+      <c r="C74" t="n">
+        <v>124600</v>
+      </c>
+      <c r="D74" t="n">
+        <v>124600</v>
+      </c>
+      <c r="E74" t="n">
+        <v>124600</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.7249</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-346.9418634799999</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>124500</v>
+      </c>
+      <c r="C75" t="n">
+        <v>124500</v>
+      </c>
+      <c r="D75" t="n">
+        <v>124500</v>
+      </c>
+      <c r="E75" t="n">
+        <v>124500</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2.659</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-349.6008634799999</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>124700</v>
+      </c>
+      <c r="C76" t="n">
+        <v>125000</v>
+      </c>
+      <c r="D76" t="n">
+        <v>125000</v>
+      </c>
+      <c r="E76" t="n">
+        <v>124600</v>
+      </c>
+      <c r="F76" t="n">
+        <v>8.635999999999999</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-340.9648634799998</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>124600</v>
+      </c>
+      <c r="C77" t="n">
+        <v>124700</v>
+      </c>
+      <c r="D77" t="n">
+        <v>124700</v>
+      </c>
+      <c r="E77" t="n">
+        <v>124600</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.8704</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-341.8352634799999</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>124700</v>
+      </c>
+      <c r="C78" t="n">
+        <v>124700</v>
+      </c>
+      <c r="D78" t="n">
+        <v>124700</v>
+      </c>
+      <c r="E78" t="n">
+        <v>124700</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.646</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-341.8352634799999</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>124800</v>
+      </c>
+      <c r="C79" t="n">
+        <v>124800</v>
+      </c>
+      <c r="D79" t="n">
+        <v>124800</v>
+      </c>
+      <c r="E79" t="n">
+        <v>124800</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.2675</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-341.5677634799999</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>124800</v>
+      </c>
+      <c r="C80" t="n">
+        <v>124800</v>
+      </c>
+      <c r="D80" t="n">
+        <v>124800</v>
+      </c>
+      <c r="E80" t="n">
+        <v>124800</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-341.5677634799999</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>124800</v>
+      </c>
+      <c r="C81" t="n">
+        <v>124800</v>
+      </c>
+      <c r="D81" t="n">
+        <v>124800</v>
+      </c>
+      <c r="E81" t="n">
+        <v>124800</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.8002</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-341.5677634799999</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>124800</v>
+      </c>
+      <c r="C82" t="n">
+        <v>124800</v>
+      </c>
+      <c r="D82" t="n">
+        <v>124800</v>
+      </c>
+      <c r="E82" t="n">
+        <v>124800</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.4221</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-341.5677634799999</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>124900</v>
+      </c>
+      <c r="C83" t="n">
+        <v>124900</v>
+      </c>
+      <c r="D83" t="n">
+        <v>124900</v>
+      </c>
+      <c r="E83" t="n">
+        <v>124900</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-339.5677634799999</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>124900</v>
+      </c>
+      <c r="C84" t="n">
+        <v>124900</v>
+      </c>
+      <c r="D84" t="n">
+        <v>124900</v>
+      </c>
+      <c r="E84" t="n">
+        <v>124900</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.03202562</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-339.5677634799999</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>124900</v>
+      </c>
+      <c r="C85" t="n">
+        <v>124900</v>
+      </c>
+      <c r="D85" t="n">
+        <v>124900</v>
+      </c>
+      <c r="E85" t="n">
+        <v>124900</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-339.5677634799999</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>124700</v>
+      </c>
+      <c r="C86" t="n">
+        <v>124700</v>
+      </c>
+      <c r="D86" t="n">
+        <v>124700</v>
+      </c>
+      <c r="E86" t="n">
+        <v>124700</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-339.5680634799999</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>124200</v>
+      </c>
+      <c r="C87" t="n">
+        <v>124200</v>
+      </c>
+      <c r="D87" t="n">
+        <v>124200</v>
+      </c>
+      <c r="E87" t="n">
+        <v>124200</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3.709</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-343.2770634799999</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>124100</v>
+      </c>
+      <c r="C88" t="n">
+        <v>124100</v>
+      </c>
+      <c r="D88" t="n">
+        <v>124100</v>
+      </c>
+      <c r="E88" t="n">
+        <v>124100</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.051</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-344.3280634799999</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>124200</v>
+      </c>
+      <c r="C89" t="n">
+        <v>124200</v>
+      </c>
+      <c r="D89" t="n">
+        <v>124200</v>
+      </c>
+      <c r="E89" t="n">
+        <v>124200</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-344.0830634799999</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>124100</v>
+      </c>
+      <c r="J89" t="n">
+        <v>124100</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>124400</v>
+      </c>
+      <c r="C90" t="n">
+        <v>124300</v>
+      </c>
+      <c r="D90" t="n">
+        <v>124400</v>
+      </c>
+      <c r="E90" t="n">
+        <v>124000</v>
+      </c>
+      <c r="F90" t="n">
+        <v>19.181</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-324.9020634799999</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>124200</v>
+      </c>
+      <c r="J90" t="n">
+        <v>124100</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>124600</v>
-      </c>
-      <c r="C60" t="n">
-        <v>124700</v>
-      </c>
-      <c r="D60" t="n">
-        <v>124700</v>
-      </c>
-      <c r="E60" t="n">
-        <v>124600</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1.9242</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-384.3018617199999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>125000</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>124600</v>
-      </c>
-      <c r="C61" t="n">
-        <v>124600</v>
-      </c>
-      <c r="D61" t="n">
-        <v>124600</v>
-      </c>
-      <c r="E61" t="n">
-        <v>124600</v>
-      </c>
-      <c r="F61" t="n">
-        <v>39.3881</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-423.6899617199999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>124700</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>124600</v>
-      </c>
-      <c r="C62" t="n">
-        <v>124600</v>
-      </c>
-      <c r="D62" t="n">
-        <v>124600</v>
-      </c>
-      <c r="E62" t="n">
-        <v>124600</v>
-      </c>
-      <c r="F62" t="n">
-        <v>3.0394</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-423.6899617199999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>124600</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>124300</v>
-      </c>
-      <c r="C63" t="n">
-        <v>124300</v>
-      </c>
-      <c r="D63" t="n">
-        <v>124300</v>
-      </c>
-      <c r="E63" t="n">
-        <v>124300</v>
-      </c>
-      <c r="F63" t="n">
-        <v>1.8551</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-425.5450617199999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>124600</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>125400</v>
-      </c>
-      <c r="C64" t="n">
-        <v>125400</v>
-      </c>
-      <c r="D64" t="n">
-        <v>125400</v>
-      </c>
-      <c r="E64" t="n">
-        <v>125400</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.04429824</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-425.5007634799999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>124300</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>125400</v>
-      </c>
-      <c r="C65" t="n">
-        <v>125400</v>
-      </c>
-      <c r="D65" t="n">
-        <v>125400</v>
-      </c>
-      <c r="E65" t="n">
-        <v>125400</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1.9624</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-425.5007634799999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>125400</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>124900</v>
-      </c>
-      <c r="C66" t="n">
-        <v>124900</v>
-      </c>
-      <c r="D66" t="n">
-        <v>124900</v>
-      </c>
-      <c r="E66" t="n">
-        <v>124900</v>
-      </c>
-      <c r="F66" t="n">
-        <v>13.3229</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-438.8236634799999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>125400</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>124900</v>
-      </c>
-      <c r="C67" t="n">
-        <v>125800</v>
-      </c>
-      <c r="D67" t="n">
-        <v>125800</v>
-      </c>
-      <c r="E67" t="n">
-        <v>124900</v>
-      </c>
-      <c r="F67" t="n">
-        <v>113.4723</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-325.3513634799999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>124900</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>124900</v>
-      </c>
-      <c r="C68" t="n">
-        <v>124900</v>
-      </c>
-      <c r="D68" t="n">
-        <v>124900</v>
-      </c>
-      <c r="E68" t="n">
-        <v>124900</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1.8582</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-327.2095634799999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>124800</v>
-      </c>
-      <c r="C69" t="n">
-        <v>124800</v>
-      </c>
-      <c r="D69" t="n">
-        <v>124800</v>
-      </c>
-      <c r="E69" t="n">
-        <v>124800</v>
-      </c>
-      <c r="F69" t="n">
-        <v>8.740600000000001</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-335.9501634799999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>125000</v>
-      </c>
-      <c r="C70" t="n">
-        <v>124800</v>
-      </c>
-      <c r="D70" t="n">
-        <v>125000</v>
-      </c>
-      <c r="E70" t="n">
-        <v>124800</v>
-      </c>
-      <c r="F70" t="n">
-        <v>10.184</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-335.9501634799999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>124700</v>
-      </c>
-      <c r="C71" t="n">
-        <v>124700</v>
-      </c>
-      <c r="D71" t="n">
-        <v>124700</v>
-      </c>
-      <c r="E71" t="n">
-        <v>124700</v>
-      </c>
-      <c r="F71" t="n">
-        <v>5.993</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-341.9431634799999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>124800</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>124500</v>
-      </c>
-      <c r="C72" t="n">
-        <v>124500</v>
-      </c>
-      <c r="D72" t="n">
-        <v>124500</v>
-      </c>
-      <c r="E72" t="n">
-        <v>124500</v>
-      </c>
-      <c r="F72" t="n">
-        <v>6</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-347.9431634799999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>124700</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>124600</v>
-      </c>
-      <c r="C73" t="n">
-        <v>124600</v>
-      </c>
-      <c r="D73" t="n">
-        <v>124600</v>
-      </c>
-      <c r="E73" t="n">
-        <v>124600</v>
-      </c>
-      <c r="F73" t="n">
-        <v>1.0013</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-346.9418634799999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>124500</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>124600</v>
-      </c>
-      <c r="C74" t="n">
-        <v>124600</v>
-      </c>
-      <c r="D74" t="n">
-        <v>124600</v>
-      </c>
-      <c r="E74" t="n">
-        <v>124600</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.7249</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-346.9418634799999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>124600</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>124500</v>
-      </c>
-      <c r="C75" t="n">
-        <v>124500</v>
-      </c>
-      <c r="D75" t="n">
-        <v>124500</v>
-      </c>
-      <c r="E75" t="n">
-        <v>124500</v>
-      </c>
-      <c r="F75" t="n">
-        <v>2.659</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-349.6008634799999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>124600</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>124700</v>
-      </c>
-      <c r="C76" t="n">
-        <v>125000</v>
-      </c>
-      <c r="D76" t="n">
-        <v>125000</v>
-      </c>
-      <c r="E76" t="n">
-        <v>124600</v>
-      </c>
-      <c r="F76" t="n">
-        <v>8.635999999999999</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-340.9648634799998</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>124500</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>124600</v>
-      </c>
-      <c r="C77" t="n">
-        <v>124700</v>
-      </c>
-      <c r="D77" t="n">
-        <v>124700</v>
-      </c>
-      <c r="E77" t="n">
-        <v>124600</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.8704</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-341.8352634799999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>125000</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>124700</v>
-      </c>
-      <c r="C78" t="n">
-        <v>124700</v>
-      </c>
-      <c r="D78" t="n">
-        <v>124700</v>
-      </c>
-      <c r="E78" t="n">
-        <v>124700</v>
-      </c>
-      <c r="F78" t="n">
-        <v>1.646</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-341.8352634799999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>124700</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>124800</v>
-      </c>
-      <c r="C79" t="n">
-        <v>124800</v>
-      </c>
-      <c r="D79" t="n">
-        <v>124800</v>
-      </c>
-      <c r="E79" t="n">
-        <v>124800</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.2675</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-341.5677634799999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>124700</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>124800</v>
-      </c>
-      <c r="C80" t="n">
-        <v>124800</v>
-      </c>
-      <c r="D80" t="n">
-        <v>124800</v>
-      </c>
-      <c r="E80" t="n">
-        <v>124800</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-341.5677634799999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>124800</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>124800</v>
-      </c>
-      <c r="C81" t="n">
-        <v>124800</v>
-      </c>
-      <c r="D81" t="n">
-        <v>124800</v>
-      </c>
-      <c r="E81" t="n">
-        <v>124800</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.8002</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-341.5677634799999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>124800</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>124800</v>
-      </c>
-      <c r="C82" t="n">
-        <v>124800</v>
-      </c>
-      <c r="D82" t="n">
-        <v>124800</v>
-      </c>
-      <c r="E82" t="n">
-        <v>124800</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.4221</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-341.5677634799999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>124800</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>124900</v>
-      </c>
-      <c r="C83" t="n">
-        <v>124900</v>
-      </c>
-      <c r="D83" t="n">
-        <v>124900</v>
-      </c>
-      <c r="E83" t="n">
-        <v>124900</v>
-      </c>
-      <c r="F83" t="n">
-        <v>2</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-339.5677634799999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>124800</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>124900</v>
-      </c>
-      <c r="C84" t="n">
-        <v>124900</v>
-      </c>
-      <c r="D84" t="n">
-        <v>124900</v>
-      </c>
-      <c r="E84" t="n">
-        <v>124900</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.03202562</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-339.5677634799999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>124900</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>124900</v>
-      </c>
-      <c r="C85" t="n">
-        <v>124900</v>
-      </c>
-      <c r="D85" t="n">
-        <v>124900</v>
-      </c>
-      <c r="E85" t="n">
-        <v>124900</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.613</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-339.5677634799999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>124700</v>
-      </c>
-      <c r="C86" t="n">
-        <v>124700</v>
-      </c>
-      <c r="D86" t="n">
-        <v>124700</v>
-      </c>
-      <c r="E86" t="n">
-        <v>124700</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-339.5680634799999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>124200</v>
-      </c>
-      <c r="C87" t="n">
-        <v>124200</v>
-      </c>
-      <c r="D87" t="n">
-        <v>124200</v>
-      </c>
-      <c r="E87" t="n">
-        <v>124200</v>
-      </c>
-      <c r="F87" t="n">
-        <v>3.709</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-343.2770634799999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>124700</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>124100</v>
-      </c>
-      <c r="C88" t="n">
-        <v>124100</v>
-      </c>
-      <c r="D88" t="n">
-        <v>124100</v>
-      </c>
-      <c r="E88" t="n">
-        <v>124100</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1.051</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-344.3280634799999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>124200</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>124200</v>
-      </c>
-      <c r="C89" t="n">
-        <v>124200</v>
-      </c>
-      <c r="D89" t="n">
-        <v>124200</v>
-      </c>
-      <c r="E89" t="n">
-        <v>124200</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.245</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-344.0830634799999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>124100</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>124400</v>
-      </c>
-      <c r="C90" t="n">
-        <v>124300</v>
-      </c>
-      <c r="D90" t="n">
-        <v>124400</v>
-      </c>
-      <c r="E90" t="n">
-        <v>124000</v>
-      </c>
-      <c r="F90" t="n">
-        <v>19.181</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-324.9020634799999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>124200</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3630,10 +3400,14 @@
         <v>-331.1930634799999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>124300</v>
+      </c>
+      <c r="J91" t="n">
+        <v>124100</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3667,12 +3441,12 @@
         <v>-347.2190634799999</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
         <v>124100</v>
       </c>
-      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3706,10 +3480,14 @@
         <v>-289.2770634799999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>124000</v>
+      </c>
+      <c r="J93" t="n">
+        <v>124100</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3746,7 +3524,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>124100</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3783,7 +3563,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>124100</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3820,7 +3602,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>124100</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3857,7 +3641,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>124100</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3894,7 +3680,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>124100</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3931,7 +3719,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>124100</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3965,10 +3755,14 @@
         <v>-289.6078087899999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>123000</v>
+      </c>
+      <c r="J100" t="n">
+        <v>124100</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4002,10 +3796,14 @@
         <v>-332.6786087899999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>123600</v>
+      </c>
+      <c r="J101" t="n">
+        <v>124100</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4039,10 +3837,14 @@
         <v>-300.2048087899999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>123500</v>
+      </c>
+      <c r="J102" t="n">
+        <v>124100</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4081,7 +3883,9 @@
       <c r="I103" t="n">
         <v>123600</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>124100</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4120,7 +3924,9 @@
       <c r="I104" t="n">
         <v>123500</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>124100</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4154,10 +3960,14 @@
         <v>-311.3011087899999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>123500</v>
+      </c>
+      <c r="J105" t="n">
+        <v>124100</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4196,7 +4006,9 @@
       <c r="I106" t="n">
         <v>123500</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>124100</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4233,7 +4045,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>124100</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4270,7 +4084,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>124100</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4307,7 +4123,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>124100</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4344,7 +4162,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>124100</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4381,7 +4201,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>124100</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4418,7 +4240,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>124100</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4455,7 +4279,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>124100</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4492,7 +4318,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>124100</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4529,7 +4357,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>124100</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4566,7 +4396,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>124100</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4603,7 +4435,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>124100</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4640,7 +4474,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>124100</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4677,7 +4513,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>124100</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4714,7 +4552,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>124100</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4748,17 +4588,19 @@
         <v>-314.1377499099999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>124100</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1</v>
+        <v>1.010310233682514</v>
       </c>
       <c r="M121" t="inlineStr"/>
     </row>
@@ -4785,15 +4627,11 @@
         <v>-314.1377499099999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4826,11 +4664,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4863,11 +4697,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4900,11 +4730,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4937,11 +4763,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4974,11 +4796,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5011,11 +4829,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5048,11 +4862,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5085,11 +4895,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5122,11 +4928,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5159,11 +4961,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5196,11 +4994,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5233,11 +5027,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5270,11 +5060,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5307,11 +5093,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5344,11 +5126,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5381,11 +5159,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5418,11 +5192,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5455,11 +5225,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5492,11 +5258,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5529,11 +5291,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5562,16 +5320,14 @@
         <v>-260.1311577899999</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
       <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
@@ -5597,7 +5353,7 @@
         <v>-255.3036956899999</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5630,7 +5386,7 @@
         <v>-257.3036956899999</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5663,7 +5419,7 @@
         <v>-269.1146956899998</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5696,7 +5452,7 @@
         <v>-280.1146956899998</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5729,7 +5485,7 @@
         <v>-280.1146956899998</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5762,7 +5518,7 @@
         <v>-280.0789421599998</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5795,7 +5551,7 @@
         <v>-282.9225421599998</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5828,7 +5584,7 @@
         <v>-260.5457421599998</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5861,7 +5617,7 @@
         <v>-284.4553835399998</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5894,7 +5650,7 @@
         <v>-285.2908835399998</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5927,7 +5683,7 @@
         <v>-285.2908835399998</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5960,7 +5716,7 @@
         <v>-285.2733736899998</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5993,7 +5749,7 @@
         <v>-285.7733736899998</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6026,7 +5782,7 @@
         <v>-285.7733736899998</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6059,7 +5815,7 @@
         <v>-285.7733736899998</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6092,7 +5848,7 @@
         <v>-285.7733736899998</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6125,7 +5881,7 @@
         <v>-318.0919736899998</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6158,7 +5914,7 @@
         <v>-316.4522050199998</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6191,7 +5947,7 @@
         <v>-316.9622050199998</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6224,7 +5980,7 @@
         <v>-317.5922050199998</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6257,7 +6013,7 @@
         <v>-316.2059050199998</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6290,7 +6046,7 @@
         <v>-316.1882700999998</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6323,7 +6079,7 @@
         <v>-322.6290700999998</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6521,7 +6277,7 @@
         <v>-326.8800630499998</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6620,7 +6376,7 @@
         <v>-325.3520630499998</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6653,7 +6409,7 @@
         <v>-331.4520630499998</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6686,7 +6442,7 @@
         <v>-325.9801630499998</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6719,7 +6475,7 @@
         <v>-329.3217630499998</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6752,7 +6508,7 @@
         <v>-329.3217630499998</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6785,7 +6541,7 @@
         <v>-331.3715630499998</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6829,6 +6585,6 @@
       <c r="M181" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest DASH.xlsx
+++ b/BackTest/2020-01-23 BackTest DASH.xlsx
@@ -1177,7 +1177,7 @@
         <v>-398.4797617200001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-398.4797617200001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-393.4797617200001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-395.27266172</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-395.27266172</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-388.27266172</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-386.27266172</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-382.94646172</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-346.31186172</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-318.30656172</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-336.1916617200001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-335.72166172</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1738,10 +1738,14 @@
         <v>-351.95646172</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>126700</v>
+      </c>
+      <c r="J41" t="n">
+        <v>126700</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
@@ -1771,11 +1775,19 @@
         <v>-358.95646172</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>126700</v>
+      </c>
+      <c r="J42" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1816,19 @@
         <v>-338.33146172</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>126300</v>
+      </c>
+      <c r="J43" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1857,19 @@
         <v>-335.83306172</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>126400</v>
+      </c>
+      <c r="J44" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1898,19 @@
         <v>-335.83306172</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>126500</v>
+      </c>
+      <c r="J45" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +1939,19 @@
         <v>-335.83306172</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>126500</v>
+      </c>
+      <c r="J46" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +1980,19 @@
         <v>-335.83306172</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>126500</v>
+      </c>
+      <c r="J47" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2021,19 @@
         <v>-335.99666172</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>126500</v>
+      </c>
+      <c r="J48" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2062,19 @@
         <v>-335.99666172</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>126300</v>
+      </c>
+      <c r="J49" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2103,19 @@
         <v>-337.01566172</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>126300</v>
+      </c>
+      <c r="J50" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2144,19 @@
         <v>-335.97426172</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>125900</v>
+      </c>
+      <c r="J51" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2185,19 @@
         <v>-335.97426172</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>126300</v>
+      </c>
+      <c r="J52" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2226,19 @@
         <v>-333.77296172</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>126300</v>
+      </c>
+      <c r="J53" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2270,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2306,19 @@
         <v>-368.93076172</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>126300</v>
+      </c>
+      <c r="J55" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2347,19 @@
         <v>-369.93076172</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>126500</v>
+      </c>
+      <c r="J56" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2388,19 @@
         <v>-370.9387617199999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>126400</v>
+      </c>
+      <c r="J57" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2429,19 @@
         <v>-374.1487617199999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>126000</v>
+      </c>
+      <c r="J58" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2470,19 @@
         <v>-382.3776617199999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>125300</v>
+      </c>
+      <c r="J59" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2511,19 @@
         <v>-384.3018617199999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>125000</v>
+      </c>
+      <c r="J60" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2552,19 @@
         <v>-423.6899617199999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>124700</v>
+      </c>
+      <c r="J61" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2593,19 @@
         <v>-423.6899617199999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>124600</v>
+      </c>
+      <c r="J62" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2634,19 @@
         <v>-425.5450617199999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>124600</v>
+      </c>
+      <c r="J63" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2675,19 @@
         <v>-425.5007634799999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>124300</v>
+      </c>
+      <c r="J64" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2716,19 @@
         <v>-425.5007634799999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>125400</v>
+      </c>
+      <c r="J65" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2757,19 @@
         <v>-438.8236634799999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>125400</v>
+      </c>
+      <c r="J66" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2798,19 @@
         <v>-325.3513634799999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>124900</v>
+      </c>
+      <c r="J67" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2839,19 @@
         <v>-327.2095634799999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>125800</v>
+      </c>
+      <c r="J68" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2880,19 @@
         <v>-335.9501634799999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>124900</v>
+      </c>
+      <c r="J69" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2921,19 @@
         <v>-335.9501634799999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>124800</v>
+      </c>
+      <c r="J70" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +2965,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3004,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +3040,19 @@
         <v>-346.9418634799999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>124500</v>
+      </c>
+      <c r="J73" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +3081,19 @@
         <v>-346.9418634799999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>124600</v>
+      </c>
+      <c r="J74" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3125,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +3161,19 @@
         <v>-340.9648634799998</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>124500</v>
+      </c>
+      <c r="J76" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3202,19 @@
         <v>-341.8352634799999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>125000</v>
+      </c>
+      <c r="J77" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3243,19 @@
         <v>-341.8352634799999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>124700</v>
+      </c>
+      <c r="J78" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3284,17 @@
         <v>-341.5677634799999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3323,19 @@
         <v>-341.5677634799999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>124800</v>
+      </c>
+      <c r="J80" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3364,19 @@
         <v>-341.5677634799999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>124800</v>
+      </c>
+      <c r="J81" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3405,19 @@
         <v>-341.5677634799999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>124800</v>
+      </c>
+      <c r="J82" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3446,19 @@
         <v>-339.5677634799999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>124800</v>
+      </c>
+      <c r="J83" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3487,19 @@
         <v>-339.5677634799999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>124900</v>
+      </c>
+      <c r="J84" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3528,19 @@
         <v>-339.5677634799999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>124900</v>
+      </c>
+      <c r="J85" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3569,19 @@
         <v>-339.5680634799999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>124900</v>
+      </c>
+      <c r="J86" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3610,19 @@
         <v>-343.2770634799999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>124700</v>
+      </c>
+      <c r="J87" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3651,19 @@
         <v>-344.3280634799999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>124200</v>
+      </c>
+      <c r="J88" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3328,9 +3698,13 @@
         <v>124100</v>
       </c>
       <c r="J89" t="n">
-        <v>124100</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
+        <v>126700</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3365,11 +3739,11 @@
         <v>124200</v>
       </c>
       <c r="J90" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -3406,7 +3780,7 @@
         <v>124300</v>
       </c>
       <c r="J91" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3441,11 +3815,13 @@
         <v>-347.2190634799999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>124100</v>
+      </c>
       <c r="J92" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3486,7 +3862,7 @@
         <v>124000</v>
       </c>
       <c r="J93" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3521,11 +3897,13 @@
         <v>-289.7950634799998</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>124600</v>
+      </c>
       <c r="J94" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3560,11 +3938,13 @@
         <v>-289.7950634799998</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>123800</v>
+      </c>
       <c r="J95" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3599,11 +3979,13 @@
         <v>-289.1464634799999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>123800</v>
+      </c>
       <c r="J96" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3642,7 +4024,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3681,7 +4063,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3720,7 +4102,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3761,7 +4143,7 @@
         <v>123000</v>
       </c>
       <c r="J100" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3796,13 +4178,11 @@
         <v>-332.6786087899999</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>123600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3837,13 +4217,11 @@
         <v>-300.2048087899999</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>123500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3878,13 +4256,11 @@
         <v>-311.3011087899999</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>123600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -3919,13 +4295,11 @@
         <v>-311.3011087899999</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>123500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -3960,13 +4334,11 @@
         <v>-311.3011087899999</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>123500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4001,13 +4373,11 @@
         <v>-309.4962087899999</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>123500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4046,7 +4416,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4085,7 +4455,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4124,7 +4494,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4163,7 +4533,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4202,7 +4572,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4241,7 +4611,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4280,7 +4650,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4319,7 +4689,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4358,7 +4728,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4397,7 +4767,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4436,7 +4806,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4475,7 +4845,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4514,7 +4884,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4553,7 +4923,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4588,19 +4958,19 @@
         <v>-314.1377499099999</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.010310233682514</v>
+        <v>1</v>
       </c>
       <c r="M121" t="inlineStr"/>
     </row>
@@ -4627,11 +4997,19 @@
         <v>-314.1377499099999</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>126000</v>
+      </c>
+      <c r="J122" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4660,11 +5038,19 @@
         <v>-338.1390499099999</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>126000</v>
+      </c>
+      <c r="J123" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4693,11 +5079,19 @@
         <v>-338.1390499099999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>125500</v>
+      </c>
+      <c r="J124" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4726,11 +5120,19 @@
         <v>-338.1065102299999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>125500</v>
+      </c>
+      <c r="J125" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4759,11 +5161,19 @@
         <v>-307.0583499099999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>126000</v>
+      </c>
+      <c r="J126" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4795,8 +5205,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4828,8 +5244,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4861,8 +5283,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4894,8 +5322,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4927,8 +5361,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4960,8 +5400,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4993,8 +5439,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5026,8 +5478,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5059,8 +5517,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5092,8 +5556,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5125,8 +5595,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5155,13 +5631,19 @@
         <v>-216.3953577899999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>126700</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L138" t="n">
-        <v>1</v>
+        <v>1.013153117600631</v>
       </c>
       <c r="M138" t="inlineStr"/>
     </row>
@@ -5188,7 +5670,7 @@
         <v>-216.3953577899999</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5221,7 +5703,7 @@
         <v>-213.2386577899999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5254,7 +5736,7 @@
         <v>-220.2386577899999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5287,7 +5769,7 @@
         <v>-274.6311577899999</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5320,7 +5802,7 @@
         <v>-260.1311577899999</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5353,7 +5835,7 @@
         <v>-255.3036956899999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5386,7 +5868,7 @@
         <v>-257.3036956899999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5419,7 +5901,7 @@
         <v>-269.1146956899998</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5452,7 +5934,7 @@
         <v>-280.1146956899998</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>

--- a/BackTest/2020-01-23 BackTest DASH.xlsx
+++ b/BackTest/2020-01-23 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M181"/>
+  <dimension ref="A1:L181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>31.6158</v>
       </c>
       <c r="G2" t="n">
-        <v>-337.77191067</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>3.3241</v>
       </c>
       <c r="G3" t="n">
-        <v>-334.44781067</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>125000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>125000</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,23 @@
         <v>16.9614</v>
       </c>
       <c r="G4" t="n">
-        <v>-334.44781067</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>125600</v>
+      </c>
+      <c r="I4" t="n">
+        <v>125000</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,23 @@
         <v>4.0848</v>
       </c>
       <c r="G5" t="n">
-        <v>-338.53261067</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>125600</v>
+      </c>
+      <c r="I5" t="n">
+        <v>125000</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +583,19 @@
         <v>5.4608</v>
       </c>
       <c r="G6" t="n">
-        <v>-343.99341067</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>125500</v>
+      </c>
+      <c r="I6" t="n">
+        <v>125500</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +617,21 @@
         <v>0.0001</v>
       </c>
       <c r="G7" t="n">
-        <v>-343.99341067</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>125500</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +653,21 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>-344.06491067</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>125500</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +689,15 @@
         <v>0.0357</v>
       </c>
       <c r="G9" t="n">
-        <v>-344.02921067</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +719,15 @@
         <v>7.87891535</v>
       </c>
       <c r="G10" t="n">
-        <v>-336.15029532</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +749,15 @@
         <v>1.4824664</v>
       </c>
       <c r="G11" t="n">
-        <v>-337.63276172</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +779,15 @@
         <v>4.0833</v>
       </c>
       <c r="G12" t="n">
-        <v>-341.71606172</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +809,15 @@
         <v>0.9986</v>
       </c>
       <c r="G13" t="n">
-        <v>-342.71466172</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +839,15 @@
         <v>1.5398</v>
       </c>
       <c r="G14" t="n">
-        <v>-341.17486172</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +869,15 @@
         <v>0.0176</v>
       </c>
       <c r="G15" t="n">
-        <v>-341.17486172</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +899,15 @@
         <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>-351.17486172</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +929,15 @@
         <v>1.5574</v>
       </c>
       <c r="G17" t="n">
-        <v>-349.6174617200001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +959,15 @@
         <v>50.3483</v>
       </c>
       <c r="G18" t="n">
-        <v>-399.96576172</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +989,15 @@
         <v>0.02</v>
       </c>
       <c r="G19" t="n">
-        <v>-399.9457617200001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1019,15 @@
         <v>7</v>
       </c>
       <c r="G20" t="n">
-        <v>-392.9457617200001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1049,15 @@
         <v>5.98</v>
       </c>
       <c r="G21" t="n">
-        <v>-392.9457617200001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1079,15 @@
         <v>0.105</v>
       </c>
       <c r="G22" t="n">
-        <v>-392.9457617200001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1109,15 @@
         <v>1.0001</v>
       </c>
       <c r="G23" t="n">
-        <v>-393.94586172</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1139,15 @@
         <v>4.5339</v>
       </c>
       <c r="G24" t="n">
-        <v>-398.4797617200001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1169,15 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>-398.4797617200001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1199,15 @@
         <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>-393.4797617200001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1229,15 @@
         <v>1.7929</v>
       </c>
       <c r="G27" t="n">
-        <v>-395.27266172</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1259,15 @@
         <v>0.51</v>
       </c>
       <c r="G28" t="n">
-        <v>-395.27266172</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1289,15 @@
         <v>7</v>
       </c>
       <c r="G29" t="n">
-        <v>-388.27266172</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1319,15 @@
         <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>-386.27266172</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1349,15 @@
         <v>3.3262</v>
       </c>
       <c r="G31" t="n">
-        <v>-382.94646172</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1379,15 @@
         <v>36.6346</v>
       </c>
       <c r="G32" t="n">
-        <v>-346.31186172</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1409,15 @@
         <v>28.0053</v>
       </c>
       <c r="G33" t="n">
-        <v>-318.30656172</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1439,15 @@
         <v>17.8851</v>
       </c>
       <c r="G34" t="n">
-        <v>-336.1916617200001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1469,15 @@
         <v>0.47</v>
       </c>
       <c r="G35" t="n">
-        <v>-335.72166172</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1499,15 @@
         <v>4.9647</v>
       </c>
       <c r="G36" t="n">
-        <v>-340.68636172</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1529,15 @@
         <v>1.0823</v>
       </c>
       <c r="G37" t="n">
-        <v>-341.76866172</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1559,15 @@
         <v>9.7433</v>
       </c>
       <c r="G38" t="n">
-        <v>-351.51196172</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1589,15 @@
         <v>0.4745</v>
       </c>
       <c r="G39" t="n">
-        <v>-351.03746172</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1619,15 @@
         <v>0.919</v>
       </c>
       <c r="G40" t="n">
-        <v>-351.95646172</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,22 +1649,15 @@
         <v>2.2281</v>
       </c>
       <c r="G41" t="n">
-        <v>-351.95646172</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>126700</v>
-      </c>
-      <c r="J41" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1772,26 +1679,15 @@
         <v>7</v>
       </c>
       <c r="G42" t="n">
-        <v>-358.95646172</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>126700</v>
-      </c>
-      <c r="J42" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1813,26 +1709,15 @@
         <v>20.625</v>
       </c>
       <c r="G43" t="n">
-        <v>-338.33146172</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>126300</v>
-      </c>
-      <c r="J43" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1854,26 +1739,15 @@
         <v>2.4984</v>
       </c>
       <c r="G44" t="n">
-        <v>-335.83306172</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>126400</v>
-      </c>
-      <c r="J44" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1895,26 +1769,15 @@
         <v>0.0049</v>
       </c>
       <c r="G45" t="n">
-        <v>-335.83306172</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>126500</v>
-      </c>
-      <c r="J45" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1936,26 +1799,15 @@
         <v>6.6586</v>
       </c>
       <c r="G46" t="n">
-        <v>-335.83306172</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>126500</v>
-      </c>
-      <c r="J46" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1977,26 +1829,15 @@
         <v>35.9</v>
       </c>
       <c r="G47" t="n">
-        <v>-335.83306172</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>126500</v>
-      </c>
-      <c r="J47" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2018,26 +1859,15 @@
         <v>0.1636</v>
       </c>
       <c r="G48" t="n">
-        <v>-335.99666172</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>126500</v>
-      </c>
-      <c r="J48" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2059,26 +1889,15 @@
         <v>0.7343</v>
       </c>
       <c r="G49" t="n">
-        <v>-335.99666172</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>126300</v>
-      </c>
-      <c r="J49" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2100,26 +1919,15 @@
         <v>1.019</v>
       </c>
       <c r="G50" t="n">
-        <v>-337.01566172</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>126300</v>
-      </c>
-      <c r="J50" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2141,26 +1949,15 @@
         <v>1.0414</v>
       </c>
       <c r="G51" t="n">
-        <v>-335.97426172</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>125900</v>
-      </c>
-      <c r="J51" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2182,26 +1979,15 @@
         <v>0.1498</v>
       </c>
       <c r="G52" t="n">
-        <v>-335.97426172</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>126300</v>
-      </c>
-      <c r="J52" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2223,26 +2009,15 @@
         <v>2.2013</v>
       </c>
       <c r="G53" t="n">
-        <v>-333.77296172</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>126300</v>
-      </c>
-      <c r="J53" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2264,24 +2039,15 @@
         <v>38.0492</v>
       </c>
       <c r="G54" t="n">
-        <v>-371.8221617199999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2303,26 +2069,15 @@
         <v>2.8914</v>
       </c>
       <c r="G55" t="n">
-        <v>-368.93076172</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>126300</v>
-      </c>
-      <c r="J55" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2344,26 +2099,15 @@
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>-369.93076172</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>126500</v>
-      </c>
-      <c r="J56" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2385,26 +2129,15 @@
         <v>1.008</v>
       </c>
       <c r="G57" t="n">
-        <v>-370.9387617199999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>126400</v>
-      </c>
-      <c r="J57" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2426,26 +2159,15 @@
         <v>3.21</v>
       </c>
       <c r="G58" t="n">
-        <v>-374.1487617199999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>126000</v>
-      </c>
-      <c r="J58" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2467,26 +2189,15 @@
         <v>8.228899999999999</v>
       </c>
       <c r="G59" t="n">
-        <v>-382.3776617199999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>125300</v>
-      </c>
-      <c r="J59" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2508,26 +2219,15 @@
         <v>1.9242</v>
       </c>
       <c r="G60" t="n">
-        <v>-384.3018617199999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>125000</v>
-      </c>
-      <c r="J60" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2549,26 +2249,15 @@
         <v>39.3881</v>
       </c>
       <c r="G61" t="n">
-        <v>-423.6899617199999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>124700</v>
-      </c>
-      <c r="J61" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2590,26 +2279,15 @@
         <v>3.0394</v>
       </c>
       <c r="G62" t="n">
-        <v>-423.6899617199999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>124600</v>
-      </c>
-      <c r="J62" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2631,26 +2309,15 @@
         <v>1.8551</v>
       </c>
       <c r="G63" t="n">
-        <v>-425.5450617199999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>124600</v>
-      </c>
-      <c r="J63" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2672,26 +2339,15 @@
         <v>0.04429824</v>
       </c>
       <c r="G64" t="n">
-        <v>-425.5007634799999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>124300</v>
-      </c>
-      <c r="J64" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2713,26 +2369,15 @@
         <v>1.9624</v>
       </c>
       <c r="G65" t="n">
-        <v>-425.5007634799999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>125400</v>
-      </c>
-      <c r="J65" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2754,26 +2399,15 @@
         <v>13.3229</v>
       </c>
       <c r="G66" t="n">
-        <v>-438.8236634799999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>125400</v>
-      </c>
-      <c r="J66" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2795,26 +2429,15 @@
         <v>113.4723</v>
       </c>
       <c r="G67" t="n">
-        <v>-325.3513634799999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>124900</v>
-      </c>
-      <c r="J67" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2836,26 +2459,15 @@
         <v>1.8582</v>
       </c>
       <c r="G68" t="n">
-        <v>-327.2095634799999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>125800</v>
-      </c>
-      <c r="J68" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2877,26 +2489,15 @@
         <v>8.740600000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>-335.9501634799999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>124900</v>
-      </c>
-      <c r="J69" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2918,26 +2519,21 @@
         <v>10.184</v>
       </c>
       <c r="G70" t="n">
-        <v>-335.9501634799999</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
         <v>124800</v>
       </c>
-      <c r="J70" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2959,24 +2555,21 @@
         <v>5.993</v>
       </c>
       <c r="G71" t="n">
-        <v>-341.9431634799999</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>124800</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2998,24 +2591,21 @@
         <v>6</v>
       </c>
       <c r="G72" t="n">
-        <v>-347.9431634799999</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>124700</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3037,26 +2627,21 @@
         <v>1.0013</v>
       </c>
       <c r="G73" t="n">
-        <v>-346.9418634799999</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
         <v>124500</v>
       </c>
-      <c r="J73" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3078,26 +2663,21 @@
         <v>0.7249</v>
       </c>
       <c r="G74" t="n">
-        <v>-346.9418634799999</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
         <v>124600</v>
       </c>
-      <c r="J74" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3119,24 +2699,21 @@
         <v>2.659</v>
       </c>
       <c r="G75" t="n">
-        <v>-349.6008634799999</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>124600</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3158,26 +2735,21 @@
         <v>8.635999999999999</v>
       </c>
       <c r="G76" t="n">
-        <v>-340.9648634799998</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
         <v>124500</v>
       </c>
-      <c r="J76" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3199,26 +2771,19 @@
         <v>0.8704</v>
       </c>
       <c r="G77" t="n">
-        <v>-341.8352634799999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>125000</v>
-      </c>
-      <c r="J77" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3240,26 +2805,21 @@
         <v>1.646</v>
       </c>
       <c r="G78" t="n">
-        <v>-341.8352634799999</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
         <v>124700</v>
       </c>
-      <c r="J78" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3281,24 +2841,21 @@
         <v>0.2675</v>
       </c>
       <c r="G79" t="n">
-        <v>-341.5677634799999</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>124700</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3320,26 +2877,21 @@
         <v>0.2</v>
       </c>
       <c r="G80" t="n">
-        <v>-341.5677634799999</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
         <v>124800</v>
       </c>
-      <c r="J80" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3361,26 +2913,21 @@
         <v>0.8002</v>
       </c>
       <c r="G81" t="n">
-        <v>-341.5677634799999</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
         <v>124800</v>
       </c>
-      <c r="J81" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3402,26 +2949,21 @@
         <v>0.4221</v>
       </c>
       <c r="G82" t="n">
-        <v>-341.5677634799999</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
         <v>124800</v>
       </c>
-      <c r="J82" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3443,26 +2985,21 @@
         <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>-339.5677634799999</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
         <v>124800</v>
       </c>
-      <c r="J83" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3484,26 +3021,21 @@
         <v>0.03202562</v>
       </c>
       <c r="G84" t="n">
-        <v>-339.5677634799999</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
         <v>124900</v>
       </c>
-      <c r="J84" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3525,26 +3057,21 @@
         <v>0.613</v>
       </c>
       <c r="G85" t="n">
-        <v>-339.5677634799999</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
         <v>124900</v>
       </c>
-      <c r="J85" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3566,26 +3093,21 @@
         <v>0.0003</v>
       </c>
       <c r="G86" t="n">
-        <v>-339.5680634799999</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
         <v>124900</v>
       </c>
-      <c r="J86" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3607,26 +3129,21 @@
         <v>3.709</v>
       </c>
       <c r="G87" t="n">
-        <v>-343.2770634799999</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
         <v>124700</v>
       </c>
-      <c r="J87" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3648,26 +3165,21 @@
         <v>1.051</v>
       </c>
       <c r="G88" t="n">
-        <v>-344.3280634799999</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
         <v>124200</v>
       </c>
-      <c r="J88" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3689,26 +3201,21 @@
         <v>0.245</v>
       </c>
       <c r="G89" t="n">
-        <v>-344.0830634799999</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
         <v>124100</v>
       </c>
-      <c r="J89" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3730,26 +3237,21 @@
         <v>19.181</v>
       </c>
       <c r="G90" t="n">
-        <v>-324.9020634799999</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
         <v>124200</v>
       </c>
-      <c r="J90" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3771,26 +3273,21 @@
         <v>6.291</v>
       </c>
       <c r="G91" t="n">
-        <v>-331.1930634799999</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
         <v>124300</v>
       </c>
-      <c r="J91" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3812,26 +3309,21 @@
         <v>16.026</v>
       </c>
       <c r="G92" t="n">
-        <v>-347.2190634799999</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
         <v>124100</v>
       </c>
-      <c r="J92" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3853,26 +3345,21 @@
         <v>57.942</v>
       </c>
       <c r="G93" t="n">
-        <v>-289.2770634799999</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
         <v>124000</v>
       </c>
-      <c r="J93" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3894,26 +3381,21 @@
         <v>0.518</v>
       </c>
       <c r="G94" t="n">
-        <v>-289.7950634799998</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
         <v>124600</v>
       </c>
-      <c r="J94" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3935,26 +3417,21 @@
         <v>15.558</v>
       </c>
       <c r="G95" t="n">
-        <v>-289.7950634799998</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
         <v>123800</v>
       </c>
-      <c r="J95" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3976,26 +3453,21 @@
         <v>0.6486</v>
       </c>
       <c r="G96" t="n">
-        <v>-289.1464634799999</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
         <v>123800</v>
       </c>
-      <c r="J96" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4017,24 +3489,21 @@
         <v>0.2479</v>
       </c>
       <c r="G97" t="n">
-        <v>-289.3943634799999</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>124600</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4056,24 +3525,21 @@
         <v>0.2494</v>
       </c>
       <c r="G98" t="n">
-        <v>-289.6437634799998</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>123800</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4095,24 +3561,21 @@
         <v>0.9733000000000001</v>
       </c>
       <c r="G99" t="n">
-        <v>-289.6437634799998</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>123000</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4134,26 +3597,21 @@
         <v>0.03595469</v>
       </c>
       <c r="G100" t="n">
-        <v>-289.6078087899999</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
         <v>123000</v>
       </c>
-      <c r="J100" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4175,24 +3633,21 @@
         <v>43.0708</v>
       </c>
       <c r="G101" t="n">
-        <v>-332.6786087899999</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>123600</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4214,24 +3669,21 @@
         <v>32.4738</v>
       </c>
       <c r="G102" t="n">
-        <v>-300.2048087899999</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>123500</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4253,24 +3705,21 @@
         <v>11.0963</v>
       </c>
       <c r="G103" t="n">
-        <v>-311.3011087899999</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>123600</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4292,24 +3741,21 @@
         <v>0.4595</v>
       </c>
       <c r="G104" t="n">
-        <v>-311.3011087899999</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>123500</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4331,24 +3777,21 @@
         <v>0.468</v>
       </c>
       <c r="G105" t="n">
-        <v>-311.3011087899999</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>123500</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4370,24 +3813,21 @@
         <v>1.8049</v>
       </c>
       <c r="G106" t="n">
-        <v>-309.4962087899999</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>123500</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4409,24 +3849,21 @@
         <v>1.0224</v>
       </c>
       <c r="G107" t="n">
-        <v>-308.4738087899999</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>124600</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4448,24 +3885,19 @@
         <v>15.7</v>
       </c>
       <c r="G108" t="n">
-        <v>-324.1738087899999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4487,24 +3919,19 @@
         <v>0.03595888</v>
       </c>
       <c r="G109" t="n">
-        <v>-324.1378499099999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4526,24 +3953,19 @@
         <v>15</v>
       </c>
       <c r="G110" t="n">
-        <v>-339.1378499099999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4565,24 +3987,19 @@
         <v>6.0398</v>
       </c>
       <c r="G111" t="n">
-        <v>-333.0980499099999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4604,24 +4021,19 @@
         <v>0.51</v>
       </c>
       <c r="G112" t="n">
-        <v>-332.5880499099999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4643,24 +4055,19 @@
         <v>1.406</v>
       </c>
       <c r="G113" t="n">
-        <v>-333.9940499099999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4682,24 +4089,19 @@
         <v>3.2727</v>
       </c>
       <c r="G114" t="n">
-        <v>-337.2667499099999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4721,24 +4123,19 @@
         <v>0.8002</v>
       </c>
       <c r="G115" t="n">
-        <v>-337.2667499099999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4760,24 +4157,19 @@
         <v>1.3435</v>
       </c>
       <c r="G116" t="n">
-        <v>-337.2667499099999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4799,24 +4191,19 @@
         <v>2</v>
       </c>
       <c r="G117" t="n">
-        <v>-335.2667499099999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4838,24 +4225,19 @@
         <v>17.1839</v>
       </c>
       <c r="G118" t="n">
-        <v>-352.4506499099999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4877,24 +4259,19 @@
         <v>1.0266</v>
       </c>
       <c r="G119" t="n">
-        <v>-351.4240499099999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4916,24 +4293,19 @@
         <v>37.2863</v>
       </c>
       <c r="G120" t="n">
-        <v>-314.1377499099999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4955,24 +4327,19 @@
         <v>38.0241</v>
       </c>
       <c r="G121" t="n">
-        <v>-314.1377499099999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4994,26 +4361,19 @@
         <v>33.976</v>
       </c>
       <c r="G122" t="n">
-        <v>-314.1377499099999</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>126000</v>
-      </c>
-      <c r="J122" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5035,26 +4395,19 @@
         <v>24.0013</v>
       </c>
       <c r="G123" t="n">
-        <v>-338.1390499099999</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>126000</v>
-      </c>
-      <c r="J123" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5076,26 +4429,19 @@
         <v>18.1302</v>
       </c>
       <c r="G124" t="n">
-        <v>-338.1390499099999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>125500</v>
-      </c>
-      <c r="J124" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5117,26 +4463,19 @@
         <v>0.03253968</v>
       </c>
       <c r="G125" t="n">
-        <v>-338.1065102299999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>125500</v>
-      </c>
-      <c r="J125" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5158,26 +4497,19 @@
         <v>31.04816032</v>
       </c>
       <c r="G126" t="n">
-        <v>-307.0583499099999</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>126000</v>
-      </c>
-      <c r="J126" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5199,24 +4531,19 @@
         <v>0.63</v>
       </c>
       <c r="G127" t="n">
-        <v>-306.4283499099999</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5238,24 +4565,19 @@
         <v>0.0394</v>
       </c>
       <c r="G128" t="n">
-        <v>-306.4283499099999</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5277,24 +4599,19 @@
         <v>0.03499212</v>
       </c>
       <c r="G129" t="n">
-        <v>-306.3933577899999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5316,24 +4633,19 @@
         <v>0.1959</v>
       </c>
       <c r="G130" t="n">
-        <v>-306.3933577899999</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5355,24 +4667,19 @@
         <v>2.914</v>
       </c>
       <c r="G131" t="n">
-        <v>-306.3933577899999</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5394,24 +4701,19 @@
         <v>20.0379</v>
       </c>
       <c r="G132" t="n">
-        <v>-306.3933577899999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5433,24 +4735,19 @@
         <v>6.8736</v>
       </c>
       <c r="G133" t="n">
-        <v>-299.5197577899999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5472,24 +4769,19 @@
         <v>46.1934</v>
       </c>
       <c r="G134" t="n">
-        <v>-253.3263577899999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5511,24 +4803,19 @@
         <v>12.7542</v>
       </c>
       <c r="G135" t="n">
-        <v>-240.5721577899999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5550,24 +4837,19 @@
         <v>0.0622</v>
       </c>
       <c r="G136" t="n">
-        <v>-240.5721577899999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5589,24 +4871,19 @@
         <v>24.1768</v>
       </c>
       <c r="G137" t="n">
-        <v>-216.3953577899999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5628,24 +4905,19 @@
         <v>0.0279</v>
       </c>
       <c r="G138" t="n">
-        <v>-216.3953577899999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>126700</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1.013153117600631</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5667,18 +4939,19 @@
         <v>7.3908</v>
       </c>
       <c r="G139" t="n">
-        <v>-216.3953577899999</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5700,18 +4973,19 @@
         <v>3.1567</v>
       </c>
       <c r="G140" t="n">
-        <v>-213.2386577899999</v>
-      </c>
-      <c r="H140" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5733,18 +5007,19 @@
         <v>7</v>
       </c>
       <c r="G141" t="n">
-        <v>-220.2386577899999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5766,18 +5041,17 @@
         <v>54.3925</v>
       </c>
       <c r="G142" t="n">
-        <v>-274.6311577899999</v>
-      </c>
-      <c r="H142" t="n">
         <v>2</v>
       </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5799,18 +5073,15 @@
         <v>14.5</v>
       </c>
       <c r="G143" t="n">
-        <v>-260.1311577899999</v>
-      </c>
-      <c r="H143" t="n">
         <v>2</v>
       </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5832,18 +5103,15 @@
         <v>4.8274621</v>
       </c>
       <c r="G144" t="n">
-        <v>-255.3036956899999</v>
-      </c>
-      <c r="H144" t="n">
         <v>2</v>
       </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5865,18 +5133,15 @@
         <v>2</v>
       </c>
       <c r="G145" t="n">
-        <v>-257.3036956899999</v>
-      </c>
-      <c r="H145" t="n">
         <v>2</v>
       </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5898,18 +5163,15 @@
         <v>11.811</v>
       </c>
       <c r="G146" t="n">
-        <v>-269.1146956899998</v>
-      </c>
-      <c r="H146" t="n">
         <v>2</v>
       </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5931,18 +5193,15 @@
         <v>11</v>
       </c>
       <c r="G147" t="n">
-        <v>-280.1146956899998</v>
-      </c>
-      <c r="H147" t="n">
         <v>2</v>
       </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5964,18 +5223,15 @@
         <v>1.0318</v>
       </c>
       <c r="G148" t="n">
-        <v>-280.1146956899998</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5997,18 +5253,15 @@
         <v>0.03575353</v>
       </c>
       <c r="G149" t="n">
-        <v>-280.0789421599998</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6030,18 +5283,15 @@
         <v>2.8436</v>
       </c>
       <c r="G150" t="n">
-        <v>-282.9225421599998</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6063,18 +5313,15 @@
         <v>22.3768</v>
       </c>
       <c r="G151" t="n">
-        <v>-260.5457421599998</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6096,18 +5343,15 @@
         <v>23.90964138</v>
       </c>
       <c r="G152" t="n">
-        <v>-284.4553835399998</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6129,18 +5373,15 @@
         <v>0.8355</v>
       </c>
       <c r="G153" t="n">
-        <v>-285.2908835399998</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6162,18 +5403,15 @@
         <v>0.1645</v>
       </c>
       <c r="G154" t="n">
-        <v>-285.2908835399998</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6195,18 +5433,15 @@
         <v>0.01750985</v>
       </c>
       <c r="G155" t="n">
-        <v>-285.2733736899998</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6228,18 +5463,15 @@
         <v>0.5</v>
       </c>
       <c r="G156" t="n">
-        <v>-285.7733736899998</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6261,18 +5493,15 @@
         <v>11.659</v>
       </c>
       <c r="G157" t="n">
-        <v>-285.7733736899998</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6294,18 +5523,15 @@
         <v>28.6669</v>
       </c>
       <c r="G158" t="n">
-        <v>-285.7733736899998</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6327,18 +5553,15 @@
         <v>0.07870000000000001</v>
       </c>
       <c r="G159" t="n">
-        <v>-285.7733736899998</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6360,18 +5583,15 @@
         <v>32.3186</v>
       </c>
       <c r="G160" t="n">
-        <v>-318.0919736899998</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6393,18 +5613,15 @@
         <v>1.63976867</v>
       </c>
       <c r="G161" t="n">
-        <v>-316.4522050199998</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6426,18 +5643,15 @@
         <v>0.51</v>
       </c>
       <c r="G162" t="n">
-        <v>-316.9622050199998</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6459,18 +5673,15 @@
         <v>0.63</v>
       </c>
       <c r="G163" t="n">
-        <v>-317.5922050199998</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6492,18 +5703,15 @@
         <v>1.3863</v>
       </c>
       <c r="G164" t="n">
-        <v>-316.2059050199998</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6525,18 +5733,15 @@
         <v>0.01763492</v>
       </c>
       <c r="G165" t="n">
-        <v>-316.1882700999998</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6558,18 +5763,15 @@
         <v>6.4408</v>
       </c>
       <c r="G166" t="n">
-        <v>-322.6290700999998</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6591,18 +5793,15 @@
         <v>3.96510705</v>
       </c>
       <c r="G167" t="n">
-        <v>-318.6639630499998</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6624,18 +5823,15 @@
         <v>0.3423</v>
       </c>
       <c r="G168" t="n">
-        <v>-319.0062630499999</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6657,18 +5853,15 @@
         <v>3.5</v>
       </c>
       <c r="G169" t="n">
-        <v>-322.5062630499999</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6690,18 +5883,15 @@
         <v>0.79</v>
       </c>
       <c r="G170" t="n">
-        <v>-321.7162630499998</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6723,18 +5913,15 @@
         <v>0.2</v>
       </c>
       <c r="G171" t="n">
-        <v>-321.7162630499998</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6756,18 +5943,15 @@
         <v>5.1638</v>
       </c>
       <c r="G172" t="n">
-        <v>-326.8800630499998</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6789,18 +5973,15 @@
         <v>1</v>
       </c>
       <c r="G173" t="n">
-        <v>-326.8800630499998</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6822,18 +6003,15 @@
         <v>2</v>
       </c>
       <c r="G174" t="n">
-        <v>-324.8800630499998</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6855,18 +6033,15 @@
         <v>0.472</v>
       </c>
       <c r="G175" t="n">
-        <v>-325.3520630499998</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6888,18 +6063,15 @@
         <v>6.1</v>
       </c>
       <c r="G176" t="n">
-        <v>-331.4520630499998</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6921,18 +6093,15 @@
         <v>5.4719</v>
       </c>
       <c r="G177" t="n">
-        <v>-325.9801630499998</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6954,18 +6123,15 @@
         <v>3.3416</v>
       </c>
       <c r="G178" t="n">
-        <v>-329.3217630499998</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6987,18 +6153,15 @@
         <v>4.138</v>
       </c>
       <c r="G179" t="n">
-        <v>-329.3217630499998</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7020,18 +6183,15 @@
         <v>2.0498</v>
       </c>
       <c r="G180" t="n">
-        <v>-331.3715630499998</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7053,18 +6213,15 @@
         <v>4.9001</v>
       </c>
       <c r="G181" t="n">
-        <v>-331.3715630499998</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
